--- a/Linux_2k_clean_analysis.xlsx
+++ b/Linux_2k_clean_analysis.xlsx
@@ -23311,7 +23311,7 @@
       </c>
       <c r="D1144" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21938", "RHOST": "202.82.200.188 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21938", "RHOST": "202.82.200.188"}</t>
         </is>
       </c>
     </row>
@@ -23331,7 +23331,7 @@
       </c>
       <c r="D1145" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26468", "RHOST": "217.187.83.50 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26468", "RHOST": "217.187.83.50"}</t>
         </is>
       </c>
     </row>
@@ -23351,7 +23351,7 @@
       </c>
       <c r="D1146" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26470", "RHOST": "217.187.83.50 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26470", "RHOST": "217.187.83.50"}</t>
         </is>
       </c>
     </row>
@@ -23371,7 +23371,7 @@
       </c>
       <c r="D1147" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26469", "RHOST": "217.187.83.50 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26469", "RHOST": "217.187.83.50"}</t>
         </is>
       </c>
     </row>
@@ -23391,7 +23391,7 @@
       </c>
       <c r="D1148" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26481", "RHOST": "217.187.83.50 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26481", "RHOST": "217.187.83.50"}</t>
         </is>
       </c>
     </row>
@@ -23411,7 +23411,7 @@
       </c>
       <c r="D1149" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26483", "RHOST": "217.187.83.50 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26483", "RHOST": "217.187.83.50"}</t>
         </is>
       </c>
     </row>
@@ -23431,7 +23431,7 @@
       </c>
       <c r="D1150" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26485", "RHOST": "217.187.83.50 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26485", "RHOST": "217.187.83.50"}</t>
         </is>
       </c>
     </row>
@@ -23451,7 +23451,7 @@
       </c>
       <c r="D1151" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26474", "RHOST": "217.187.83.50 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26474", "RHOST": "217.187.83.50"}</t>
         </is>
       </c>
     </row>
@@ -23471,7 +23471,7 @@
       </c>
       <c r="D1152" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26473", "RHOST": "217.187.83.50 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26473", "RHOST": "217.187.83.50"}</t>
         </is>
       </c>
     </row>
@@ -23491,7 +23491,7 @@
       </c>
       <c r="D1153" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26467", "RHOST": "217.187.83.50 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26467", "RHOST": "217.187.83.50"}</t>
         </is>
       </c>
     </row>
@@ -23511,7 +23511,7 @@
       </c>
       <c r="D1154" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26471", "RHOST": "217.187.83.50 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26471", "RHOST": "217.187.83.50"}</t>
         </is>
       </c>
     </row>
@@ -23531,7 +23531,7 @@
       </c>
       <c r="D1155" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 26 05:47:42", "HOSTNAME": "combo", "PID": "28703", "RHOST": "172.181.208.156 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 26 05:47:42", "HOSTNAME": "combo", "PID": "28703", "RHOST": "172.181.208.156"}</t>
         </is>
       </c>
     </row>
@@ -23551,7 +23551,7 @@
       </c>
       <c r="D1156" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 26 05:47:42", "HOSTNAME": "combo", "PID": "28700", "RHOST": "172.181.208.156 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 26 05:47:42", "HOSTNAME": "combo", "PID": "28700", "RHOST": "172.181.208.156"}</t>
         </is>
       </c>
     </row>
@@ -23571,7 +23571,7 @@
       </c>
       <c r="D1157" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 26 05:47:42", "HOSTNAME": "combo", "PID": "28701", "RHOST": "172.181.208.156 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 26 05:47:42", "HOSTNAME": "combo", "PID": "28701", "RHOST": "172.181.208.156"}</t>
         </is>
       </c>
     </row>
@@ -23591,7 +23591,7 @@
       </c>
       <c r="D1158" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 26 05:47:42", "HOSTNAME": "combo", "PID": "28702", "RHOST": "172.181.208.156 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 26 05:47:42", "HOSTNAME": "combo", "PID": "28702", "RHOST": "172.181.208.156"}</t>
         </is>
       </c>
     </row>
@@ -23611,7 +23611,7 @@
       </c>
       <c r="D1159" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 26 05:47:42", "HOSTNAME": "combo", "PID": "28696", "RHOST": "172.181.208.156 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 26 05:47:42", "HOSTNAME": "combo", "PID": "28696", "RHOST": "172.181.208.156"}</t>
         </is>
       </c>
     </row>
@@ -23631,7 +23631,7 @@
       </c>
       <c r="D1160" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26464", "RHOST": "217.187.83.50 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26464", "RHOST": "217.187.83.50"}</t>
         </is>
       </c>
     </row>
@@ -23651,7 +23651,7 @@
       </c>
       <c r="D1161" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26465", "RHOST": "217.187.83.50 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26465", "RHOST": "217.187.83.50"}</t>
         </is>
       </c>
     </row>
@@ -23671,7 +23671,7 @@
       </c>
       <c r="D1162" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26480", "RHOST": "217.187.83.50 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26480", "RHOST": "217.187.83.50"}</t>
         </is>
       </c>
     </row>
@@ -23691,7 +23691,7 @@
       </c>
       <c r="D1163" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 26 05:47:42", "HOSTNAME": "combo", "PID": "28692", "RHOST": "172.181.208.156 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 26 05:47:42", "HOSTNAME": "combo", "PID": "28692", "RHOST": "172.181.208.156"}</t>
         </is>
       </c>
     </row>
@@ -23711,7 +23711,7 @@
       </c>
       <c r="D1164" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 26 05:47:51", "HOSTNAME": "combo", "PID": "28705", "RHOST": "172.181.208.156 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 26 05:47:51", "HOSTNAME": "combo", "PID": "28705", "RHOST": "172.181.208.156"}</t>
         </is>
       </c>
     </row>
@@ -23731,7 +23731,7 @@
       </c>
       <c r="D1165" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 26 05:47:51", "HOSTNAME": "combo", "PID": "28704", "RHOST": "172.181.208.156 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 26 05:47:51", "HOSTNAME": "combo", "PID": "28704", "RHOST": "172.181.208.156"}</t>
         </is>
       </c>
     </row>
@@ -23751,7 +23751,7 @@
       </c>
       <c r="D1166" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 26 05:47:51", "HOSTNAME": "combo", "PID": "28706", "RHOST": "172.181.208.156 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 26 05:47:51", "HOSTNAME": "combo", "PID": "28706", "RHOST": "172.181.208.156"}</t>
         </is>
       </c>
     </row>
@@ -23771,7 +23771,7 @@
       </c>
       <c r="D1167" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 26 05:47:51", "HOSTNAME": "combo", "PID": "28707", "RHOST": "172.181.208.156 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 26 05:47:51", "HOSTNAME": "combo", "PID": "28707", "RHOST": "172.181.208.156"}</t>
         </is>
       </c>
     </row>
@@ -23791,7 +23791,7 @@
       </c>
       <c r="D1168" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 27 10:59:53", "HOSTNAME": "combo", "PID": "31985", "RHOST": "218.38.58.3 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 27 10:59:53", "HOSTNAME": "combo", "PID": "31985", "RHOST": "218.38.58.3"}</t>
         </is>
       </c>
     </row>
@@ -23811,7 +23811,7 @@
       </c>
       <c r="D1169" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 10:48:17", "HOSTNAME": "combo", "PID": "15560", "RHOST": "208.62.55.75 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 10:48:17", "HOSTNAME": "combo", "PID": "15560", "RHOST": "208.62.55.75"}</t>
         </is>
       </c>
     </row>
@@ -23831,7 +23831,7 @@
       </c>
       <c r="D1170" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 10:48:17", "HOSTNAME": "combo", "PID": "15561", "RHOST": "208.62.55.75 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 10:48:17", "HOSTNAME": "combo", "PID": "15561", "RHOST": "208.62.55.75"}</t>
         </is>
       </c>
     </row>
@@ -23851,7 +23851,7 @@
       </c>
       <c r="D1171" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 10:48:18", "HOSTNAME": "combo", "PID": "15562", "RHOST": "208.62.55.75 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 10:48:18", "HOSTNAME": "combo", "PID": "15562", "RHOST": "208.62.55.75"}</t>
         </is>
       </c>
     </row>
@@ -23871,7 +23871,7 @@
       </c>
       <c r="D1172" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 10:48:20", "HOSTNAME": "combo", "PID": "15563", "RHOST": "208.62.55.75 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 10:48:20", "HOSTNAME": "combo", "PID": "15563", "RHOST": "208.62.55.75"}</t>
         </is>
       </c>
     </row>
@@ -23891,7 +23891,7 @@
       </c>
       <c r="D1173" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 10:48:21", "HOSTNAME": "combo", "PID": "15564", "RHOST": "208.62.55.75 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 10:48:21", "HOSTNAME": "combo", "PID": "15564", "RHOST": "208.62.55.75"}</t>
         </is>
       </c>
     </row>
@@ -23911,7 +23911,7 @@
       </c>
       <c r="D1174" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 10:48:06", "HOSTNAME": "combo", "PID": "15551", "RHOST": "208.62.55.75 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 10:48:06", "HOSTNAME": "combo", "PID": "15551", "RHOST": "208.62.55.75"}</t>
         </is>
       </c>
     </row>
@@ -23931,7 +23931,7 @@
       </c>
       <c r="D1175" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 10:48:08", "HOSTNAME": "combo", "PID": "15552", "RHOST": "208.62.55.75 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 10:48:08", "HOSTNAME": "combo", "PID": "15552", "RHOST": "208.62.55.75"}</t>
         </is>
       </c>
     </row>
@@ -23951,7 +23951,7 @@
       </c>
       <c r="D1176" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 26 05:47:42", "HOSTNAME": "combo", "PID": "28687", "RHOST": "172.181.208.156 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 26 05:47:42", "HOSTNAME": "combo", "PID": "28687", "RHOST": "172.181.208.156"}</t>
         </is>
       </c>
     </row>
@@ -23971,7 +23971,7 @@
       </c>
       <c r="D1177" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 14:44:35", "HOSTNAME": "combo", "PID": "15917", "RHOST": "210.223.97.117 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 14:44:35", "HOSTNAME": "combo", "PID": "15917", "RHOST": "210.223.97.117"}</t>
         </is>
       </c>
     </row>
@@ -23991,7 +23991,7 @@
       </c>
       <c r="D1178" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 14:44:35", "HOSTNAME": "combo", "PID": "15922", "RHOST": "210.223.97.117 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 14:44:35", "HOSTNAME": "combo", "PID": "15922", "RHOST": "210.223.97.117"}</t>
         </is>
       </c>
     </row>
@@ -24011,7 +24011,7 @@
       </c>
       <c r="D1179" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 14:44:35", "HOSTNAME": "combo", "PID": "15918", "RHOST": "210.223.97.117 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 14:44:35", "HOSTNAME": "combo", "PID": "15918", "RHOST": "210.223.97.117"}</t>
         </is>
       </c>
     </row>
@@ -24031,7 +24031,7 @@
       </c>
       <c r="D1180" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 14:44:35", "HOSTNAME": "combo", "PID": "15919", "RHOST": "210.223.97.117 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 14:44:35", "HOSTNAME": "combo", "PID": "15919", "RHOST": "210.223.97.117"}</t>
         </is>
       </c>
     </row>
@@ -24051,7 +24051,7 @@
       </c>
       <c r="D1181" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 14:44:35", "HOSTNAME": "combo", "PID": "15923", "RHOST": "210.223.97.117 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 14:44:35", "HOSTNAME": "combo", "PID": "15923", "RHOST": "210.223.97.117"}</t>
         </is>
       </c>
     </row>
@@ -24071,7 +24071,7 @@
       </c>
       <c r="D1182" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 26 05:47:42", "HOSTNAME": "combo", "PID": "28689", "RHOST": "172.181.208.156 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 26 05:47:42", "HOSTNAME": "combo", "PID": "28689", "RHOST": "172.181.208.156"}</t>
         </is>
       </c>
     </row>
@@ -24091,7 +24091,7 @@
       </c>
       <c r="D1183" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 26 05:47:42", "HOSTNAME": "combo", "PID": "28690", "RHOST": "172.181.208.156 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 26 05:47:42", "HOSTNAME": "combo", "PID": "28690", "RHOST": "172.181.208.156"}</t>
         </is>
       </c>
     </row>
@@ -24111,7 +24111,7 @@
       </c>
       <c r="D1184" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 26 05:47:42", "HOSTNAME": "combo", "PID": "28691", "RHOST": "172.181.208.156 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 26 05:47:42", "HOSTNAME": "combo", "PID": "28691", "RHOST": "172.181.208.156"}</t>
         </is>
       </c>
     </row>
@@ -24131,7 +24131,7 @@
       </c>
       <c r="D1185" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 26 05:47:42", "HOSTNAME": "combo", "PID": "28699", "RHOST": "172.181.208.156 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 26 05:47:42", "HOSTNAME": "combo", "PID": "28699", "RHOST": "172.181.208.156"}</t>
         </is>
       </c>
     </row>
@@ -24151,7 +24151,7 @@
       </c>
       <c r="D1186" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24976", "RHOST": "206.47.209.10 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24976", "RHOST": "206.47.209.10"}</t>
         </is>
       </c>
     </row>
@@ -24171,7 +24171,7 @@
       </c>
       <c r="D1187" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24974", "RHOST": "206.47.209.10 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24974", "RHOST": "206.47.209.10"}</t>
         </is>
       </c>
     </row>
@@ -24191,7 +24191,7 @@
       </c>
       <c r="D1188" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24973", "RHOST": "206.47.209.10 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24973", "RHOST": "206.47.209.10"}</t>
         </is>
       </c>
     </row>
@@ -24211,7 +24211,7 @@
       </c>
       <c r="D1189" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 14:44:35", "HOSTNAME": "combo", "PID": "15920", "RHOST": "210.223.97.117 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 14:44:35", "HOSTNAME": "combo", "PID": "15920", "RHOST": "210.223.97.117"}</t>
         </is>
       </c>
     </row>
@@ -24231,7 +24231,7 @@
       </c>
       <c r="D1190" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24975", "RHOST": "206.47.209.10 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24975", "RHOST": "206.47.209.10"}</t>
         </is>
       </c>
     </row>
@@ -24251,7 +24251,7 @@
       </c>
       <c r="D1191" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24978", "RHOST": "206.47.209.10 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24978", "RHOST": "206.47.209.10"}</t>
         </is>
       </c>
     </row>
@@ -24271,7 +24271,7 @@
       </c>
       <c r="D1192" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24962", "RHOST": "206.47.209.10 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24962", "RHOST": "206.47.209.10"}</t>
         </is>
       </c>
     </row>
@@ -24291,7 +24291,7 @@
       </c>
       <c r="D1193" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 26 05:47:42", "HOSTNAME": "combo", "PID": "28694", "RHOST": "172.181.208.156 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 26 05:47:42", "HOSTNAME": "combo", "PID": "28694", "RHOST": "172.181.208.156"}</t>
         </is>
       </c>
     </row>
@@ -24311,7 +24311,7 @@
       </c>
       <c r="D1194" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 26 05:47:42", "HOSTNAME": "combo", "PID": "28695", "RHOST": "172.181.208.156 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 26 05:47:42", "HOSTNAME": "combo", "PID": "28695", "RHOST": "172.181.208.156"}</t>
         </is>
       </c>
     </row>
@@ -24331,7 +24331,7 @@
       </c>
       <c r="D1195" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24968", "RHOST": "206.47.209.10 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24968", "RHOST": "206.47.209.10"}</t>
         </is>
       </c>
     </row>
@@ -24351,7 +24351,7 @@
       </c>
       <c r="D1196" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24965", "RHOST": "206.47.209.10 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24965", "RHOST": "206.47.209.10"}</t>
         </is>
       </c>
     </row>
@@ -24371,7 +24371,7 @@
       </c>
       <c r="D1197" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24964", "RHOST": "206.47.209.10 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24964", "RHOST": "206.47.209.10"}</t>
         </is>
       </c>
     </row>
@@ -24391,7 +24391,7 @@
       </c>
       <c r="D1198" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13247", "RHOST": "61.74.96.178 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13247", "RHOST": "61.74.96.178"}</t>
         </is>
       </c>
     </row>
@@ -24411,7 +24411,7 @@
       </c>
       <c r="D1199" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13248", "RHOST": "61.74.96.178 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13248", "RHOST": "61.74.96.178"}</t>
         </is>
       </c>
     </row>
@@ -24431,7 +24431,7 @@
       </c>
       <c r="D1200" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 26 05:47:51", "HOSTNAME": "combo", "PID": "28708", "RHOST": "172.181.208.156 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 26 05:47:51", "HOSTNAME": "combo", "PID": "28708", "RHOST": "172.181.208.156"}</t>
         </is>
       </c>
     </row>
@@ -24451,7 +24451,7 @@
       </c>
       <c r="D1201" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13256", "RHOST": "61.74.96.178 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13256", "RHOST": "61.74.96.178"}</t>
         </is>
       </c>
     </row>
@@ -24471,7 +24471,7 @@
       </c>
       <c r="D1202" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13258", "RHOST": "61.74.96.178 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13258", "RHOST": "61.74.96.178"}</t>
         </is>
       </c>
     </row>
@@ -24491,7 +24491,7 @@
       </c>
       <c r="D1203" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13255", "RHOST": "61.74.96.178 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13255", "RHOST": "61.74.96.178"}</t>
         </is>
       </c>
     </row>
@@ -24511,7 +24511,7 @@
       </c>
       <c r="D1204" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13254", "RHOST": "61.74.96.178 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13254", "RHOST": "61.74.96.178"}</t>
         </is>
       </c>
     </row>
@@ -24531,7 +24531,7 @@
       </c>
       <c r="D1205" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13264", "RHOST": "61.74.96.178 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13264", "RHOST": "61.74.96.178"}</t>
         </is>
       </c>
     </row>
@@ -24551,7 +24551,7 @@
       </c>
       <c r="D1206" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13245", "RHOST": "61.74.96.178 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13245", "RHOST": "61.74.96.178"}</t>
         </is>
       </c>
     </row>
@@ -24571,7 +24571,7 @@
       </c>
       <c r="D1207" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13246", "RHOST": "61.74.96.178 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13246", "RHOST": "61.74.96.178"}</t>
         </is>
       </c>
     </row>
@@ -24591,7 +24591,7 @@
       </c>
       <c r="D1208" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13244", "RHOST": "61.74.96.178 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13244", "RHOST": "61.74.96.178"}</t>
         </is>
       </c>
     </row>
@@ -24611,7 +24611,7 @@
       </c>
       <c r="D1209" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13243", "RHOST": "61.74.96.178 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13243", "RHOST": "61.74.96.178"}</t>
         </is>
       </c>
     </row>
@@ -24631,7 +24631,7 @@
       </c>
       <c r="D1210" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13249", "RHOST": "61.74.96.178 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13249", "RHOST": "61.74.96.178"}</t>
         </is>
       </c>
     </row>
@@ -24651,7 +24651,7 @@
       </c>
       <c r="D1211" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13253", "RHOST": "61.74.96.178 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13253", "RHOST": "61.74.96.178"}</t>
         </is>
       </c>
     </row>
@@ -24671,7 +24671,7 @@
       </c>
       <c r="D1212" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 10:48:01", "HOSTNAME": "combo", "PID": "15542", "RHOST": "208.62.55.75 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 10:48:01", "HOSTNAME": "combo", "PID": "15542", "RHOST": "208.62.55.75"}</t>
         </is>
       </c>
     </row>
@@ -24691,7 +24691,7 @@
       </c>
       <c r="D1213" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 10:48:01", "HOSTNAME": "combo", "PID": "15544", "RHOST": "208.62.55.75 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 10:48:01", "HOSTNAME": "combo", "PID": "15544", "RHOST": "208.62.55.75"}</t>
         </is>
       </c>
     </row>
@@ -24711,7 +24711,7 @@
       </c>
       <c r="D1214" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 10:48:01", "HOSTNAME": "combo", "PID": "15545", "RHOST": "208.62.55.75 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 10:48:01", "HOSTNAME": "combo", "PID": "15545", "RHOST": "208.62.55.75"}</t>
         </is>
       </c>
     </row>
@@ -24731,7 +24731,7 @@
       </c>
       <c r="D1215" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 10:48:05", "HOSTNAME": "combo", "PID": "15548", "RHOST": "208.62.55.75 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 10:48:05", "HOSTNAME": "combo", "PID": "15548", "RHOST": "208.62.55.75"}</t>
         </is>
       </c>
     </row>
@@ -24751,7 +24751,7 @@
       </c>
       <c r="D1216" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 10:48:06", "HOSTNAME": "combo", "PID": "15549", "RHOST": "208.62.55.75 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 10:48:06", "HOSTNAME": "combo", "PID": "15549", "RHOST": "208.62.55.75"}</t>
         </is>
       </c>
     </row>
@@ -24771,7 +24771,7 @@
       </c>
       <c r="D1217" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 10:48:06", "HOSTNAME": "combo", "PID": "15550", "RHOST": "208.62.55.75 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 10:48:06", "HOSTNAME": "combo", "PID": "15550", "RHOST": "208.62.55.75"}</t>
         </is>
       </c>
     </row>
@@ -24791,7 +24791,7 @@
       </c>
       <c r="D1218" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 10:48:01", "HOSTNAME": "combo", "PID": "15547", "RHOST": "208.62.55.75 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 10:48:01", "HOSTNAME": "combo", "PID": "15547", "RHOST": "208.62.55.75"}</t>
         </is>
       </c>
     </row>
@@ -24811,7 +24811,7 @@
       </c>
       <c r="D1219" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 03:22:23", "HOSTNAME": "combo", "PID": "13265", "RHOST": "61.74.96.178 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 03:22:23", "HOSTNAME": "combo", "PID": "13265", "RHOST": "61.74.96.178"}</t>
         </is>
       </c>
     </row>
@@ -24831,7 +24831,7 @@
       </c>
       <c r="D1220" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 10:48:08", "HOSTNAME": "combo", "PID": "15553", "RHOST": "208.62.55.75 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 10:48:08", "HOSTNAME": "combo", "PID": "15553", "RHOST": "208.62.55.75"}</t>
         </is>
       </c>
     </row>
@@ -24851,7 +24851,7 @@
       </c>
       <c r="D1221" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 10:48:08", "HOSTNAME": "combo", "PID": "15554", "RHOST": "208.62.55.75 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 10:48:08", "HOSTNAME": "combo", "PID": "15554", "RHOST": "208.62.55.75"}</t>
         </is>
       </c>
     </row>
@@ -24871,7 +24871,7 @@
       </c>
       <c r="D1222" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 10:48:10", "HOSTNAME": "combo", "PID": "15555", "RHOST": "208.62.55.75 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 10:48:10", "HOSTNAME": "combo", "PID": "15555", "RHOST": "208.62.55.75"}</t>
         </is>
       </c>
     </row>
@@ -24891,7 +24891,7 @@
       </c>
       <c r="D1223" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 10:48:12", "HOSTNAME": "combo", "PID": "15556", "RHOST": "208.62.55.75 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 10:48:12", "HOSTNAME": "combo", "PID": "15556", "RHOST": "208.62.55.75"}</t>
         </is>
       </c>
     </row>
@@ -24911,7 +24911,7 @@
       </c>
       <c r="D1224" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 10:48:12", "HOSTNAME": "combo", "PID": "15557", "RHOST": "208.62.55.75 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 10:48:12", "HOSTNAME": "combo", "PID": "15557", "RHOST": "208.62.55.75"}</t>
         </is>
       </c>
     </row>
@@ -24931,7 +24931,7 @@
       </c>
       <c r="D1225" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 10:48:13", "HOSTNAME": "combo", "PID": "15558", "RHOST": "208.62.55.75 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 10:48:13", "HOSTNAME": "combo", "PID": "15558", "RHOST": "208.62.55.75"}</t>
         </is>
       </c>
     </row>
@@ -24951,7 +24951,7 @@
       </c>
       <c r="D1226" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 10:48:01", "HOSTNAME": "combo", "PID": "15543", "RHOST": "208.62.55.75 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 10:48:01", "HOSTNAME": "combo", "PID": "15543", "RHOST": "208.62.55.75"}</t>
         </is>
       </c>
     </row>
@@ -24971,7 +24971,7 @@
       </c>
       <c r="D1227" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 10:48:01", "HOSTNAME": "combo", "PID": "15546", "RHOST": "208.62.55.75 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 10:48:01", "HOSTNAME": "combo", "PID": "15546", "RHOST": "208.62.55.75"}</t>
         </is>
       </c>
     </row>
@@ -24991,7 +24991,7 @@
       </c>
       <c r="D1228" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 25 19:25:30", "HOSTNAME": "combo", "PID": "32329", "RHOST": "211.167.68.59 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 25 19:25:30", "HOSTNAME": "combo", "PID": "32329", "RHOST": "211.167.68.59"}</t>
         </is>
       </c>
     </row>
@@ -25011,7 +25011,7 @@
       </c>
       <c r="D1229" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 25 19:25:30", "HOSTNAME": "combo", "PID": "32324", "RHOST": "211.167.68.59 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 25 19:25:30", "HOSTNAME": "combo", "PID": "32324", "RHOST": "211.167.68.59"}</t>
         </is>
       </c>
     </row>
@@ -25031,7 +25031,7 @@
       </c>
       <c r="D1230" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 25 19:25:30", "HOSTNAME": "combo", "PID": "32326", "RHOST": "211.167.68.59 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 25 19:25:30", "HOSTNAME": "combo", "PID": "32326", "RHOST": "211.167.68.59"}</t>
         </is>
       </c>
     </row>
@@ -25051,7 +25051,7 @@
       </c>
       <c r="D1231" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 25 19:25:30", "HOSTNAME": "combo", "PID": "32323", "RHOST": "211.167.68.59 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 25 19:25:30", "HOSTNAME": "combo", "PID": "32323", "RHOST": "211.167.68.59"}</t>
         </is>
       </c>
     </row>
@@ -25071,7 +25071,7 @@
       </c>
       <c r="D1232" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 25 19:25:30", "HOSTNAME": "combo", "PID": "32327", "RHOST": "211.167.68.59 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 25 19:25:30", "HOSTNAME": "combo", "PID": "32327", "RHOST": "211.167.68.59"}</t>
         </is>
       </c>
     </row>
@@ -25091,7 +25091,7 @@
       </c>
       <c r="D1233" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 25 19:25:30", "HOSTNAME": "combo", "PID": "32325", "RHOST": "211.167.68.59 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 25 19:25:30", "HOSTNAME": "combo", "PID": "32325", "RHOST": "211.167.68.59"}</t>
         </is>
       </c>
     </row>
@@ -25111,7 +25111,7 @@
       </c>
       <c r="D1234" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 25 19:25:30", "HOSTNAME": "combo", "PID": "32331", "RHOST": "211.167.68.59 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 25 19:25:30", "HOSTNAME": "combo", "PID": "32331", "RHOST": "211.167.68.59"}</t>
         </is>
       </c>
     </row>
@@ -25131,7 +25131,7 @@
       </c>
       <c r="D1235" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 25 19:25:30", "HOSTNAME": "combo", "PID": "32330", "RHOST": "211.167.68.59 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 25 19:25:30", "HOSTNAME": "combo", "PID": "32330", "RHOST": "211.167.68.59"}</t>
         </is>
       </c>
     </row>
@@ -25151,7 +25151,7 @@
       </c>
       <c r="D1236" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 25 19:25:31", "HOSTNAME": "combo", "PID": "32333", "RHOST": "211.167.68.59 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 25 19:25:31", "HOSTNAME": "combo", "PID": "32333", "RHOST": "211.167.68.59"}</t>
         </is>
       </c>
     </row>
@@ -25171,7 +25171,7 @@
       </c>
       <c r="D1237" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 25 19:25:31", "HOSTNAME": "combo", "PID": "32332", "RHOST": "211.167.68.59 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 25 19:25:31", "HOSTNAME": "combo", "PID": "32332", "RHOST": "211.167.68.59"}</t>
         </is>
       </c>
     </row>
@@ -25191,7 +25191,7 @@
       </c>
       <c r="D1238" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 25 19:25:31", "HOSTNAME": "combo", "PID": "32334", "RHOST": "211.167.68.59 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 25 19:25:31", "HOSTNAME": "combo", "PID": "32334", "RHOST": "211.167.68.59"}</t>
         </is>
       </c>
     </row>
@@ -25211,7 +25211,7 @@
       </c>
       <c r="D1239" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 25 19:25:34", "HOSTNAME": "combo", "PID": "32335", "RHOST": "211.167.68.59 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 25 19:25:34", "HOSTNAME": "combo", "PID": "32335", "RHOST": "211.167.68.59"}</t>
         </is>
       </c>
     </row>
@@ -25231,7 +25231,7 @@
       </c>
       <c r="D1240" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 26 05:47:42", "HOSTNAME": "combo", "PID": "28686", "RHOST": "172.181.208.156 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 26 05:47:42", "HOSTNAME": "combo", "PID": "28686", "RHOST": "172.181.208.156"}</t>
         </is>
       </c>
     </row>
@@ -25251,7 +25251,7 @@
       </c>
       <c r="D1241" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24956", "RHOST": "206.47.209.10 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24956", "RHOST": "206.47.209.10"}</t>
         </is>
       </c>
     </row>
@@ -25271,7 +25271,7 @@
       </c>
       <c r="D1242" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24957", "RHOST": "206.47.209.10 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24957", "RHOST": "206.47.209.10"}</t>
         </is>
       </c>
     </row>
@@ -25291,7 +25291,7 @@
       </c>
       <c r="D1243" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13251", "RHOST": "61.74.96.178 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13251", "RHOST": "61.74.96.178"}</t>
         </is>
       </c>
     </row>
@@ -25311,7 +25311,7 @@
       </c>
       <c r="D1244" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13263", "RHOST": "61.74.96.178 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13263", "RHOST": "61.74.96.178"}</t>
         </is>
       </c>
     </row>
@@ -25331,7 +25331,7 @@
       </c>
       <c r="D1245" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13262", "RHOST": "61.74.96.178 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13262", "RHOST": "61.74.96.178"}</t>
         </is>
       </c>
     </row>
@@ -25351,7 +25351,7 @@
       </c>
       <c r="D1246" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13257", "RHOST": "61.74.96.178 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13257", "RHOST": "61.74.96.178"}</t>
         </is>
       </c>
     </row>
@@ -25371,7 +25371,7 @@
       </c>
       <c r="D1247" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13261", "RHOST": "61.74.96.178 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13261", "RHOST": "61.74.96.178"}</t>
         </is>
       </c>
     </row>
@@ -25391,7 +25391,7 @@
       </c>
       <c r="D1248" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13250", "RHOST": "61.74.96.178 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13250", "RHOST": "61.74.96.178"}</t>
         </is>
       </c>
     </row>
@@ -25411,7 +25411,7 @@
       </c>
       <c r="D1249" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13252", "RHOST": "61.74.96.178 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13252", "RHOST": "61.74.96.178"}</t>
         </is>
       </c>
     </row>
@@ -25431,7 +25431,7 @@
       </c>
       <c r="D1250" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13260", "RHOST": "61.74.96.178 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13260", "RHOST": "61.74.96.178"}</t>
         </is>
       </c>
     </row>
@@ -25451,7 +25451,7 @@
       </c>
       <c r="D1251" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30297", "RHOST": "220.94.205.45 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30297", "RHOST": "220.94.205.45"}</t>
         </is>
       </c>
     </row>
@@ -25471,7 +25471,7 @@
       </c>
       <c r="D1252" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30287", "RHOST": "220.94.205.45 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30287", "RHOST": "220.94.205.45"}</t>
         </is>
       </c>
     </row>
@@ -25491,7 +25491,7 @@
       </c>
       <c r="D1253" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30298", "RHOST": "220.94.205.45 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30298", "RHOST": "220.94.205.45"}</t>
         </is>
       </c>
     </row>
@@ -25511,7 +25511,7 @@
       </c>
       <c r="D1254" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30291", "RHOST": "220.94.205.45 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30291", "RHOST": "220.94.205.45"}</t>
         </is>
       </c>
     </row>
@@ -25531,7 +25531,7 @@
       </c>
       <c r="D1255" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24972", "RHOST": "206.47.209.10 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24972", "RHOST": "206.47.209.10"}</t>
         </is>
       </c>
     </row>
@@ -25551,7 +25551,7 @@
       </c>
       <c r="D1256" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24977", "RHOST": "206.47.209.10 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24977", "RHOST": "206.47.209.10"}</t>
         </is>
       </c>
     </row>
@@ -25571,7 +25571,7 @@
       </c>
       <c r="D1257" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24960", "RHOST": "206.47.209.10 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24960", "RHOST": "206.47.209.10"}</t>
         </is>
       </c>
     </row>
@@ -25591,7 +25591,7 @@
       </c>
       <c r="D1258" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24963", "RHOST": "206.47.209.10 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24963", "RHOST": "206.47.209.10"}</t>
         </is>
       </c>
     </row>
@@ -25611,7 +25611,7 @@
       </c>
       <c r="D1259" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24961", "RHOST": "206.47.209.10 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24961", "RHOST": "206.47.209.10"}</t>
         </is>
       </c>
     </row>
@@ -25631,7 +25631,7 @@
       </c>
       <c r="D1260" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24967", "RHOST": "206.47.209.10 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24967", "RHOST": "206.47.209.10"}</t>
         </is>
       </c>
     </row>
@@ -25651,7 +25651,7 @@
       </c>
       <c r="D1261" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24966", "RHOST": "206.47.209.10 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24966", "RHOST": "206.47.209.10"}</t>
         </is>
       </c>
     </row>
@@ -25671,7 +25671,7 @@
       </c>
       <c r="D1262" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21955", "RHOST": "202.82.200.188 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21955", "RHOST": "202.82.200.188"}</t>
         </is>
       </c>
     </row>
@@ -25691,7 +25691,7 @@
       </c>
       <c r="D1263" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30283", "RHOST": "220.94.205.45 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30283", "RHOST": "220.94.205.45"}</t>
         </is>
       </c>
     </row>
@@ -25711,7 +25711,7 @@
       </c>
       <c r="D1264" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30285", "RHOST": "220.94.205.45 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30285", "RHOST": "220.94.205.45"}</t>
         </is>
       </c>
     </row>
@@ -25731,7 +25731,7 @@
       </c>
       <c r="D1265" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30289", "RHOST": "220.94.205.45 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30289", "RHOST": "220.94.205.45"}</t>
         </is>
       </c>
     </row>
@@ -25751,7 +25751,7 @@
       </c>
       <c r="D1266" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30286", "RHOST": "220.94.205.45 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30286", "RHOST": "220.94.205.45"}</t>
         </is>
       </c>
     </row>
@@ -25771,7 +25771,7 @@
       </c>
       <c r="D1267" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21950", "RHOST": "202.82.200.188 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21950", "RHOST": "202.82.200.188"}</t>
         </is>
       </c>
     </row>
@@ -25791,7 +25791,7 @@
       </c>
       <c r="D1268" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21956", "RHOST": "202.82.200.188 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21956", "RHOST": "202.82.200.188"}</t>
         </is>
       </c>
     </row>
@@ -25811,7 +25811,7 @@
       </c>
       <c r="D1269" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21958", "RHOST": "202.82.200.188 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21958", "RHOST": "202.82.200.188"}</t>
         </is>
       </c>
     </row>
@@ -25831,7 +25831,7 @@
       </c>
       <c r="D1270" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21945", "RHOST": "202.82.200.188 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21945", "RHOST": "202.82.200.188"}</t>
         </is>
       </c>
     </row>
@@ -25851,7 +25851,7 @@
       </c>
       <c r="D1271" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21959", "RHOST": "202.82.200.188 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21959", "RHOST": "202.82.200.188"}</t>
         </is>
       </c>
     </row>
@@ -25871,7 +25871,7 @@
       </c>
       <c r="D1272" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21946", "RHOST": "202.82.200.188 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21946", "RHOST": "202.82.200.188"}</t>
         </is>
       </c>
     </row>
@@ -25891,7 +25891,7 @@
       </c>
       <c r="D1273" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21937", "RHOST": "202.82.200.188 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21937", "RHOST": "202.82.200.188"}</t>
         </is>
       </c>
     </row>
@@ -25911,7 +25911,7 @@
       </c>
       <c r="D1274" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21943", "RHOST": "202.82.200.188 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21943", "RHOST": "202.82.200.188"}</t>
         </is>
       </c>
     </row>
@@ -25931,7 +25931,7 @@
       </c>
       <c r="D1275" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21944", "RHOST": "202.82.200.188 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21944", "RHOST": "202.82.200.188"}</t>
         </is>
       </c>
     </row>
@@ -25951,7 +25951,7 @@
       </c>
       <c r="D1276" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21948", "RHOST": "202.82.200.188 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21948", "RHOST": "202.82.200.188"}</t>
         </is>
       </c>
     </row>
@@ -25971,7 +25971,7 @@
       </c>
       <c r="D1277" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 26 05:47:42", "HOSTNAME": "combo", "PID": "28688", "RHOST": "172.181.208.156 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 26 05:47:42", "HOSTNAME": "combo", "PID": "28688", "RHOST": "172.181.208.156"}</t>
         </is>
       </c>
     </row>
@@ -25991,7 +25991,7 @@
       </c>
       <c r="D1278" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21953", "RHOST": "202.82.200.188 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21953", "RHOST": "202.82.200.188"}</t>
         </is>
       </c>
     </row>
@@ -26011,7 +26011,7 @@
       </c>
       <c r="D1279" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21954", "RHOST": "202.82.200.188 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21954", "RHOST": "202.82.200.188"}</t>
         </is>
       </c>
     </row>
@@ -26031,7 +26031,7 @@
       </c>
       <c r="D1280" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21949", "RHOST": "202.82.200.188 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21949", "RHOST": "202.82.200.188"}</t>
         </is>
       </c>
     </row>
@@ -26051,7 +26051,7 @@
       </c>
       <c r="D1281" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21939", "RHOST": "202.82.200.188 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21939", "RHOST": "202.82.200.188"}</t>
         </is>
       </c>
     </row>
@@ -26071,7 +26071,7 @@
       </c>
       <c r="D1282" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21940", "RHOST": "202.82.200.188 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21940", "RHOST": "202.82.200.188"}</t>
         </is>
       </c>
     </row>
@@ -26091,7 +26091,7 @@
       </c>
       <c r="D1283" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15333", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15333", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -26111,7 +26111,7 @@
       </c>
       <c r="D1284" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15323", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15323", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -26131,7 +26131,7 @@
       </c>
       <c r="D1285" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 25 09:20:24", "HOSTNAME": "combo", "PID": "31475", "RHOST": "210.118.170.95 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 25 09:20:24", "HOSTNAME": "combo", "PID": "31475", "RHOST": "210.118.170.95"}</t>
         </is>
       </c>
     </row>
@@ -26151,7 +26151,7 @@
       </c>
       <c r="D1286" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 25 09:20:24", "HOSTNAME": "combo", "PID": "31477", "RHOST": "210.118.170.95 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 25 09:20:24", "HOSTNAME": "combo", "PID": "31477", "RHOST": "210.118.170.95"}</t>
         </is>
       </c>
     </row>
@@ -26171,7 +26171,7 @@
       </c>
       <c r="D1287" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 25 09:20:24", "HOSTNAME": "combo", "PID": "31474", "RHOST": "210.118.170.95 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 25 09:20:24", "HOSTNAME": "combo", "PID": "31474", "RHOST": "210.118.170.95"}</t>
         </is>
       </c>
     </row>
@@ -26191,7 +26191,7 @@
       </c>
       <c r="D1288" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 25 09:20:24", "HOSTNAME": "combo", "PID": "31476", "RHOST": "210.118.170.95 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 25 09:20:24", "HOSTNAME": "combo", "PID": "31476", "RHOST": "210.118.170.95"}</t>
         </is>
       </c>
     </row>
@@ -26211,7 +26211,7 @@
       </c>
       <c r="D1289" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 25 09:20:24", "HOSTNAME": "combo", "PID": "31473", "RHOST": "210.118.170.95 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 25 09:20:24", "HOSTNAME": "combo", "PID": "31473", "RHOST": "210.118.170.95"}</t>
         </is>
       </c>
     </row>
@@ -26231,7 +26231,7 @@
       </c>
       <c r="D1290" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 25 09:20:24", "HOSTNAME": "combo", "PID": "31467", "RHOST": "210.118.170.95 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 25 09:20:24", "HOSTNAME": "combo", "PID": "31467", "RHOST": "210.118.170.95"}</t>
         </is>
       </c>
     </row>
@@ -26251,7 +26251,7 @@
       </c>
       <c r="D1291" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 25 09:20:24", "HOSTNAME": "combo", "PID": "31470", "RHOST": "210.118.170.95 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 25 09:20:24", "HOSTNAME": "combo", "PID": "31470", "RHOST": "210.118.170.95"}</t>
         </is>
       </c>
     </row>
@@ -26271,7 +26271,7 @@
       </c>
       <c r="D1292" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 25 09:20:24", "HOSTNAME": "combo", "PID": "31465", "RHOST": "210.118.170.95 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 25 09:20:24", "HOSTNAME": "combo", "PID": "31465", "RHOST": "210.118.170.95"}</t>
         </is>
       </c>
     </row>
@@ -26291,7 +26291,7 @@
       </c>
       <c r="D1293" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 25 09:20:24", "HOSTNAME": "combo", "PID": "31472", "RHOST": "210.118.170.95 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 25 09:20:24", "HOSTNAME": "combo", "PID": "31472", "RHOST": "210.118.170.95"}</t>
         </is>
       </c>
     </row>
@@ -26311,7 +26311,7 @@
       </c>
       <c r="D1294" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 25 09:20:24", "HOSTNAME": "combo", "PID": "31468", "RHOST": "210.118.170.95 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 25 09:20:24", "HOSTNAME": "combo", "PID": "31468", "RHOST": "210.118.170.95"}</t>
         </is>
       </c>
     </row>
@@ -26331,7 +26331,7 @@
       </c>
       <c r="D1295" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 25 09:20:24", "HOSTNAME": "combo", "PID": "31463", "RHOST": "210.118.170.95 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 25 09:20:24", "HOSTNAME": "combo", "PID": "31463", "RHOST": "210.118.170.95"}</t>
         </is>
       </c>
     </row>
@@ -26351,7 +26351,7 @@
       </c>
       <c r="D1296" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 25 09:20:24", "HOSTNAME": "combo", "PID": "31471", "RHOST": "210.118.170.95 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 25 09:20:24", "HOSTNAME": "combo", "PID": "31471", "RHOST": "210.118.170.95"}</t>
         </is>
       </c>
     </row>
@@ -26371,7 +26371,7 @@
       </c>
       <c r="D1297" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 25 09:20:24", "HOSTNAME": "combo", "PID": "31469", "RHOST": "210.118.170.95 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 25 09:20:24", "HOSTNAME": "combo", "PID": "31469", "RHOST": "210.118.170.95"}</t>
         </is>
       </c>
     </row>
@@ -26391,7 +26391,7 @@
       </c>
       <c r="D1298" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 25 09:20:24", "HOSTNAME": "combo", "PID": "31462", "RHOST": "210.118.170.95 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 25 09:20:24", "HOSTNAME": "combo", "PID": "31462", "RHOST": "210.118.170.95"}</t>
         </is>
       </c>
     </row>
@@ -26411,7 +26411,7 @@
       </c>
       <c r="D1299" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 25 09:20:24", "HOSTNAME": "combo", "PID": "31464", "RHOST": "210.118.170.95 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 25 09:20:24", "HOSTNAME": "combo", "PID": "31464", "RHOST": "210.118.170.95"}</t>
         </is>
       </c>
     </row>
@@ -26431,7 +26431,7 @@
       </c>
       <c r="D1300" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 25 09:20:24", "HOSTNAME": "combo", "PID": "31466", "RHOST": "210.118.170.95 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 25 09:20:24", "HOSTNAME": "combo", "PID": "31466", "RHOST": "210.118.170.95"}</t>
         </is>
       </c>
     </row>
@@ -26451,7 +26451,7 @@
       </c>
       <c r="D1301" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 25 09:20:24", "HOSTNAME": "combo", "PID": "31461", "RHOST": "210.118.170.95 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 25 09:20:24", "HOSTNAME": "combo", "PID": "31461", "RHOST": "210.118.170.95"}</t>
         </is>
       </c>
     </row>
@@ -26471,7 +26471,7 @@
       </c>
       <c r="D1302" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 25 09:20:24", "HOSTNAME": "combo", "PID": "31460", "RHOST": "210.118.170.95 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 25 09:20:24", "HOSTNAME": "combo", "PID": "31460", "RHOST": "210.118.170.95"}</t>
         </is>
       </c>
     </row>
@@ -26491,7 +26491,7 @@
       </c>
       <c r="D1303" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 25 19:25:30", "HOSTNAME": "combo", "PID": "32328", "RHOST": "211.167.68.59 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 25 19:25:30", "HOSTNAME": "combo", "PID": "32328", "RHOST": "211.167.68.59"}</t>
         </is>
       </c>
     </row>
@@ -26511,7 +26511,7 @@
       </c>
       <c r="D1304" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17679", "RHOST": "212.65.68.82 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17679", "RHOST": "212.65.68.82"}</t>
         </is>
       </c>
     </row>
@@ -26531,7 +26531,7 @@
       </c>
       <c r="D1305" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17680", "RHOST": "212.65.68.82 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17680", "RHOST": "212.65.68.82"}</t>
         </is>
       </c>
     </row>
@@ -26551,7 +26551,7 @@
       </c>
       <c r="D1306" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17672", "RHOST": "212.65.68.82 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17672", "RHOST": "212.65.68.82"}</t>
         </is>
       </c>
     </row>
@@ -26571,7 +26571,7 @@
       </c>
       <c r="D1307" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17687", "RHOST": "212.65.68.82 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17687", "RHOST": "212.65.68.82"}</t>
         </is>
       </c>
     </row>
@@ -26591,7 +26591,7 @@
       </c>
       <c r="D1308" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17678", "RHOST": "212.65.68.82 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17678", "RHOST": "212.65.68.82"}</t>
         </is>
       </c>
     </row>
@@ -26611,7 +26611,7 @@
       </c>
       <c r="D1309" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17675", "RHOST": "212.65.68.82 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17675", "RHOST": "212.65.68.82"}</t>
         </is>
       </c>
     </row>
@@ -26631,7 +26631,7 @@
       </c>
       <c r="D1310" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17688", "RHOST": "212.65.68.82 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17688", "RHOST": "212.65.68.82"}</t>
         </is>
       </c>
     </row>
@@ -26651,7 +26651,7 @@
       </c>
       <c r="D1311" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17677", "RHOST": "212.65.68.82 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17677", "RHOST": "212.65.68.82"}</t>
         </is>
       </c>
     </row>
@@ -26671,7 +26671,7 @@
       </c>
       <c r="D1312" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15339", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15339", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -26691,7 +26691,7 @@
       </c>
       <c r="D1313" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17683", "RHOST": "212.65.68.82 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17683", "RHOST": "212.65.68.82"}</t>
         </is>
       </c>
     </row>
@@ -26711,7 +26711,7 @@
       </c>
       <c r="D1314" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17684", "RHOST": "212.65.68.82 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17684", "RHOST": "212.65.68.82"}</t>
         </is>
       </c>
     </row>
@@ -26731,7 +26731,7 @@
       </c>
       <c r="D1315" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17685", "RHOST": "212.65.68.82 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17685", "RHOST": "212.65.68.82"}</t>
         </is>
       </c>
     </row>
@@ -26751,7 +26751,7 @@
       </c>
       <c r="D1316" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17686", "RHOST": "212.65.68.82 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17686", "RHOST": "212.65.68.82"}</t>
         </is>
       </c>
     </row>
@@ -26771,7 +26771,7 @@
       </c>
       <c r="D1317" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17676", "RHOST": "212.65.68.82 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17676", "RHOST": "212.65.68.82"}</t>
         </is>
       </c>
     </row>
@@ -26791,7 +26791,7 @@
       </c>
       <c r="D1318" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17674", "RHOST": "212.65.68.82 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17674", "RHOST": "212.65.68.82"}</t>
         </is>
       </c>
     </row>
@@ -26811,7 +26811,7 @@
       </c>
       <c r="D1319" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17689", "RHOST": "212.65.68.82 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17689", "RHOST": "212.65.68.82"}</t>
         </is>
       </c>
     </row>
@@ -26831,7 +26831,7 @@
       </c>
       <c r="D1320" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15335", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15335", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -26851,7 +26851,7 @@
       </c>
       <c r="D1321" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15338", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15338", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -26871,7 +26871,7 @@
       </c>
       <c r="D1322" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15336", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15336", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -26891,7 +26891,7 @@
       </c>
       <c r="D1323" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15341", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15341", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -26911,7 +26911,7 @@
       </c>
       <c r="D1324" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15340", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15340", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -26931,7 +26931,7 @@
       </c>
       <c r="D1325" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15327", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15327", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -26951,7 +26951,7 @@
       </c>
       <c r="D1326" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15330", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15330", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -26971,7 +26971,7 @@
       </c>
       <c r="D1327" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15322", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15322", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -26991,7 +26991,7 @@
       </c>
       <c r="D1328" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15324", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15324", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -27011,7 +27011,7 @@
       </c>
       <c r="D1329" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15329", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15329", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -27031,7 +27031,7 @@
       </c>
       <c r="D1330" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15332", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15332", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -27051,7 +27051,7 @@
       </c>
       <c r="D1331" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15328", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15328", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -27071,7 +27071,7 @@
       </c>
       <c r="D1332" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15337", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15337", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -27091,7 +27091,7 @@
       </c>
       <c r="D1333" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15334", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15334", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -27111,7 +27111,7 @@
       </c>
       <c r="D1334" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 24 18:55:11", "HOSTNAME": "combo", "PID": "28562", "RHOST": "218.69.108.57 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 24 18:55:11", "HOSTNAME": "combo", "PID": "28562", "RHOST": "218.69.108.57"}</t>
         </is>
       </c>
     </row>
@@ -27131,7 +27131,7 @@
       </c>
       <c r="D1335" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 24 18:55:11", "HOSTNAME": "combo", "PID": "28563", "RHOST": "218.69.108.57 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 24 18:55:11", "HOSTNAME": "combo", "PID": "28563", "RHOST": "218.69.108.57"}</t>
         </is>
       </c>
     </row>
@@ -27151,7 +27151,7 @@
       </c>
       <c r="D1336" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 24 18:55:11", "HOSTNAME": "combo", "PID": "28565", "RHOST": "218.69.108.57 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 24 18:55:11", "HOSTNAME": "combo", "PID": "28565", "RHOST": "218.69.108.57"}</t>
         </is>
       </c>
     </row>
@@ -27171,7 +27171,7 @@
       </c>
       <c r="D1337" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 24 18:55:11", "HOSTNAME": "combo", "PID": "28564", "RHOST": "218.69.108.57 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 24 18:55:11", "HOSTNAME": "combo", "PID": "28564", "RHOST": "218.69.108.57"}</t>
         </is>
       </c>
     </row>
@@ -27191,7 +27191,7 @@
       </c>
       <c r="D1338" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 24 18:55:11", "HOSTNAME": "combo", "PID": "28567", "RHOST": "218.69.108.57 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 24 18:55:11", "HOSTNAME": "combo", "PID": "28567", "RHOST": "218.69.108.57"}</t>
         </is>
       </c>
     </row>
@@ -27211,7 +27211,7 @@
       </c>
       <c r="D1339" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 24 18:55:18", "HOSTNAME": "combo", "PID": "28570", "RHOST": "218.69.108.57 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 24 18:55:18", "HOSTNAME": "combo", "PID": "28570", "RHOST": "218.69.108.57"}</t>
         </is>
       </c>
     </row>
@@ -27231,7 +27231,7 @@
       </c>
       <c r="D1340" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 24 18:55:18", "HOSTNAME": "combo", "PID": "28571", "RHOST": "218.69.108.57 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 24 18:55:18", "HOSTNAME": "combo", "PID": "28571", "RHOST": "218.69.108.57"}</t>
         </is>
       </c>
     </row>
@@ -27251,7 +27251,7 @@
       </c>
       <c r="D1341" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 24 18:55:18", "HOSTNAME": "combo", "PID": "28569", "RHOST": "218.69.108.57 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 24 18:55:18", "HOSTNAME": "combo", "PID": "28569", "RHOST": "218.69.108.57"}</t>
         </is>
       </c>
     </row>
@@ -27271,7 +27271,7 @@
       </c>
       <c r="D1342" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 24 18:55:18", "HOSTNAME": "combo", "PID": "28572", "RHOST": "218.69.108.57 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 24 18:55:18", "HOSTNAME": "combo", "PID": "28572", "RHOST": "218.69.108.57"}</t>
         </is>
       </c>
     </row>
@@ -27291,7 +27291,7 @@
       </c>
       <c r="D1343" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 24 18:55:18", "HOSTNAME": "combo", "PID": "28574", "RHOST": "218.69.108.57 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 24 18:55:18", "HOSTNAME": "combo", "PID": "28574", "RHOST": "218.69.108.57"}</t>
         </is>
       </c>
     </row>
@@ -27311,7 +27311,7 @@
       </c>
       <c r="D1344" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 24 18:55:18", "HOSTNAME": "combo", "PID": "28573", "RHOST": "218.69.108.57 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 24 18:55:18", "HOSTNAME": "combo", "PID": "28573", "RHOST": "218.69.108.57"}</t>
         </is>
       </c>
     </row>
@@ -27331,7 +27331,7 @@
       </c>
       <c r="D1345" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 24 18:55:11", "HOSTNAME": "combo", "PID": "28568", "RHOST": "218.69.108.57 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 24 18:55:11", "HOSTNAME": "combo", "PID": "28568", "RHOST": "218.69.108.57"}</t>
         </is>
       </c>
     </row>
@@ -27351,7 +27351,7 @@
       </c>
       <c r="D1346" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 24 18:55:11", "HOSTNAME": "combo", "PID": "28566", "RHOST": "218.69.108.57 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 24 18:55:11", "HOSTNAME": "combo", "PID": "28566", "RHOST": "218.69.108.57"}</t>
         </is>
       </c>
     </row>
@@ -27371,7 +27371,7 @@
       </c>
       <c r="D1347" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17681", "RHOST": "212.65.68.82 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17681", "RHOST": "212.65.68.82"}</t>
         </is>
       </c>
     </row>
@@ -27391,7 +27391,7 @@
       </c>
       <c r="D1348" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15321", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15321", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -27411,7 +27411,7 @@
       </c>
       <c r="D1349" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15326", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15326", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -27431,7 +27431,7 @@
       </c>
       <c r="D1350" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15325", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15325", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -27451,7 +27451,7 @@
       </c>
       <c r="D1351" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15331", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 15 23:42:43", "HOSTNAME": "combo", "PID": "15331", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -27471,7 +27471,7 @@
       </c>
       <c r="D1352" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 15 23:42:44", "HOSTNAME": "combo", "PID": "15342", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 15 23:42:44", "HOSTNAME": "combo", "PID": "15342", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -27491,7 +27491,7 @@
       </c>
       <c r="D1353" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17682", "RHOST": "212.65.68.82 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17682", "RHOST": "212.65.68.82"}</t>
         </is>
       </c>
     </row>
@@ -27511,7 +27511,7 @@
       </c>
       <c r="D1354" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 16 08:14:04", "HOSTNAME": "combo", "PID": "17669", "RHOST": "212.65.68.82 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 16 08:14:04", "HOSTNAME": "combo", "PID": "17669", "RHOST": "212.65.68.82"}</t>
         </is>
       </c>
     </row>
@@ -27531,7 +27531,7 @@
       </c>
       <c r="D1355" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 16 08:14:04", "HOSTNAME": "combo", "PID": "17670", "RHOST": "212.65.68.82 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 16 08:14:04", "HOSTNAME": "combo", "PID": "17670", "RHOST": "212.65.68.82"}</t>
         </is>
       </c>
     </row>
@@ -27551,7 +27551,7 @@
       </c>
       <c r="D1356" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 16 08:14:04", "HOSTNAME": "combo", "PID": "17667", "RHOST": "212.65.68.82 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 16 08:14:04", "HOSTNAME": "combo", "PID": "17667", "RHOST": "212.65.68.82"}</t>
         </is>
       </c>
     </row>
@@ -27571,7 +27571,7 @@
       </c>
       <c r="D1357" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17673", "RHOST": "212.65.68.82 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17673", "RHOST": "212.65.68.82"}</t>
         </is>
       </c>
     </row>
@@ -27591,7 +27591,7 @@
       </c>
       <c r="D1358" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17668", "RHOST": "212.65.68.82 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17668", "RHOST": "212.65.68.82"}</t>
         </is>
       </c>
     </row>
@@ -27611,7 +27611,7 @@
       </c>
       <c r="D1359" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17671", "RHOST": "212.65.68.82 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 16 08:14:07", "HOSTNAME": "combo", "PID": "17671", "RHOST": "212.65.68.82"}</t>
         </is>
       </c>
     </row>
@@ -27631,7 +27631,7 @@
       </c>
       <c r="D1360" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21941", "RHOST": "202.82.200.188 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21941", "RHOST": "202.82.200.188"}</t>
         </is>
       </c>
     </row>
@@ -27651,7 +27651,7 @@
       </c>
       <c r="D1361" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21942", "RHOST": "202.82.200.188 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21942", "RHOST": "202.82.200.188"}</t>
         </is>
       </c>
     </row>
@@ -27671,7 +27671,7 @@
       </c>
       <c r="D1362" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26472", "RHOST": "217.187.83.50 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26472", "RHOST": "217.187.83.50"}</t>
         </is>
       </c>
     </row>
@@ -27691,7 +27691,7 @@
       </c>
       <c r="D1363" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21947", "RHOST": "202.82.200.188 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21947", "RHOST": "202.82.200.188"}</t>
         </is>
       </c>
     </row>
@@ -27711,7 +27711,7 @@
       </c>
       <c r="D1364" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 14:44:35", "HOSTNAME": "combo", "PID": "15921", "RHOST": "210.223.97.117 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 14:44:35", "HOSTNAME": "combo", "PID": "15921", "RHOST": "210.223.97.117"}</t>
         </is>
       </c>
     </row>
@@ -27731,7 +27731,7 @@
       </c>
       <c r="D1365" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 10:48:15", "HOSTNAME": "combo", "PID": "15559", "RHOST": "208.62.55.75 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 10:48:15", "HOSTNAME": "combo", "PID": "15559", "RHOST": "208.62.55.75"}</t>
         </is>
       </c>
     </row>
@@ -27751,7 +27751,7 @@
       </c>
       <c r="D1366" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24958", "RHOST": "206.47.209.10 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24958", "RHOST": "206.47.209.10"}</t>
         </is>
       </c>
     </row>
@@ -27771,7 +27771,7 @@
       </c>
       <c r="D1367" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30292", "RHOST": "220.94.205.45 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30292", "RHOST": "220.94.205.45"}</t>
         </is>
       </c>
     </row>
@@ -27791,7 +27791,7 @@
       </c>
       <c r="D1368" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30293", "RHOST": "220.94.205.45 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30293", "RHOST": "220.94.205.45"}</t>
         </is>
       </c>
     </row>
@@ -27811,7 +27811,7 @@
       </c>
       <c r="D1369" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30279", "RHOST": "220.94.205.45 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30279", "RHOST": "220.94.205.45"}</t>
         </is>
       </c>
     </row>
@@ -27831,7 +27831,7 @@
       </c>
       <c r="D1370" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30280", "RHOST": "220.94.205.45 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30280", "RHOST": "220.94.205.45"}</t>
         </is>
       </c>
     </row>
@@ -27851,7 +27851,7 @@
       </c>
       <c r="D1371" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23797", "RHOST": "218.146.61.230 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23797", "RHOST": "218.146.61.230"}</t>
         </is>
       </c>
     </row>
@@ -27871,7 +27871,7 @@
       </c>
       <c r="D1372" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23798", "RHOST": "218.146.61.230 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23798", "RHOST": "218.146.61.230"}</t>
         </is>
       </c>
     </row>
@@ -27891,7 +27891,7 @@
       </c>
       <c r="D1373" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30284", "RHOST": "220.94.205.45 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30284", "RHOST": "220.94.205.45"}</t>
         </is>
       </c>
     </row>
@@ -27911,7 +27911,7 @@
       </c>
       <c r="D1374" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30290", "RHOST": "220.94.205.45 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30290", "RHOST": "220.94.205.45"}</t>
         </is>
       </c>
     </row>
@@ -27931,7 +27931,7 @@
       </c>
       <c r="D1375" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30294", "RHOST": "220.94.205.45 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30294", "RHOST": "220.94.205.45"}</t>
         </is>
       </c>
     </row>
@@ -27951,7 +27951,7 @@
       </c>
       <c r="D1376" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30296", "RHOST": "220.94.205.45 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30296", "RHOST": "220.94.205.45"}</t>
         </is>
       </c>
     </row>
@@ -27971,7 +27971,7 @@
       </c>
       <c r="D1377" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30278", "RHOST": "220.94.205.45 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30278", "RHOST": "220.94.205.45"}</t>
         </is>
       </c>
     </row>
@@ -27991,7 +27991,7 @@
       </c>
       <c r="D1378" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30276", "RHOST": "220.94.205.45 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30276", "RHOST": "220.94.205.45"}</t>
         </is>
       </c>
     </row>
@@ -28011,7 +28011,7 @@
       </c>
       <c r="D1379" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30277", "RHOST": "220.94.205.45 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30277", "RHOST": "220.94.205.45"}</t>
         </is>
       </c>
     </row>
@@ -28031,7 +28031,7 @@
       </c>
       <c r="D1380" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24516", "RHOST": "217.187.83.139 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24516", "RHOST": "217.187.83.139"}</t>
         </is>
       </c>
     </row>
@@ -28051,7 +28051,7 @@
       </c>
       <c r="D1381" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24517", "RHOST": "217.187.83.139 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24517", "RHOST": "217.187.83.139"}</t>
         </is>
       </c>
     </row>
@@ -28071,7 +28071,7 @@
       </c>
       <c r="D1382" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24521", "RHOST": "217.187.83.139 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24521", "RHOST": "217.187.83.139"}</t>
         </is>
       </c>
     </row>
@@ -28091,7 +28091,7 @@
       </c>
       <c r="D1383" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24520", "RHOST": "217.187.83.139 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24520", "RHOST": "217.187.83.139"}</t>
         </is>
       </c>
     </row>
@@ -28111,7 +28111,7 @@
       </c>
       <c r="D1384" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30295", "RHOST": "220.94.205.45 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30295", "RHOST": "220.94.205.45"}</t>
         </is>
       </c>
     </row>
@@ -28131,7 +28131,7 @@
       </c>
       <c r="D1385" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30281", "RHOST": "220.94.205.45 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30281", "RHOST": "220.94.205.45"}</t>
         </is>
       </c>
     </row>
@@ -28151,7 +28151,7 @@
       </c>
       <c r="D1386" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30282", "RHOST": "220.94.205.45 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30282", "RHOST": "220.94.205.45"}</t>
         </is>
       </c>
     </row>
@@ -28171,7 +28171,7 @@
       </c>
       <c r="D1387" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30288", "RHOST": "220.94.205.45 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 13:17:22", "HOSTNAME": "combo", "PID": "30288", "RHOST": "220.94.205.45"}</t>
         </is>
       </c>
     </row>
@@ -28191,7 +28191,7 @@
       </c>
       <c r="D1388" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24525", "RHOST": "217.187.83.139 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24525", "RHOST": "217.187.83.139"}</t>
         </is>
       </c>
     </row>
@@ -28211,7 +28211,7 @@
       </c>
       <c r="D1389" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24526", "RHOST": "217.187.83.139 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24526", "RHOST": "217.187.83.139"}</t>
         </is>
       </c>
     </row>
@@ -28231,7 +28231,7 @@
       </c>
       <c r="D1390" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24527", "RHOST": "217.187.83.139 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24527", "RHOST": "217.187.83.139"}</t>
         </is>
       </c>
     </row>
@@ -28251,7 +28251,7 @@
       </c>
       <c r="D1391" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24528", "RHOST": "217.187.83.139 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24528", "RHOST": "217.187.83.139"}</t>
         </is>
       </c>
     </row>
@@ -28271,7 +28271,7 @@
       </c>
       <c r="D1392" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24512", "RHOST": "217.187.83.139 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24512", "RHOST": "217.187.83.139"}</t>
         </is>
       </c>
     </row>
@@ -28291,7 +28291,7 @@
       </c>
       <c r="D1393" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24519", "RHOST": "217.187.83.139 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24519", "RHOST": "217.187.83.139"}</t>
         </is>
       </c>
     </row>
@@ -28311,7 +28311,7 @@
       </c>
       <c r="D1394" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24514", "RHOST": "217.187.83.139 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24514", "RHOST": "217.187.83.139"}</t>
         </is>
       </c>
     </row>
@@ -28331,7 +28331,7 @@
       </c>
       <c r="D1395" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24515", "RHOST": "217.187.83.139 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24515", "RHOST": "217.187.83.139"}</t>
         </is>
       </c>
     </row>
@@ -28351,7 +28351,7 @@
       </c>
       <c r="D1396" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24532", "RHOST": "217.187.83.139 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24532", "RHOST": "217.187.83.139"}</t>
         </is>
       </c>
     </row>
@@ -28371,7 +28371,7 @@
       </c>
       <c r="D1397" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24533", "RHOST": "217.187.83.139 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24533", "RHOST": "217.187.83.139"}</t>
         </is>
       </c>
     </row>
@@ -28391,7 +28391,7 @@
       </c>
       <c r="D1398" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24534", "RHOST": "217.187.83.139 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24534", "RHOST": "217.187.83.139"}</t>
         </is>
       </c>
     </row>
@@ -28411,7 +28411,7 @@
       </c>
       <c r="D1399" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24522", "RHOST": "217.187.83.139 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24522", "RHOST": "217.187.83.139"}</t>
         </is>
       </c>
     </row>
@@ -28431,7 +28431,7 @@
       </c>
       <c r="D1400" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24518", "RHOST": "217.187.83.139 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24518", "RHOST": "217.187.83.139"}</t>
         </is>
       </c>
     </row>
@@ -28451,7 +28451,7 @@
       </c>
       <c r="D1401" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24523", "RHOST": "217.187.83.139 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24523", "RHOST": "217.187.83.139"}</t>
         </is>
       </c>
     </row>
@@ -28471,7 +28471,7 @@
       </c>
       <c r="D1402" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24524", "RHOST": "217.187.83.139 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24524", "RHOST": "217.187.83.139"}</t>
         </is>
       </c>
     </row>
@@ -28491,7 +28491,7 @@
       </c>
       <c r="D1403" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23777", "RHOST": "218.146.61.230 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23777", "RHOST": "218.146.61.230"}</t>
         </is>
       </c>
     </row>
@@ -28511,7 +28511,7 @@
       </c>
       <c r="D1404" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23779", "RHOST": "218.146.61.230 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23779", "RHOST": "218.146.61.230"}</t>
         </is>
       </c>
     </row>
@@ -28531,7 +28531,7 @@
       </c>
       <c r="D1405" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23778", "RHOST": "218.146.61.230 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23778", "RHOST": "218.146.61.230"}</t>
         </is>
       </c>
     </row>
@@ -28551,7 +28551,7 @@
       </c>
       <c r="D1406" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23780", "RHOST": "218.146.61.230 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23780", "RHOST": "218.146.61.230"}</t>
         </is>
       </c>
     </row>
@@ -28571,7 +28571,7 @@
       </c>
       <c r="D1407" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23783", "RHOST": "218.146.61.230 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23783", "RHOST": "218.146.61.230"}</t>
         </is>
       </c>
     </row>
@@ -28591,7 +28591,7 @@
       </c>
       <c r="D1408" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23785", "RHOST": "218.146.61.230 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23785", "RHOST": "218.146.61.230"}</t>
         </is>
       </c>
     </row>
@@ -28611,7 +28611,7 @@
       </c>
       <c r="D1409" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23786", "RHOST": "218.146.61.230 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23786", "RHOST": "218.146.61.230"}</t>
         </is>
       </c>
     </row>
@@ -28631,7 +28631,7 @@
       </c>
       <c r="D1410" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23787", "RHOST": "218.146.61.230 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23787", "RHOST": "218.146.61.230"}</t>
         </is>
       </c>
     </row>
@@ -28651,7 +28651,7 @@
       </c>
       <c r="D1411" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23784", "RHOST": "218.146.61.230 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23784", "RHOST": "218.146.61.230"}</t>
         </is>
       </c>
     </row>
@@ -28671,7 +28671,7 @@
       </c>
       <c r="D1412" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23792", "RHOST": "218.146.61.230 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23792", "RHOST": "218.146.61.230"}</t>
         </is>
       </c>
     </row>
@@ -28691,7 +28691,7 @@
       </c>
       <c r="D1413" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23789", "RHOST": "218.146.61.230 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23789", "RHOST": "218.146.61.230"}</t>
         </is>
       </c>
     </row>
@@ -28711,7 +28711,7 @@
       </c>
       <c r="D1414" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23790", "RHOST": "218.146.61.230 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23790", "RHOST": "218.146.61.230"}</t>
         </is>
       </c>
     </row>
@@ -28731,7 +28731,7 @@
       </c>
       <c r="D1415" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23791", "RHOST": "218.146.61.230 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23791", "RHOST": "218.146.61.230"}</t>
         </is>
       </c>
     </row>
@@ -28751,7 +28751,7 @@
       </c>
       <c r="D1416" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23794", "RHOST": "218.146.61.230 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23794", "RHOST": "218.146.61.230"}</t>
         </is>
       </c>
     </row>
@@ -28771,7 +28771,7 @@
       </c>
       <c r="D1417" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23795", "RHOST": "218.146.61.230 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23795", "RHOST": "218.146.61.230"}</t>
         </is>
       </c>
     </row>
@@ -28791,7 +28791,7 @@
       </c>
       <c r="D1418" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23796", "RHOST": "218.146.61.230 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23796", "RHOST": "218.146.61.230"}</t>
         </is>
       </c>
     </row>
@@ -28811,7 +28811,7 @@
       </c>
       <c r="D1419" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23781", "RHOST": "218.146.61.230 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23781", "RHOST": "218.146.61.230"}</t>
         </is>
       </c>
     </row>
@@ -28831,7 +28831,7 @@
       </c>
       <c r="D1420" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23782", "RHOST": "218.146.61.230 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23782", "RHOST": "218.146.61.230"}</t>
         </is>
       </c>
     </row>
@@ -28851,7 +28851,7 @@
       </c>
       <c r="D1421" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 17 08:06:14", "HOSTNAME": "combo", "PID": "23799", "RHOST": "218.146.61.230 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 17 08:06:14", "HOSTNAME": "combo", "PID": "23799", "RHOST": "218.146.61.230"}</t>
         </is>
       </c>
     </row>
@@ -28871,7 +28871,7 @@
       </c>
       <c r="D1422" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 17 09:44:07", "HOSTNAME": "combo", "PID": "23931", "RHOST": "210.245.165.136 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 17 09:44:07", "HOSTNAME": "combo", "PID": "23931", "RHOST": "210.245.165.136"}</t>
         </is>
       </c>
     </row>
@@ -28891,7 +28891,7 @@
       </c>
       <c r="D1423" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 17 09:44:07", "HOSTNAME": "combo", "PID": "23933", "RHOST": "210.245.165.136 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 17 09:44:07", "HOSTNAME": "combo", "PID": "23933", "RHOST": "210.245.165.136"}</t>
         </is>
       </c>
     </row>
@@ -28911,7 +28911,7 @@
       </c>
       <c r="D1424" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 17 09:44:07", "HOSTNAME": "combo", "PID": "23932", "RHOST": "210.245.165.136 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 17 09:44:07", "HOSTNAME": "combo", "PID": "23932", "RHOST": "210.245.165.136"}</t>
         </is>
       </c>
     </row>
@@ -28931,7 +28931,7 @@
       </c>
       <c r="D1425" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 17 09:44:07", "HOSTNAME": "combo", "PID": "23934", "RHOST": "210.245.165.136 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 17 09:44:07", "HOSTNAME": "combo", "PID": "23934", "RHOST": "210.245.165.136"}</t>
         </is>
       </c>
     </row>
@@ -28951,7 +28951,7 @@
       </c>
       <c r="D1426" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 17 09:44:07", "HOSTNAME": "combo", "PID": "23935", "RHOST": "210.245.165.136 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 17 09:44:07", "HOSTNAME": "combo", "PID": "23935", "RHOST": "210.245.165.136"}</t>
         </is>
       </c>
     </row>
@@ -28971,7 +28971,7 @@
       </c>
       <c r="D1427" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23788", "RHOST": "218.146.61.230 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23788", "RHOST": "218.146.61.230"}</t>
         </is>
       </c>
     </row>
@@ -28991,7 +28991,7 @@
       </c>
       <c r="D1428" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23793", "RHOST": "218.146.61.230 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 17 08:06:12", "HOSTNAME": "combo", "PID": "23793", "RHOST": "218.146.61.230"}</t>
         </is>
       </c>
     </row>
@@ -29011,7 +29011,7 @@
       </c>
       <c r="D1429" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24529", "RHOST": "217.187.83.139 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24529", "RHOST": "217.187.83.139"}</t>
         </is>
       </c>
     </row>
@@ -29031,7 +29031,7 @@
       </c>
       <c r="D1430" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24530", "RHOST": "217.187.83.139 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24530", "RHOST": "217.187.83.139"}</t>
         </is>
       </c>
     </row>
@@ -29051,7 +29051,7 @@
       </c>
       <c r="D1431" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24531", "RHOST": "217.187.83.139 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24531", "RHOST": "217.187.83.139"}</t>
         </is>
       </c>
     </row>
@@ -29071,7 +29071,7 @@
       </c>
       <c r="D1432" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24513", "RHOST": "217.187.83.139 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 10 03:55:15", "HOSTNAME": "combo", "PID": "24513", "RHOST": "217.187.83.139"}</t>
         </is>
       </c>
     </row>
@@ -29091,7 +29091,7 @@
       </c>
       <c r="D1433" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 17 09:44:07", "HOSTNAME": "combo", "PID": "23936", "RHOST": "210.245.165.136 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 17 09:44:07", "HOSTNAME": "combo", "PID": "23936", "RHOST": "210.245.165.136"}</t>
         </is>
       </c>
     </row>
@@ -29111,7 +29111,7 @@
       </c>
       <c r="D1434" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 17 09:44:07", "HOSTNAME": "combo", "PID": "23939", "RHOST": "210.245.165.136 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 17 09:44:07", "HOSTNAME": "combo", "PID": "23939", "RHOST": "210.245.165.136"}</t>
         </is>
       </c>
     </row>
@@ -29131,7 +29131,7 @@
       </c>
       <c r="D1435" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 17 09:44:07", "HOSTNAME": "combo", "PID": "23937", "RHOST": "210.245.165.136 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 17 09:44:07", "HOSTNAME": "combo", "PID": "23937", "RHOST": "210.245.165.136"}</t>
         </is>
       </c>
     </row>
@@ -29151,7 +29151,7 @@
       </c>
       <c r="D1436" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 17 09:44:07", "HOSTNAME": "combo", "PID": "23938", "RHOST": "210.245.165.136 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 17 09:44:07", "HOSTNAME": "combo", "PID": "23938", "RHOST": "210.245.165.136"}</t>
         </is>
       </c>
     </row>
@@ -29171,7 +29171,7 @@
       </c>
       <c r="D1437" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:16:51", "HOSTNAME": "combo", "PID": "23153", "RHOST": "211.167.68.59 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:16:51", "HOSTNAME": "combo", "PID": "23153", "RHOST": "211.167.68.59"}</t>
         </is>
       </c>
     </row>
@@ -29191,7 +29191,7 @@
       </c>
       <c r="D1438" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:16:51", "HOSTNAME": "combo", "PID": "23155", "RHOST": "211.167.68.59 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:16:51", "HOSTNAME": "combo", "PID": "23155", "RHOST": "211.167.68.59"}</t>
         </is>
       </c>
     </row>
@@ -29211,7 +29211,7 @@
       </c>
       <c r="D1439" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:16:51", "HOSTNAME": "combo", "PID": "23154", "RHOST": "211.167.68.59 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:16:51", "HOSTNAME": "combo", "PID": "23154", "RHOST": "211.167.68.59"}</t>
         </is>
       </c>
     </row>
@@ -29231,7 +29231,7 @@
       </c>
       <c r="D1440" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:16:52", "HOSTNAME": "combo", "PID": "23156", "RHOST": "211.167.68.59 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:16:52", "HOSTNAME": "combo", "PID": "23156", "RHOST": "211.167.68.59"}</t>
         </is>
       </c>
     </row>
@@ -29251,7 +29251,7 @@
       </c>
       <c r="D1441" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:16:52", "HOSTNAME": "combo", "PID": "23157", "RHOST": "211.167.68.59 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:16:52", "HOSTNAME": "combo", "PID": "23157", "RHOST": "211.167.68.59"}</t>
         </is>
       </c>
     </row>
@@ -29271,7 +29271,7 @@
       </c>
       <c r="D1442" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:59:44", "HOSTNAME": "combo", "PID": "23204", "RHOST": "81.171.220.226 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:59:44", "HOSTNAME": "combo", "PID": "23204", "RHOST": "81.171.220.226"}</t>
         </is>
       </c>
     </row>
@@ -29291,7 +29291,7 @@
       </c>
       <c r="D1443" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:59:44", "HOSTNAME": "combo", "PID": "23205", "RHOST": "81.171.220.226 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:59:44", "HOSTNAME": "combo", "PID": "23205", "RHOST": "81.171.220.226"}</t>
         </is>
       </c>
     </row>
@@ -29311,7 +29311,7 @@
       </c>
       <c r="D1444" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:59:44", "HOSTNAME": "combo", "PID": "23217", "RHOST": "81.171.220.226 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:59:44", "HOSTNAME": "combo", "PID": "23217", "RHOST": "81.171.220.226"}</t>
         </is>
       </c>
     </row>
@@ -29331,7 +29331,7 @@
       </c>
       <c r="D1445" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:59:44", "HOSTNAME": "combo", "PID": "23206", "RHOST": "81.171.220.226 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:59:44", "HOSTNAME": "combo", "PID": "23206", "RHOST": "81.171.220.226"}</t>
         </is>
       </c>
     </row>
@@ -29351,7 +29351,7 @@
       </c>
       <c r="D1446" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:59:44", "HOSTNAME": "combo", "PID": "23207", "RHOST": "81.171.220.226 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:59:44", "HOSTNAME": "combo", "PID": "23207", "RHOST": "81.171.220.226"}</t>
         </is>
       </c>
     </row>
@@ -29371,7 +29371,7 @@
       </c>
       <c r="D1447" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:59:44", "HOSTNAME": "combo", "PID": "23208", "RHOST": "81.171.220.226 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:59:44", "HOSTNAME": "combo", "PID": "23208", "RHOST": "81.171.220.226"}</t>
         </is>
       </c>
     </row>
@@ -29391,7 +29391,7 @@
       </c>
       <c r="D1448" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:59:44", "HOSTNAME": "combo", "PID": "23209", "RHOST": "81.171.220.226 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:59:44", "HOSTNAME": "combo", "PID": "23209", "RHOST": "81.171.220.226"}</t>
         </is>
       </c>
     </row>
@@ -29411,7 +29411,7 @@
       </c>
       <c r="D1449" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:16:51", "HOSTNAME": "combo", "PID": "23151", "RHOST": "211.167.68.59 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:16:51", "HOSTNAME": "combo", "PID": "23151", "RHOST": "211.167.68.59"}</t>
         </is>
       </c>
     </row>
@@ -29431,7 +29431,7 @@
       </c>
       <c r="D1450" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:16:51", "HOSTNAME": "combo", "PID": "23152", "RHOST": "211.167.68.59 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:16:51", "HOSTNAME": "combo", "PID": "23152", "RHOST": "211.167.68.59"}</t>
         </is>
       </c>
     </row>
@@ -29451,7 +29451,7 @@
       </c>
       <c r="D1451" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:59:44", "HOSTNAME": "combo", "PID": "23218", "RHOST": "81.171.220.226 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:59:44", "HOSTNAME": "combo", "PID": "23218", "RHOST": "81.171.220.226"}</t>
         </is>
       </c>
     </row>
@@ -29471,7 +29471,7 @@
       </c>
       <c r="D1452" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:59:44", "HOSTNAME": "combo", "PID": "23213", "RHOST": "81.171.220.226 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:59:44", "HOSTNAME": "combo", "PID": "23213", "RHOST": "81.171.220.226"}</t>
         </is>
       </c>
     </row>
@@ -29491,7 +29491,7 @@
       </c>
       <c r="D1453" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:59:44", "HOSTNAME": "combo", "PID": "23212", "RHOST": "81.171.220.226 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:59:44", "HOSTNAME": "combo", "PID": "23212", "RHOST": "81.171.220.226"}</t>
         </is>
       </c>
     </row>
@@ -29511,7 +29511,7 @@
       </c>
       <c r="D1454" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:59:44", "HOSTNAME": "combo", "PID": "23211", "RHOST": "81.171.220.226 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:59:44", "HOSTNAME": "combo", "PID": "23211", "RHOST": "81.171.220.226"}</t>
         </is>
       </c>
     </row>
@@ -29531,7 +29531,7 @@
       </c>
       <c r="D1455" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:59:44", "HOSTNAME": "combo", "PID": "23220", "RHOST": "81.171.220.226 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:59:44", "HOSTNAME": "combo", "PID": "23220", "RHOST": "81.171.220.226"}</t>
         </is>
       </c>
     </row>
@@ -29551,7 +29551,7 @@
       </c>
       <c r="D1456" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:59:44", "HOSTNAME": "combo", "PID": "23214", "RHOST": "81.171.220.226 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:59:44", "HOSTNAME": "combo", "PID": "23214", "RHOST": "81.171.220.226"}</t>
         </is>
       </c>
     </row>
@@ -29571,7 +29571,7 @@
       </c>
       <c r="D1457" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:59:44", "HOSTNAME": "combo", "PID": "23216", "RHOST": "81.171.220.226 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:59:44", "HOSTNAME": "combo", "PID": "23216", "RHOST": "81.171.220.226"}</t>
         </is>
       </c>
     </row>
@@ -29591,7 +29591,7 @@
       </c>
       <c r="D1458" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:59:44", "HOSTNAME": "combo", "PID": "23215", "RHOST": "81.171.220.226 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:59:44", "HOSTNAME": "combo", "PID": "23215", "RHOST": "81.171.220.226"}</t>
         </is>
       </c>
     </row>
@@ -29611,7 +29611,7 @@
       </c>
       <c r="D1459" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:59:44", "HOSTNAME": "combo", "PID": "23221", "RHOST": "81.171.220.226 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:59:44", "HOSTNAME": "combo", "PID": "23221", "RHOST": "81.171.220.226"}</t>
         </is>
       </c>
     </row>
@@ -29631,7 +29631,7 @@
       </c>
       <c r="D1460" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:59:45", "HOSTNAME": "combo", "PID": "23222", "RHOST": "81.171.220.226 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:59:45", "HOSTNAME": "combo", "PID": "23222", "RHOST": "81.171.220.226"}</t>
         </is>
       </c>
     </row>
@@ -29651,7 +29651,7 @@
       </c>
       <c r="D1461" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:59:45", "HOSTNAME": "combo", "PID": "23223", "RHOST": "81.171.220.226 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:59:45", "HOSTNAME": "combo", "PID": "23223", "RHOST": "81.171.220.226"}</t>
         </is>
       </c>
     </row>
@@ -29671,7 +29671,7 @@
       </c>
       <c r="D1462" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:59:45", "HOSTNAME": "combo", "PID": "23224", "RHOST": "81.171.220.226 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:59:45", "HOSTNAME": "combo", "PID": "23224", "RHOST": "81.171.220.226"}</t>
         </is>
       </c>
     </row>
@@ -29691,7 +29691,7 @@
       </c>
       <c r="D1463" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:59:45", "HOSTNAME": "combo", "PID": "23225", "RHOST": "81.171.220.226 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:59:45", "HOSTNAME": "combo", "PID": "23225", "RHOST": "81.171.220.226"}</t>
         </is>
       </c>
     </row>
@@ -29711,7 +29711,7 @@
       </c>
       <c r="D1464" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:59:45", "HOSTNAME": "combo", "PID": "23226", "RHOST": "81.171.220.226 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:59:45", "HOSTNAME": "combo", "PID": "23226", "RHOST": "81.171.220.226"}</t>
         </is>
       </c>
     </row>
@@ -29731,7 +29731,7 @@
       </c>
       <c r="D1465" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:59:44", "HOSTNAME": "combo", "PID": "23219", "RHOST": "81.171.220.226 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:59:44", "HOSTNAME": "combo", "PID": "23219", "RHOST": "81.171.220.226"}</t>
         </is>
       </c>
     </row>
@@ -29751,7 +29751,7 @@
       </c>
       <c r="D1466" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:59:44", "HOSTNAME": "combo", "PID": "23210", "RHOST": "81.171.220.226 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:59:44", "HOSTNAME": "combo", "PID": "23210", "RHOST": "81.171.220.226"}</t>
         </is>
       </c>
     </row>
@@ -29771,7 +29771,7 @@
       </c>
       <c r="D1467" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23035", "RHOST": "211.57.88.250 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23035", "RHOST": "211.57.88.250"}</t>
         </is>
       </c>
     </row>
@@ -29791,7 +29791,7 @@
       </c>
       <c r="D1468" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23038", "RHOST": "211.57.88.250 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23038", "RHOST": "211.57.88.250"}</t>
         </is>
       </c>
     </row>
@@ -29811,7 +29811,7 @@
       </c>
       <c r="D1469" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23037", "RHOST": "211.57.88.250 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23037", "RHOST": "211.57.88.250"}</t>
         </is>
       </c>
     </row>
@@ -29831,7 +29831,7 @@
       </c>
       <c r="D1470" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23029", "RHOST": "211.57.88.250 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23029", "RHOST": "211.57.88.250"}</t>
         </is>
       </c>
     </row>
@@ -29851,7 +29851,7 @@
       </c>
       <c r="D1471" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23043", "RHOST": "211.57.88.250 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23043", "RHOST": "211.57.88.250"}</t>
         </is>
       </c>
     </row>
@@ -29871,7 +29871,7 @@
       </c>
       <c r="D1472" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23040", "RHOST": "211.57.88.250 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23040", "RHOST": "211.57.88.250"}</t>
         </is>
       </c>
     </row>
@@ -29891,7 +29891,7 @@
       </c>
       <c r="D1473" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23044", "RHOST": "211.57.88.250 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23044", "RHOST": "211.57.88.250"}</t>
         </is>
       </c>
     </row>
@@ -29911,7 +29911,7 @@
       </c>
       <c r="D1474" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23039", "RHOST": "211.57.88.250 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23039", "RHOST": "211.57.88.250"}</t>
         </is>
       </c>
     </row>
@@ -29931,7 +29931,7 @@
       </c>
       <c r="D1475" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23026", "RHOST": "211.57.88.250 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23026", "RHOST": "211.57.88.250"}</t>
         </is>
       </c>
     </row>
@@ -29951,7 +29951,7 @@
       </c>
       <c r="D1476" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23032", "RHOST": "211.57.88.250 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23032", "RHOST": "211.57.88.250"}</t>
         </is>
       </c>
     </row>
@@ -29971,7 +29971,7 @@
       </c>
       <c r="D1477" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23030", "RHOST": "211.57.88.250 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23030", "RHOST": "211.57.88.250"}</t>
         </is>
       </c>
     </row>
@@ -29991,7 +29991,7 @@
       </c>
       <c r="D1478" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23031", "RHOST": "211.57.88.250 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23031", "RHOST": "211.57.88.250"}</t>
         </is>
       </c>
     </row>
@@ -30011,7 +30011,7 @@
       </c>
       <c r="D1479" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23034", "RHOST": "211.57.88.250 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23034", "RHOST": "211.57.88.250"}</t>
         </is>
       </c>
     </row>
@@ -30031,7 +30031,7 @@
       </c>
       <c r="D1480" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:16:49", "HOSTNAME": "combo", "PID": "23140", "RHOST": "211.167.68.59 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:16:49", "HOSTNAME": "combo", "PID": "23140", "RHOST": "211.167.68.59"}</t>
         </is>
       </c>
     </row>
@@ -30051,7 +30051,7 @@
       </c>
       <c r="D1481" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:16:49", "HOSTNAME": "combo", "PID": "23143", "RHOST": "211.167.68.59 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:16:49", "HOSTNAME": "combo", "PID": "23143", "RHOST": "211.167.68.59"}</t>
         </is>
       </c>
     </row>
@@ -30071,7 +30071,7 @@
       </c>
       <c r="D1482" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:16:49", "HOSTNAME": "combo", "PID": "23142", "RHOST": "211.167.68.59 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:16:49", "HOSTNAME": "combo", "PID": "23142", "RHOST": "211.167.68.59"}</t>
         </is>
       </c>
     </row>
@@ -30091,7 +30091,7 @@
       </c>
       <c r="D1483" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23036", "RHOST": "211.57.88.250 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23036", "RHOST": "211.57.88.250"}</t>
         </is>
       </c>
     </row>
@@ -30111,7 +30111,7 @@
       </c>
       <c r="D1484" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23046", "RHOST": "211.57.88.250 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23046", "RHOST": "211.57.88.250"}</t>
         </is>
       </c>
     </row>
@@ -30131,7 +30131,7 @@
       </c>
       <c r="D1485" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23048", "RHOST": "211.57.88.250 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23048", "RHOST": "211.57.88.250"}</t>
         </is>
       </c>
     </row>
@@ -30151,7 +30151,7 @@
       </c>
       <c r="D1486" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23045", "RHOST": "211.57.88.250 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23045", "RHOST": "211.57.88.250"}</t>
         </is>
       </c>
     </row>
@@ -30171,7 +30171,7 @@
       </c>
       <c r="D1487" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:16:49", "HOSTNAME": "combo", "PID": "23148", "RHOST": "211.167.68.59 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:16:49", "HOSTNAME": "combo", "PID": "23148", "RHOST": "211.167.68.59"}</t>
         </is>
       </c>
     </row>
@@ -30191,7 +30191,7 @@
       </c>
       <c r="D1488" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:16:49", "HOSTNAME": "combo", "PID": "23149", "RHOST": "211.167.68.59 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:16:49", "HOSTNAME": "combo", "PID": "23149", "RHOST": "211.167.68.59"}</t>
         </is>
       </c>
     </row>
@@ -30211,7 +30211,7 @@
       </c>
       <c r="D1489" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:16:49", "HOSTNAME": "combo", "PID": "23150", "RHOST": "211.167.68.59 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:16:49", "HOSTNAME": "combo", "PID": "23150", "RHOST": "211.167.68.59"}</t>
         </is>
       </c>
     </row>
@@ -30231,7 +30231,7 @@
       </c>
       <c r="D1490" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:16:49", "HOSTNAME": "combo", "PID": "23147", "RHOST": "211.167.68.59 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:16:49", "HOSTNAME": "combo", "PID": "23147", "RHOST": "211.167.68.59"}</t>
         </is>
       </c>
     </row>
@@ -30251,7 +30251,7 @@
       </c>
       <c r="D1491" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23041", "RHOST": "211.57.88.250 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23041", "RHOST": "211.57.88.250"}</t>
         </is>
       </c>
     </row>
@@ -30271,7 +30271,7 @@
       </c>
       <c r="D1492" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23047", "RHOST": "211.57.88.250 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23047", "RHOST": "211.57.88.250"}</t>
         </is>
       </c>
     </row>
@@ -30291,7 +30291,7 @@
       </c>
       <c r="D1493" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23033", "RHOST": "211.57.88.250 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23033", "RHOST": "211.57.88.250"}</t>
         </is>
       </c>
     </row>
@@ -30311,7 +30311,7 @@
       </c>
       <c r="D1494" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23042", "RHOST": "211.57.88.250 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23042", "RHOST": "211.57.88.250"}</t>
         </is>
       </c>
     </row>
@@ -30331,7 +30331,7 @@
       </c>
       <c r="D1495" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 23:09:45", "HOSTNAME": "combo", "PID": "14108", "RHOST": "221.4.102.93 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  7 23:09:45", "HOSTNAME": "combo", "PID": "14108", "RHOST": "221.4.102.93"}</t>
         </is>
       </c>
     </row>
@@ -30351,7 +30351,7 @@
       </c>
       <c r="D1496" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 23:09:45", "HOSTNAME": "combo", "PID": "14109", "RHOST": "221.4.102.93 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  7 23:09:45", "HOSTNAME": "combo", "PID": "14109", "RHOST": "221.4.102.93"}</t>
         </is>
       </c>
     </row>
@@ -30371,7 +30371,7 @@
       </c>
       <c r="D1497" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 23:09:45", "HOSTNAME": "combo", "PID": "14110", "RHOST": "221.4.102.93 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  7 23:09:45", "HOSTNAME": "combo", "PID": "14110", "RHOST": "221.4.102.93"}</t>
         </is>
       </c>
     </row>
@@ -30391,7 +30391,7 @@
       </c>
       <c r="D1498" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 23:09:45", "HOSTNAME": "combo", "PID": "14111", "RHOST": "221.4.102.93 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  7 23:09:45", "HOSTNAME": "combo", "PID": "14111", "RHOST": "221.4.102.93"}</t>
         </is>
       </c>
     </row>
@@ -30411,7 +30411,7 @@
       </c>
       <c r="D1499" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:16:49", "HOSTNAME": "combo", "PID": "23141", "RHOST": "211.167.68.59 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:16:49", "HOSTNAME": "combo", "PID": "23141", "RHOST": "211.167.68.59"}</t>
         </is>
       </c>
     </row>
@@ -30431,7 +30431,7 @@
       </c>
       <c r="D1500" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:16:49", "HOSTNAME": "combo", "PID": "23144", "RHOST": "211.167.68.59 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:16:49", "HOSTNAME": "combo", "PID": "23144", "RHOST": "211.167.68.59"}</t>
         </is>
       </c>
     </row>
@@ -30451,7 +30451,7 @@
       </c>
       <c r="D1501" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:16:49", "HOSTNAME": "combo", "PID": "23145", "RHOST": "211.167.68.59 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:16:49", "HOSTNAME": "combo", "PID": "23145", "RHOST": "211.167.68.59"}</t>
         </is>
       </c>
     </row>
@@ -30471,7 +30471,7 @@
       </c>
       <c r="D1502" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 12:16:49", "HOSTNAME": "combo", "PID": "23146", "RHOST": "211.167.68.59 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 12:16:49", "HOSTNAME": "combo", "PID": "23146", "RHOST": "211.167.68.59"}</t>
         </is>
       </c>
     </row>
@@ -30491,7 +30491,7 @@
       </c>
       <c r="D1503" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 23:09:45", "HOSTNAME": "combo", "PID": "14116", "RHOST": "221.4.102.93 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  7 23:09:45", "HOSTNAME": "combo", "PID": "14116", "RHOST": "221.4.102.93"}</t>
         </is>
       </c>
     </row>
@@ -30511,7 +30511,7 @@
       </c>
       <c r="D1504" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 23:09:45", "HOSTNAME": "combo", "PID": "14118", "RHOST": "221.4.102.93 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  7 23:09:45", "HOSTNAME": "combo", "PID": "14118", "RHOST": "221.4.102.93"}</t>
         </is>
       </c>
     </row>
@@ -30531,7 +30531,7 @@
       </c>
       <c r="D1505" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 23:09:45", "HOSTNAME": "combo", "PID": "14119", "RHOST": "221.4.102.93 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  7 23:09:45", "HOSTNAME": "combo", "PID": "14119", "RHOST": "221.4.102.93"}</t>
         </is>
       </c>
     </row>
@@ -30551,7 +30551,7 @@
       </c>
       <c r="D1506" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 23:09:45", "HOSTNAME": "combo", "PID": "14117", "RHOST": "221.4.102.93 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  7 23:09:45", "HOSTNAME": "combo", "PID": "14117", "RHOST": "221.4.102.93"}</t>
         </is>
       </c>
     </row>
@@ -30571,7 +30571,7 @@
       </c>
       <c r="D1507" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 23:09:45", "HOSTNAME": "combo", "PID": "14106", "RHOST": "221.4.102.93 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  7 23:09:45", "HOSTNAME": "combo", "PID": "14106", "RHOST": "221.4.102.93"}</t>
         </is>
       </c>
     </row>
@@ -30591,7 +30591,7 @@
       </c>
       <c r="D1508" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 23:09:45", "HOSTNAME": "combo", "PID": "14103", "RHOST": "221.4.102.93 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  7 23:09:45", "HOSTNAME": "combo", "PID": "14103", "RHOST": "221.4.102.93"}</t>
         </is>
       </c>
     </row>
@@ -30611,7 +30611,7 @@
       </c>
       <c r="D1509" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 23:09:45", "HOSTNAME": "combo", "PID": "14107", "RHOST": "221.4.102.93 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  7 23:09:45", "HOSTNAME": "combo", "PID": "14107", "RHOST": "221.4.102.93"}</t>
         </is>
       </c>
     </row>
@@ -30631,7 +30631,7 @@
       </c>
       <c r="D1510" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 23:09:45", "HOSTNAME": "combo", "PID": "14104", "RHOST": "221.4.102.93 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  7 23:09:45", "HOSTNAME": "combo", "PID": "14104", "RHOST": "221.4.102.93"}</t>
         </is>
       </c>
     </row>
@@ -30651,7 +30651,7 @@
       </c>
       <c r="D1511" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 18 03:26:48", "HOSTNAME": "combo", "PID": "25628", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 18 03:26:48", "HOSTNAME": "combo", "PID": "25628", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -30671,7 +30671,7 @@
       </c>
       <c r="D1512" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 18 03:26:48", "HOSTNAME": "combo", "PID": "25629", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 18 03:26:48", "HOSTNAME": "combo", "PID": "25629", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -30691,7 +30691,7 @@
       </c>
       <c r="D1513" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 18 03:26:48", "HOSTNAME": "combo", "PID": "25630", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 18 03:26:48", "HOSTNAME": "combo", "PID": "25630", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -30711,7 +30711,7 @@
       </c>
       <c r="D1514" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 23:09:47", "HOSTNAME": "combo", "PID": "14120", "RHOST": "221.4.102.93 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  7 23:09:47", "HOSTNAME": "combo", "PID": "14120", "RHOST": "221.4.102.93"}</t>
         </is>
       </c>
     </row>
@@ -30731,7 +30731,7 @@
       </c>
       <c r="D1515" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 23:09:50", "HOSTNAME": "combo", "PID": "14121", "RHOST": "221.4.102.93 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  7 23:09:50", "HOSTNAME": "combo", "PID": "14121", "RHOST": "221.4.102.93"}</t>
         </is>
       </c>
     </row>
@@ -30751,7 +30751,7 @@
       </c>
       <c r="D1516" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 23:09:45", "HOSTNAME": "combo", "PID": "14112", "RHOST": "221.4.102.93 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  7 23:09:45", "HOSTNAME": "combo", "PID": "14112", "RHOST": "221.4.102.93"}</t>
         </is>
       </c>
     </row>
@@ -30771,7 +30771,7 @@
       </c>
       <c r="D1517" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 23:09:45", "HOSTNAME": "combo", "PID": "14113", "RHOST": "221.4.102.93 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  7 23:09:45", "HOSTNAME": "combo", "PID": "14113", "RHOST": "221.4.102.93"}</t>
         </is>
       </c>
     </row>
@@ -30791,7 +30791,7 @@
       </c>
       <c r="D1518" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 23:09:45", "HOSTNAME": "combo", "PID": "14114", "RHOST": "221.4.102.93 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  7 23:09:45", "HOSTNAME": "combo", "PID": "14114", "RHOST": "221.4.102.93"}</t>
         </is>
       </c>
     </row>
@@ -30811,7 +30811,7 @@
       </c>
       <c r="D1519" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 23:09:45", "HOSTNAME": "combo", "PID": "14115", "RHOST": "221.4.102.93 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  7 23:09:45", "HOSTNAME": "combo", "PID": "14115", "RHOST": "221.4.102.93"}</t>
         </is>
       </c>
     </row>
@@ -30831,7 +30831,7 @@
       </c>
       <c r="D1520" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23028", "RHOST": "211.57.88.250 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23028", "RHOST": "211.57.88.250"}</t>
         </is>
       </c>
     </row>
@@ -30851,7 +30851,7 @@
       </c>
       <c r="D1521" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23027", "RHOST": "211.57.88.250 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  9 11:35:59", "HOSTNAME": "combo", "PID": "23027", "RHOST": "211.57.88.250"}</t>
         </is>
       </c>
     </row>
@@ -30871,7 +30871,7 @@
       </c>
       <c r="D1522" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 16:33:52", "HOSTNAME": "combo", "PID": "13516", "RHOST": "202.82.200.188 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  7 16:33:52", "HOSTNAME": "combo", "PID": "13516", "RHOST": "202.82.200.188"}</t>
         </is>
       </c>
     </row>
@@ -30891,7 +30891,7 @@
       </c>
       <c r="D1523" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 16:33:52", "HOSTNAME": "combo", "PID": "13520", "RHOST": "202.82.200.188 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  7 16:33:52", "HOSTNAME": "combo", "PID": "13520", "RHOST": "202.82.200.188"}</t>
         </is>
       </c>
     </row>
@@ -30911,7 +30911,7 @@
       </c>
       <c r="D1524" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 16:33:52", "HOSTNAME": "combo", "PID": "13519", "RHOST": "202.82.200.188 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  7 16:33:52", "HOSTNAME": "combo", "PID": "13519", "RHOST": "202.82.200.188"}</t>
         </is>
       </c>
     </row>
@@ -30931,7 +30931,7 @@
       </c>
       <c r="D1525" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 16:33:52", "HOSTNAME": "combo", "PID": "13514", "RHOST": "202.82.200.188 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  7 16:33:52", "HOSTNAME": "combo", "PID": "13514", "RHOST": "202.82.200.188"}</t>
         </is>
       </c>
     </row>
@@ -30951,7 +30951,7 @@
       </c>
       <c r="D1526" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 23:09:45", "HOSTNAME": "combo", "PID": "14105", "RHOST": "221.4.102.93 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  7 23:09:45", "HOSTNAME": "combo", "PID": "14105", "RHOST": "221.4.102.93"}</t>
         </is>
       </c>
     </row>
@@ -30971,7 +30971,7 @@
       </c>
       <c r="D1527" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 16:33:52", "HOSTNAME": "combo", "PID": "13521", "RHOST": "202.82.200.188 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  7 16:33:52", "HOSTNAME": "combo", "PID": "13521", "RHOST": "202.82.200.188"}</t>
         </is>
       </c>
     </row>
@@ -30991,7 +30991,7 @@
       </c>
       <c r="D1528" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 16:33:52", "HOSTNAME": "combo", "PID": "13513", "RHOST": "202.82.200.188 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  7 16:33:52", "HOSTNAME": "combo", "PID": "13513", "RHOST": "202.82.200.188"}</t>
         </is>
       </c>
     </row>
@@ -31011,7 +31011,7 @@
       </c>
       <c r="D1529" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 16:33:52", "HOSTNAME": "combo", "PID": "13511", "RHOST": "202.82.200.188 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  7 16:33:52", "HOSTNAME": "combo", "PID": "13511", "RHOST": "202.82.200.188"}</t>
         </is>
       </c>
     </row>
@@ -31031,7 +31031,7 @@
       </c>
       <c r="D1530" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 16:33:52", "HOSTNAME": "combo", "PID": "13512", "RHOST": "202.82.200.188 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  7 16:33:52", "HOSTNAME": "combo", "PID": "13512", "RHOST": "202.82.200.188"}</t>
         </is>
       </c>
     </row>
@@ -31051,7 +31051,7 @@
       </c>
       <c r="D1531" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 22 13:16:31", "HOSTNAME": "combo", "PID": "17883", "RHOST": "210.245.165.136 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 22 13:16:31", "HOSTNAME": "combo", "PID": "17883", "RHOST": "210.245.165.136"}</t>
         </is>
       </c>
     </row>
@@ -31071,7 +31071,7 @@
       </c>
       <c r="D1532" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 22 13:16:31", "HOSTNAME": "combo", "PID": "17891", "RHOST": "210.245.165.136 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 22 13:16:31", "HOSTNAME": "combo", "PID": "17891", "RHOST": "210.245.165.136"}</t>
         </is>
       </c>
     </row>
@@ -31091,7 +31091,7 @@
       </c>
       <c r="D1533" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 22 13:16:32", "HOSTNAME": "combo", "PID": "17894", "RHOST": "210.245.165.136 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 22 13:16:32", "HOSTNAME": "combo", "PID": "17894", "RHOST": "210.245.165.136"}</t>
         </is>
       </c>
     </row>
@@ -31111,7 +31111,7 @@
       </c>
       <c r="D1534" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 18 03:26:48", "HOSTNAME": "combo", "PID": "25631", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 18 03:26:48", "HOSTNAME": "combo", "PID": "25631", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -31131,7 +31131,7 @@
       </c>
       <c r="D1535" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 18 03:26:48", "HOSTNAME": "combo", "PID": "25632", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 18 03:26:48", "HOSTNAME": "combo", "PID": "25632", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -31151,7 +31151,7 @@
       </c>
       <c r="D1536" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 18 03:26:48", "HOSTNAME": "combo", "PID": "25633", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 18 03:26:48", "HOSTNAME": "combo", "PID": "25633", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -31171,7 +31171,7 @@
       </c>
       <c r="D1537" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 18 03:26:49", "HOSTNAME": "combo", "PID": "25641", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 18 03:26:49", "HOSTNAME": "combo", "PID": "25641", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -31191,7 +31191,7 @@
       </c>
       <c r="D1538" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 22 13:16:30", "HOSTNAME": "combo", "PID": "17890", "RHOST": "210.245.165.136 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 22 13:16:30", "HOSTNAME": "combo", "PID": "17890", "RHOST": "210.245.165.136"}</t>
         </is>
       </c>
     </row>
@@ -31211,7 +31211,7 @@
       </c>
       <c r="D1539" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 22 13:16:30", "HOSTNAME": "combo", "PID": "17893", "RHOST": "210.245.165.136 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 22 13:16:30", "HOSTNAME": "combo", "PID": "17893", "RHOST": "210.245.165.136"}</t>
         </is>
       </c>
     </row>
@@ -31231,7 +31231,7 @@
       </c>
       <c r="D1540" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 22 13:16:30", "HOSTNAME": "combo", "PID": "17879", "RHOST": "210.245.165.136 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 22 13:16:30", "HOSTNAME": "combo", "PID": "17879", "RHOST": "210.245.165.136"}</t>
         </is>
       </c>
     </row>
@@ -31251,7 +31251,7 @@
       </c>
       <c r="D1541" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 22 13:16:30", "HOSTNAME": "combo", "PID": "17892", "RHOST": "210.245.165.136 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 22 13:16:30", "HOSTNAME": "combo", "PID": "17892", "RHOST": "210.245.165.136"}</t>
         </is>
       </c>
     </row>
@@ -31271,7 +31271,7 @@
       </c>
       <c r="D1542" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 22 13:16:30", "HOSTNAME": "combo", "PID": "17876", "RHOST": "210.245.165.136 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 22 13:16:30", "HOSTNAME": "combo", "PID": "17876", "RHOST": "210.245.165.136"}</t>
         </is>
       </c>
     </row>
@@ -31291,7 +31291,7 @@
       </c>
       <c r="D1543" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 22 13:16:30", "HOSTNAME": "combo", "PID": "17875", "RHOST": "210.245.165.136 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 22 13:16:30", "HOSTNAME": "combo", "PID": "17875", "RHOST": "210.245.165.136"}</t>
         </is>
       </c>
     </row>
@@ -31311,7 +31311,7 @@
       </c>
       <c r="D1544" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 22 13:16:30", "HOSTNAME": "combo", "PID": "17877", "RHOST": "210.245.165.136 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 22 13:16:30", "HOSTNAME": "combo", "PID": "17877", "RHOST": "210.245.165.136"}</t>
         </is>
       </c>
     </row>
@@ -31331,7 +31331,7 @@
       </c>
       <c r="D1545" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 18 03:26:49", "HOSTNAME": "combo", "PID": "25647", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 18 03:26:49", "HOSTNAME": "combo", "PID": "25647", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -31351,7 +31351,7 @@
       </c>
       <c r="D1546" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 18 03:26:48", "HOSTNAME": "combo", "PID": "25634", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 18 03:26:48", "HOSTNAME": "combo", "PID": "25634", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -31371,7 +31371,7 @@
       </c>
       <c r="D1547" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 18 03:26:48", "HOSTNAME": "combo", "PID": "25635", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 18 03:26:48", "HOSTNAME": "combo", "PID": "25635", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -31391,7 +31391,7 @@
       </c>
       <c r="D1548" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 18 03:26:49", "HOSTNAME": "combo", "PID": "25638", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 18 03:26:49", "HOSTNAME": "combo", "PID": "25638", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -31411,7 +31411,7 @@
       </c>
       <c r="D1549" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 18 03:26:49", "HOSTNAME": "combo", "PID": "25636", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 18 03:26:49", "HOSTNAME": "combo", "PID": "25636", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -31431,7 +31431,7 @@
       </c>
       <c r="D1550" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 18 03:26:49", "HOSTNAME": "combo", "PID": "25637", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 18 03:26:49", "HOSTNAME": "combo", "PID": "25637", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -31451,7 +31451,7 @@
       </c>
       <c r="D1551" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 18 03:26:49", "HOSTNAME": "combo", "PID": "25639", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 18 03:26:49", "HOSTNAME": "combo", "PID": "25639", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -31471,7 +31471,7 @@
       </c>
       <c r="D1552" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 18 03:26:49", "HOSTNAME": "combo", "PID": "25640", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 18 03:26:49", "HOSTNAME": "combo", "PID": "25640", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -31491,7 +31491,7 @@
       </c>
       <c r="D1553" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 18 03:26:49", "HOSTNAME": "combo", "PID": "25643", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 18 03:26:49", "HOSTNAME": "combo", "PID": "25643", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -31511,7 +31511,7 @@
       </c>
       <c r="D1554" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 18 03:26:49", "HOSTNAME": "combo", "PID": "25644", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 18 03:26:49", "HOSTNAME": "combo", "PID": "25644", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -31531,7 +31531,7 @@
       </c>
       <c r="D1555" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 18 03:26:49", "HOSTNAME": "combo", "PID": "25645", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 18 03:26:49", "HOSTNAME": "combo", "PID": "25645", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -31551,7 +31551,7 @@
       </c>
       <c r="D1556" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 18 03:26:49", "HOSTNAME": "combo", "PID": "25642", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 18 03:26:49", "HOSTNAME": "combo", "PID": "25642", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -31571,7 +31571,7 @@
       </c>
       <c r="D1557" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 18 03:26:49", "HOSTNAME": "combo", "PID": "25646", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 18 03:26:49", "HOSTNAME": "combo", "PID": "25646", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -31591,7 +31591,7 @@
       </c>
       <c r="D1558" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 18 03:26:49", "HOSTNAME": "combo", "PID": "25648", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 18 03:26:49", "HOSTNAME": "combo", "PID": "25648", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -31611,7 +31611,7 @@
       </c>
       <c r="D1559" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 22 13:16:30", "HOSTNAME": "combo", "PID": "17882", "RHOST": "210.245.165.136 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 22 13:16:30", "HOSTNAME": "combo", "PID": "17882", "RHOST": "210.245.165.136"}</t>
         </is>
       </c>
     </row>
@@ -31631,7 +31631,7 @@
       </c>
       <c r="D1560" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 22 13:16:30", "HOSTNAME": "combo", "PID": "17872", "RHOST": "210.245.165.136 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 22 13:16:30", "HOSTNAME": "combo", "PID": "17872", "RHOST": "210.245.165.136"}</t>
         </is>
       </c>
     </row>
@@ -31651,7 +31651,7 @@
       </c>
       <c r="D1561" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 22 13:16:30", "HOSTNAME": "combo", "PID": "17881", "RHOST": "210.245.165.136 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 22 13:16:30", "HOSTNAME": "combo", "PID": "17881", "RHOST": "210.245.165.136"}</t>
         </is>
       </c>
     </row>
@@ -31671,7 +31671,7 @@
       </c>
       <c r="D1562" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 22 13:16:30", "HOSTNAME": "combo", "PID": "17878", "RHOST": "210.245.165.136 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 22 13:16:30", "HOSTNAME": "combo", "PID": "17878", "RHOST": "210.245.165.136"}</t>
         </is>
       </c>
     </row>
@@ -31691,7 +31691,7 @@
       </c>
       <c r="D1563" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 22 13:16:31", "HOSTNAME": "combo", "PID": "17873", "RHOST": "210.245.165.136 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 22 13:16:31", "HOSTNAME": "combo", "PID": "17873", "RHOST": "210.245.165.136"}</t>
         </is>
       </c>
     </row>
@@ -31711,7 +31711,7 @@
       </c>
       <c r="D1564" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 22 13:16:31", "HOSTNAME": "combo", "PID": "17885", "RHOST": "210.245.165.136 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 22 13:16:31", "HOSTNAME": "combo", "PID": "17885", "RHOST": "210.245.165.136"}</t>
         </is>
       </c>
     </row>
@@ -31731,7 +31731,7 @@
       </c>
       <c r="D1565" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 22 13:16:31", "HOSTNAME": "combo", "PID": "17884", "RHOST": "210.245.165.136 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 22 13:16:31", "HOSTNAME": "combo", "PID": "17884", "RHOST": "210.245.165.136"}</t>
         </is>
       </c>
     </row>
@@ -31751,7 +31751,7 @@
       </c>
       <c r="D1566" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 22 13:16:31", "HOSTNAME": "combo", "PID": "17880", "RHOST": "210.245.165.136 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 22 13:16:31", "HOSTNAME": "combo", "PID": "17880", "RHOST": "210.245.165.136"}</t>
         </is>
       </c>
     </row>
@@ -31771,7 +31771,7 @@
       </c>
       <c r="D1567" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9774", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9774", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -31791,7 +31791,7 @@
       </c>
       <c r="D1568" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9775", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9775", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -31811,7 +31811,7 @@
       </c>
       <c r="D1569" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9769", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9769", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -31831,7 +31831,7 @@
       </c>
       <c r="D1570" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9776", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9776", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -31851,7 +31851,7 @@
       </c>
       <c r="D1571" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 16:33:52", "HOSTNAME": "combo", "PID": "13515", "RHOST": "202.82.200.188 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  7 16:33:52", "HOSTNAME": "combo", "PID": "13515", "RHOST": "202.82.200.188"}</t>
         </is>
       </c>
     </row>
@@ -31871,7 +31871,7 @@
       </c>
       <c r="D1572" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 16:33:52", "HOSTNAME": "combo", "PID": "13518", "RHOST": "202.82.200.188 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  7 16:33:52", "HOSTNAME": "combo", "PID": "13518", "RHOST": "202.82.200.188"}</t>
         </is>
       </c>
     </row>
@@ -31891,7 +31891,7 @@
       </c>
       <c r="D1573" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 16:33:52", "HOSTNAME": "combo", "PID": "13522", "RHOST": "202.82.200.188 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  7 16:33:52", "HOSTNAME": "combo", "PID": "13522", "RHOST": "202.82.200.188"}</t>
         </is>
       </c>
     </row>
@@ -31911,7 +31911,7 @@
       </c>
       <c r="D1574" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 16:33:52", "HOSTNAME": "combo", "PID": "13517", "RHOST": "202.82.200.188 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  7 16:33:52", "HOSTNAME": "combo", "PID": "13517", "RHOST": "202.82.200.188"}</t>
         </is>
       </c>
     </row>
@@ -31931,7 +31931,7 @@
       </c>
       <c r="D1575" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9757", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9757", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -31951,7 +31951,7 @@
       </c>
       <c r="D1576" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9766", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9766", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -31971,7 +31971,7 @@
       </c>
       <c r="D1577" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9758", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9758", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -31991,7 +31991,7 @@
       </c>
       <c r="D1578" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9759", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9759", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -32011,7 +32011,7 @@
       </c>
       <c r="D1579" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9772", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9772", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -32031,7 +32031,7 @@
       </c>
       <c r="D1580" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9773", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9773", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -32051,7 +32051,7 @@
       </c>
       <c r="D1581" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9777", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9777", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -32071,7 +32071,7 @@
       </c>
       <c r="D1582" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9763", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9763", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -32091,7 +32091,7 @@
       </c>
       <c r="D1583" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9768", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9768", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -32111,7 +32111,7 @@
       </c>
       <c r="D1584" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  6 18:00:57", "HOSTNAME": "combo", "PID": "9778", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  6 18:00:57", "HOSTNAME": "combo", "PID": "9778", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -32131,7 +32131,7 @@
       </c>
       <c r="D1585" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  6 18:00:57", "HOSTNAME": "combo", "PID": "9779", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  6 18:00:57", "HOSTNAME": "combo", "PID": "9779", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -32151,7 +32151,7 @@
       </c>
       <c r="D1586" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9771", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9771", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -32171,7 +32171,7 @@
       </c>
       <c r="D1587" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9770", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9770", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -32191,7 +32191,7 @@
       </c>
       <c r="D1588" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9765", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9765", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -32211,7 +32211,7 @@
       </c>
       <c r="D1589" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9764", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9764", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -32231,7 +32231,7 @@
       </c>
       <c r="D1590" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9760", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9760", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -32251,7 +32251,7 @@
       </c>
       <c r="D1591" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9761", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9761", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -32271,7 +32271,7 @@
       </c>
       <c r="D1592" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9762", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9762", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -32291,7 +32291,7 @@
       </c>
       <c r="D1593" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9767", "RHOST": "211.72.151.162 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  6 18:00:56", "HOSTNAME": "combo", "PID": "9767", "RHOST": "211.72.151.162"}</t>
         </is>
       </c>
     </row>
@@ -32311,7 +32311,7 @@
       </c>
       <c r="D1594" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5037", "RHOST": "216.12.111.241 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5037", "RHOST": "216.12.111.241"}</t>
         </is>
       </c>
     </row>
@@ -32331,7 +32331,7 @@
       </c>
       <c r="D1595" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5034", "RHOST": "216.12.111.241 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5034", "RHOST": "216.12.111.241"}</t>
         </is>
       </c>
     </row>
@@ -32351,7 +32351,7 @@
       </c>
       <c r="D1596" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5017", "RHOST": "216.12.111.241 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5017", "RHOST": "216.12.111.241"}</t>
         </is>
       </c>
     </row>
@@ -32371,7 +32371,7 @@
       </c>
       <c r="D1597" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5016", "RHOST": "216.12.111.241 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5016", "RHOST": "216.12.111.241"}</t>
         </is>
       </c>
     </row>
@@ -32391,7 +32391,7 @@
       </c>
       <c r="D1598" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5019", "RHOST": "216.12.111.241 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5019", "RHOST": "216.12.111.241"}</t>
         </is>
       </c>
     </row>
@@ -32411,7 +32411,7 @@
       </c>
       <c r="D1599" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5022", "RHOST": "216.12.111.241 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5022", "RHOST": "216.12.111.241"}</t>
         </is>
       </c>
     </row>
@@ -32431,7 +32431,7 @@
       </c>
       <c r="D1600" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5023", "RHOST": "216.12.111.241 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5023", "RHOST": "216.12.111.241"}</t>
         </is>
       </c>
     </row>
@@ -32451,7 +32451,7 @@
       </c>
       <c r="D1601" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5024", "RHOST": "216.12.111.241 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5024", "RHOST": "216.12.111.241"}</t>
         </is>
       </c>
     </row>
@@ -32471,7 +32471,7 @@
       </c>
       <c r="D1602" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5031", "RHOST": "216.12.111.241 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5031", "RHOST": "216.12.111.241"}</t>
         </is>
       </c>
     </row>
@@ -32491,7 +32491,7 @@
       </c>
       <c r="D1603" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5020", "RHOST": "216.12.111.241 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5020", "RHOST": "216.12.111.241"}</t>
         </is>
       </c>
     </row>
@@ -32511,7 +32511,7 @@
       </c>
       <c r="D1604" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5021", "RHOST": "216.12.111.241 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5021", "RHOST": "216.12.111.241"}</t>
         </is>
       </c>
     </row>
@@ -32531,7 +32531,7 @@
       </c>
       <c r="D1605" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5027", "RHOST": "216.12.111.241 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5027", "RHOST": "216.12.111.241"}</t>
         </is>
       </c>
     </row>
@@ -32551,7 +32551,7 @@
       </c>
       <c r="D1606" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5026", "RHOST": "216.12.111.241 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5026", "RHOST": "216.12.111.241"}</t>
         </is>
       </c>
     </row>
@@ -32571,7 +32571,7 @@
       </c>
       <c r="D1607" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5035", "RHOST": "216.12.111.241 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5035", "RHOST": "216.12.111.241"}</t>
         </is>
       </c>
     </row>
@@ -32591,7 +32591,7 @@
       </c>
       <c r="D1608" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 20 03:40:59", "HOSTNAME": "combo", "PID": "8830", "RHOST": "222.33.90.199 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 20 03:40:59", "HOSTNAME": "combo", "PID": "8830", "RHOST": "222.33.90.199"}</t>
         </is>
       </c>
     </row>
@@ -32611,7 +32611,7 @@
       </c>
       <c r="D1609" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 20 03:40:59", "HOSTNAME": "combo", "PID": "8831", "RHOST": "222.33.90.199 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 20 03:40:59", "HOSTNAME": "combo", "PID": "8831", "RHOST": "222.33.90.199"}</t>
         </is>
       </c>
     </row>
@@ -32631,7 +32631,7 @@
       </c>
       <c r="D1610" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 22 13:16:30", "HOSTNAME": "combo", "PID": "17874", "RHOST": "210.245.165.136 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 22 13:16:30", "HOSTNAME": "combo", "PID": "17874", "RHOST": "210.245.165.136"}</t>
         </is>
       </c>
     </row>
@@ -32651,7 +32651,7 @@
       </c>
       <c r="D1611" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 22 13:16:30", "HOSTNAME": "combo", "PID": "17886", "RHOST": "210.245.165.136 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 22 13:16:30", "HOSTNAME": "combo", "PID": "17886", "RHOST": "210.245.165.136"}</t>
         </is>
       </c>
     </row>
@@ -32671,7 +32671,7 @@
       </c>
       <c r="D1612" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 22 13:16:30", "HOSTNAME": "combo", "PID": "17889", "RHOST": "210.245.165.136 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 22 13:16:30", "HOSTNAME": "combo", "PID": "17889", "RHOST": "210.245.165.136"}</t>
         </is>
       </c>
     </row>
@@ -32691,7 +32691,7 @@
       </c>
       <c r="D1613" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 22 13:16:30", "HOSTNAME": "combo", "PID": "17887", "RHOST": "210.245.165.136 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 22 13:16:30", "HOSTNAME": "combo", "PID": "17887", "RHOST": "210.245.165.136"}</t>
         </is>
       </c>
     </row>
@@ -32711,7 +32711,7 @@
       </c>
       <c r="D1614" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 22 13:16:30", "HOSTNAME": "combo", "PID": "17888", "RHOST": "210.245.165.136 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 22 13:16:30", "HOSTNAME": "combo", "PID": "17888", "RHOST": "210.245.165.136"}</t>
         </is>
       </c>
     </row>
@@ -32731,7 +32731,7 @@
       </c>
       <c r="D1615" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12277", "RHOST": "211.42.188.206 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12277", "RHOST": "211.42.188.206"}</t>
         </is>
       </c>
     </row>
@@ -32751,7 +32751,7 @@
       </c>
       <c r="D1616" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12294", "RHOST": "211.42.188.206 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12294", "RHOST": "211.42.188.206"}</t>
         </is>
       </c>
     </row>
@@ -32771,7 +32771,7 @@
       </c>
       <c r="D1617" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12290", "RHOST": "211.42.188.206 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12290", "RHOST": "211.42.188.206"}</t>
         </is>
       </c>
     </row>
@@ -32791,7 +32791,7 @@
       </c>
       <c r="D1618" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12296", "RHOST": "211.42.188.206 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12296", "RHOST": "211.42.188.206"}</t>
         </is>
       </c>
     </row>
@@ -32811,7 +32811,7 @@
       </c>
       <c r="D1619" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12297", "RHOST": "211.42.188.206 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12297", "RHOST": "211.42.188.206"}</t>
         </is>
       </c>
     </row>
@@ -32831,7 +32831,7 @@
       </c>
       <c r="D1620" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12291", "RHOST": "211.42.188.206 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12291", "RHOST": "211.42.188.206"}</t>
         </is>
       </c>
     </row>
@@ -32851,7 +32851,7 @@
       </c>
       <c r="D1621" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12293", "RHOST": "211.42.188.206 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12293", "RHOST": "211.42.188.206"}</t>
         </is>
       </c>
     </row>
@@ -32871,7 +32871,7 @@
       </c>
       <c r="D1622" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12295", "RHOST": "211.42.188.206 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12295", "RHOST": "211.42.188.206"}</t>
         </is>
       </c>
     </row>
@@ -32891,7 +32891,7 @@
       </c>
       <c r="D1623" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13152", "RHOST": "67.95.49.172 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13152", "RHOST": "67.95.49.172"}</t>
         </is>
       </c>
     </row>
@@ -32911,7 +32911,7 @@
       </c>
       <c r="D1624" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12282", "RHOST": "211.42.188.206 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12282", "RHOST": "211.42.188.206"}</t>
         </is>
       </c>
     </row>
@@ -32931,7 +32931,7 @@
       </c>
       <c r="D1625" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12288", "RHOST": "211.42.188.206 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12288", "RHOST": "211.42.188.206"}</t>
         </is>
       </c>
     </row>
@@ -32951,7 +32951,7 @@
       </c>
       <c r="D1626" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12284", "RHOST": "211.42.188.206 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12284", "RHOST": "211.42.188.206"}</t>
         </is>
       </c>
     </row>
@@ -32971,7 +32971,7 @@
       </c>
       <c r="D1627" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12279", "RHOST": "211.42.188.206 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12279", "RHOST": "211.42.188.206"}</t>
         </is>
       </c>
     </row>
@@ -32991,7 +32991,7 @@
       </c>
       <c r="D1628" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12285", "RHOST": "211.42.188.206 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12285", "RHOST": "211.42.188.206"}</t>
         </is>
       </c>
     </row>
@@ -33011,7 +33011,7 @@
       </c>
       <c r="D1629" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12286", "RHOST": "211.42.188.206 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12286", "RHOST": "211.42.188.206"}</t>
         </is>
       </c>
     </row>
@@ -33031,7 +33031,7 @@
       </c>
       <c r="D1630" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12278", "RHOST": "211.42.188.206 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12278", "RHOST": "211.42.188.206"}</t>
         </is>
       </c>
     </row>
@@ -33051,7 +33051,7 @@
       </c>
       <c r="D1631" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5018", "RHOST": "216.12.111.241 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5018", "RHOST": "216.12.111.241"}</t>
         </is>
       </c>
     </row>
@@ -33071,7 +33071,7 @@
       </c>
       <c r="D1632" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12280", "RHOST": "211.42.188.206 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12280", "RHOST": "211.42.188.206"}</t>
         </is>
       </c>
     </row>
@@ -33091,7 +33091,7 @@
       </c>
       <c r="D1633" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12289", "RHOST": "211.42.188.206 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12289", "RHOST": "211.42.188.206"}</t>
         </is>
       </c>
     </row>
@@ -33111,7 +33111,7 @@
       </c>
       <c r="D1634" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12281", "RHOST": "211.42.188.206 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12281", "RHOST": "211.42.188.206"}</t>
         </is>
       </c>
     </row>
@@ -33131,7 +33131,7 @@
       </c>
       <c r="D1635" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12283", "RHOST": "211.42.188.206 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12283", "RHOST": "211.42.188.206"}</t>
         </is>
       </c>
     </row>
@@ -33151,7 +33151,7 @@
       </c>
       <c r="D1636" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12287", "RHOST": "211.42.188.206 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12287", "RHOST": "211.42.188.206"}</t>
         </is>
       </c>
     </row>
@@ -33171,7 +33171,7 @@
       </c>
       <c r="D1637" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12298", "RHOST": "211.42.188.206 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12298", "RHOST": "211.42.188.206"}</t>
         </is>
       </c>
     </row>
@@ -33191,7 +33191,7 @@
       </c>
       <c r="D1638" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12299", "RHOST": "211.42.188.206 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12299", "RHOST": "211.42.188.206"}</t>
         </is>
       </c>
     </row>
@@ -33211,7 +33211,7 @@
       </c>
       <c r="D1639" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5025", "RHOST": "216.12.111.241 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5025", "RHOST": "216.12.111.241"}</t>
         </is>
       </c>
     </row>
@@ -33231,7 +33231,7 @@
       </c>
       <c r="D1640" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5028", "RHOST": "216.12.111.241 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5028", "RHOST": "216.12.111.241"}</t>
         </is>
       </c>
     </row>
@@ -33251,7 +33251,7 @@
       </c>
       <c r="D1641" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5033", "RHOST": "216.12.111.241 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5033", "RHOST": "216.12.111.241"}</t>
         </is>
       </c>
     </row>
@@ -33271,7 +33271,7 @@
       </c>
       <c r="D1642" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5032", "RHOST": "216.12.111.241 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5032", "RHOST": "216.12.111.241"}</t>
         </is>
       </c>
     </row>
@@ -33291,7 +33291,7 @@
       </c>
       <c r="D1643" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5030", "RHOST": "216.12.111.241 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5030", "RHOST": "216.12.111.241"}</t>
         </is>
       </c>
     </row>
@@ -33311,7 +33311,7 @@
       </c>
       <c r="D1644" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5029", "RHOST": "216.12.111.241 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5029", "RHOST": "216.12.111.241"}</t>
         </is>
       </c>
     </row>
@@ -33331,7 +33331,7 @@
       </c>
       <c r="D1645" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  5 13:52:21", "HOSTNAME": "combo", "PID": "6582", "RHOST": "211.72.2.106 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  5 13:52:21", "HOSTNAME": "combo", "PID": "6582", "RHOST": "211.72.2.106"}</t>
         </is>
       </c>
     </row>
@@ -33351,7 +33351,7 @@
       </c>
       <c r="D1646" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  5 13:52:21", "HOSTNAME": "combo", "PID": "6580", "RHOST": "211.72.2.106 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  5 13:52:21", "HOSTNAME": "combo", "PID": "6580", "RHOST": "211.72.2.106"}</t>
         </is>
       </c>
     </row>
@@ -33371,7 +33371,7 @@
       </c>
       <c r="D1647" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  5 13:52:21", "HOSTNAME": "combo", "PID": "6589", "RHOST": "211.72.2.106 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  5 13:52:21", "HOSTNAME": "combo", "PID": "6589", "RHOST": "211.72.2.106"}</t>
         </is>
       </c>
     </row>
@@ -33391,7 +33391,7 @@
       </c>
       <c r="D1648" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  5 13:52:21", "HOSTNAME": "combo", "PID": "6586", "RHOST": "211.72.2.106 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  5 13:52:21", "HOSTNAME": "combo", "PID": "6586", "RHOST": "211.72.2.106"}</t>
         </is>
       </c>
     </row>
@@ -33411,7 +33411,7 @@
       </c>
       <c r="D1649" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  5 13:52:21", "HOSTNAME": "combo", "PID": "6591", "RHOST": "211.72.2.106 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  5 13:52:21", "HOSTNAME": "combo", "PID": "6591", "RHOST": "211.72.2.106"}</t>
         </is>
       </c>
     </row>
@@ -33431,7 +33431,7 @@
       </c>
       <c r="D1650" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  5 13:52:21", "HOSTNAME": "combo", "PID": "6587", "RHOST": "211.72.2.106 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  5 13:52:21", "HOSTNAME": "combo", "PID": "6587", "RHOST": "211.72.2.106"}</t>
         </is>
       </c>
     </row>
@@ -33451,7 +33451,7 @@
       </c>
       <c r="D1651" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  5 13:52:21", "HOSTNAME": "combo", "PID": "6588", "RHOST": "211.72.2.106 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  5 13:52:21", "HOSTNAME": "combo", "PID": "6588", "RHOST": "211.72.2.106"}</t>
         </is>
       </c>
     </row>
@@ -33471,7 +33471,7 @@
       </c>
       <c r="D1652" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  5 13:52:21", "HOSTNAME": "combo", "PID": "6581", "RHOST": "211.72.2.106 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  5 13:52:21", "HOSTNAME": "combo", "PID": "6581", "RHOST": "211.72.2.106"}</t>
         </is>
       </c>
     </row>
@@ -33491,7 +33491,7 @@
       </c>
       <c r="D1653" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  5 13:52:21", "HOSTNAME": "combo", "PID": "6585", "RHOST": "211.72.2.106 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  5 13:52:21", "HOSTNAME": "combo", "PID": "6585", "RHOST": "211.72.2.106"}</t>
         </is>
       </c>
     </row>
@@ -33511,7 +33511,7 @@
       </c>
       <c r="D1654" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  5 13:52:21", "HOSTNAME": "combo", "PID": "6592", "RHOST": "211.72.2.106 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  5 13:52:21", "HOSTNAME": "combo", "PID": "6592", "RHOST": "211.72.2.106"}</t>
         </is>
       </c>
     </row>
@@ -33531,7 +33531,7 @@
       </c>
       <c r="D1655" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  5 13:52:21", "HOSTNAME": "combo", "PID": "6584", "RHOST": "211.72.2.106 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  5 13:52:21", "HOSTNAME": "combo", "PID": "6584", "RHOST": "211.72.2.106"}</t>
         </is>
       </c>
     </row>
@@ -33551,7 +33551,7 @@
       </c>
       <c r="D1656" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  5 13:52:23", "HOSTNAME": "combo", "PID": "6593", "RHOST": "211.72.2.106 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  5 13:52:23", "HOSTNAME": "combo", "PID": "6593", "RHOST": "211.72.2.106"}</t>
         </is>
       </c>
     </row>
@@ -33571,7 +33571,7 @@
       </c>
       <c r="D1657" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  5 13:52:23", "HOSTNAME": "combo", "PID": "6595", "RHOST": "211.72.2.106 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  5 13:52:23", "HOSTNAME": "combo", "PID": "6595", "RHOST": "211.72.2.106"}</t>
         </is>
       </c>
     </row>
@@ -33591,7 +33591,7 @@
       </c>
       <c r="D1658" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  5 13:52:21", "HOSTNAME": "combo", "PID": "6590", "RHOST": "211.72.2.106 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  5 13:52:21", "HOSTNAME": "combo", "PID": "6590", "RHOST": "211.72.2.106"}</t>
         </is>
       </c>
     </row>
@@ -33611,7 +33611,7 @@
       </c>
       <c r="D1659" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  5 13:52:23", "HOSTNAME": "combo", "PID": "6596", "RHOST": "211.72.2.106 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  5 13:52:23", "HOSTNAME": "combo", "PID": "6596", "RHOST": "211.72.2.106"}</t>
         </is>
       </c>
     </row>
@@ -33631,7 +33631,7 @@
       </c>
       <c r="D1660" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  5 13:52:23", "HOSTNAME": "combo", "PID": "6597", "RHOST": "211.72.2.106 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  5 13:52:23", "HOSTNAME": "combo", "PID": "6597", "RHOST": "211.72.2.106"}</t>
         </is>
       </c>
     </row>
@@ -33651,7 +33651,7 @@
       </c>
       <c r="D1661" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  5 13:52:23", "HOSTNAME": "combo", "PID": "6598", "RHOST": "211.72.2.106 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  5 13:52:23", "HOSTNAME": "combo", "PID": "6598", "RHOST": "211.72.2.106"}</t>
         </is>
       </c>
     </row>
@@ -33671,7 +33671,7 @@
       </c>
       <c r="D1662" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  5 13:52:23", "HOSTNAME": "combo", "PID": "6600", "RHOST": "211.72.2.106 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  5 13:52:23", "HOSTNAME": "combo", "PID": "6600", "RHOST": "211.72.2.106"}</t>
         </is>
       </c>
     </row>
@@ -33691,7 +33691,7 @@
       </c>
       <c r="D1663" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  5 13:52:23", "HOSTNAME": "combo", "PID": "6601", "RHOST": "211.72.2.106 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  5 13:52:23", "HOSTNAME": "combo", "PID": "6601", "RHOST": "211.72.2.106"}</t>
         </is>
       </c>
     </row>
@@ -33711,7 +33711,7 @@
       </c>
       <c r="D1664" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  5 13:52:23", "HOSTNAME": "combo", "PID": "6602", "RHOST": "211.72.2.106 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  5 13:52:23", "HOSTNAME": "combo", "PID": "6602", "RHOST": "211.72.2.106"}</t>
         </is>
       </c>
     </row>
@@ -33731,7 +33731,7 @@
       </c>
       <c r="D1665" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  5 13:52:23", "HOSTNAME": "combo", "PID": "6599", "RHOST": "211.72.2.106 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  5 13:52:23", "HOSTNAME": "combo", "PID": "6599", "RHOST": "211.72.2.106"}</t>
         </is>
       </c>
     </row>
@@ -33751,7 +33751,7 @@
       </c>
       <c r="D1666" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  5 13:52:21", "HOSTNAME": "combo", "PID": "6583", "RHOST": "211.72.2.106 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  5 13:52:21", "HOSTNAME": "combo", "PID": "6583", "RHOST": "211.72.2.106"}</t>
         </is>
       </c>
     </row>
@@ -33771,7 +33771,7 @@
       </c>
       <c r="D1667" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21952", "RHOST": "202.82.200.188 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21952", "RHOST": "202.82.200.188"}</t>
         </is>
       </c>
     </row>
@@ -33791,7 +33791,7 @@
       </c>
       <c r="D1668" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21951", "RHOST": "202.82.200.188 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21951", "RHOST": "202.82.200.188"}</t>
         </is>
       </c>
     </row>
@@ -33811,7 +33811,7 @@
       </c>
       <c r="D1669" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21957", "RHOST": "202.82.200.188 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  1 07:57:30", "HOSTNAME": "combo", "PID": "21957", "RHOST": "202.82.200.188"}</t>
         </is>
       </c>
     </row>
@@ -33831,7 +33831,7 @@
       </c>
       <c r="D1670" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  5 13:52:23", "HOSTNAME": "combo", "PID": "6594", "RHOST": "211.72.2.106 ()"}</t>
+          <t>{"TIMESTAMP": "Jul  5 13:52:23", "HOSTNAME": "combo", "PID": "6594", "RHOST": "211.72.2.106"}</t>
         </is>
       </c>
     </row>
@@ -33851,7 +33851,7 @@
       </c>
       <c r="D1671" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 20 03:40:59", "HOSTNAME": "combo", "PID": "8829", "RHOST": "222.33.90.199 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 20 03:40:59", "HOSTNAME": "combo", "PID": "8829", "RHOST": "222.33.90.199"}</t>
         </is>
       </c>
     </row>
@@ -33871,7 +33871,7 @@
       </c>
       <c r="D1672" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 20 03:40:59", "HOSTNAME": "combo", "PID": "8824", "RHOST": "222.33.90.199 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 20 03:40:59", "HOSTNAME": "combo", "PID": "8824", "RHOST": "222.33.90.199"}</t>
         </is>
       </c>
     </row>
@@ -33891,7 +33891,7 @@
       </c>
       <c r="D1673" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 20 03:40:59", "HOSTNAME": "combo", "PID": "8827", "RHOST": "222.33.90.199 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 20 03:40:59", "HOSTNAME": "combo", "PID": "8827", "RHOST": "222.33.90.199"}</t>
         </is>
       </c>
     </row>
@@ -33911,7 +33911,7 @@
       </c>
       <c r="D1674" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 20 03:40:59", "HOSTNAME": "combo", "PID": "8823", "RHOST": "222.33.90.199 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 20 03:40:59", "HOSTNAME": "combo", "PID": "8823", "RHOST": "222.33.90.199"}</t>
         </is>
       </c>
     </row>
@@ -33931,7 +33931,7 @@
       </c>
       <c r="D1675" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 20 03:40:59", "HOSTNAME": "combo", "PID": "8825", "RHOST": "222.33.90.199 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 20 03:40:59", "HOSTNAME": "combo", "PID": "8825", "RHOST": "222.33.90.199"}</t>
         </is>
       </c>
     </row>
@@ -33951,7 +33951,7 @@
       </c>
       <c r="D1676" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 20 03:40:59", "HOSTNAME": "combo", "PID": "8826", "RHOST": "222.33.90.199 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 20 03:40:59", "HOSTNAME": "combo", "PID": "8826", "RHOST": "222.33.90.199"}</t>
         </is>
       </c>
     </row>
@@ -33971,7 +33971,7 @@
       </c>
       <c r="D1677" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 20 03:40:59", "HOSTNAME": "combo", "PID": "8832", "RHOST": "222.33.90.199 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 20 03:40:59", "HOSTNAME": "combo", "PID": "8832", "RHOST": "222.33.90.199"}</t>
         </is>
       </c>
     </row>
@@ -33991,7 +33991,7 @@
       </c>
       <c r="D1678" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12292", "RHOST": "211.42.188.206 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 09:27:24", "HOSTNAME": "combo", "PID": "12292", "RHOST": "211.42.188.206"}</t>
         </is>
       </c>
     </row>
@@ -34011,7 +34011,7 @@
       </c>
       <c r="D1679" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5036", "RHOST": "216.12.111.241 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 21 09:04:41", "HOSTNAME": "combo", "PID": "5036", "RHOST": "216.12.111.241"}</t>
         </is>
       </c>
     </row>
@@ -34031,7 +34031,7 @@
       </c>
       <c r="D1680" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 21 09:04:43", "HOSTNAME": "combo", "PID": "5038", "RHOST": "216.12.111.241 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 21 09:04:43", "HOSTNAME": "combo", "PID": "5038", "RHOST": "216.12.111.241"}</t>
         </is>
       </c>
     </row>
@@ -34051,7 +34051,7 @@
       </c>
       <c r="D1681" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 20 03:40:59", "HOSTNAME": "combo", "PID": "8828", "RHOST": "222.33.90.199 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 20 03:40:59", "HOSTNAME": "combo", "PID": "8828", "RHOST": "222.33.90.199"}</t>
         </is>
       </c>
     </row>
@@ -34071,7 +34071,7 @@
       </c>
       <c r="D1682" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 20 03:40:59", "HOSTNAME": "combo", "PID": "8822", "RHOST": "222.33.90.199 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 20 03:40:59", "HOSTNAME": "combo", "PID": "8822", "RHOST": "222.33.90.199"}</t>
         </is>
       </c>
     </row>
@@ -34091,7 +34091,7 @@
       </c>
       <c r="D1683" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 20 03:40:59", "HOSTNAME": "combo", "PID": "8833", "RHOST": "222.33.90.199 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 20 03:40:59", "HOSTNAME": "combo", "PID": "8833", "RHOST": "222.33.90.199"}</t>
         </is>
       </c>
     </row>
@@ -34111,7 +34111,7 @@
       </c>
       <c r="D1684" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13146", "RHOST": "67.95.49.172 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13146", "RHOST": "67.95.49.172"}</t>
         </is>
       </c>
     </row>
@@ -34131,7 +34131,7 @@
       </c>
       <c r="D1685" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13156", "RHOST": "67.95.49.172 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13156", "RHOST": "67.95.49.172"}</t>
         </is>
       </c>
     </row>
@@ -34151,7 +34151,7 @@
       </c>
       <c r="D1686" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13150", "RHOST": "67.95.49.172 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13150", "RHOST": "67.95.49.172"}</t>
         </is>
       </c>
     </row>
@@ -34171,7 +34171,7 @@
       </c>
       <c r="D1687" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13147", "RHOST": "67.95.49.172 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13147", "RHOST": "67.95.49.172"}</t>
         </is>
       </c>
     </row>
@@ -34191,7 +34191,7 @@
       </c>
       <c r="D1688" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13149", "RHOST": "67.95.49.172 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13149", "RHOST": "67.95.49.172"}</t>
         </is>
       </c>
     </row>
@@ -34211,7 +34211,7 @@
       </c>
       <c r="D1689" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13148", "RHOST": "67.95.49.172 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13148", "RHOST": "67.95.49.172"}</t>
         </is>
       </c>
     </row>
@@ -34231,7 +34231,7 @@
       </c>
       <c r="D1690" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13151", "RHOST": "67.95.49.172 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13151", "RHOST": "67.95.49.172"}</t>
         </is>
       </c>
     </row>
@@ -34251,7 +34251,7 @@
       </c>
       <c r="D1691" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13153", "RHOST": "67.95.49.172 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13153", "RHOST": "67.95.49.172"}</t>
         </is>
       </c>
     </row>
@@ -34271,7 +34271,7 @@
       </c>
       <c r="D1692" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13141", "RHOST": "67.95.49.172 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13141", "RHOST": "67.95.49.172"}</t>
         </is>
       </c>
     </row>
@@ -34291,7 +34291,7 @@
       </c>
       <c r="D1693" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13140", "RHOST": "67.95.49.172 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13140", "RHOST": "67.95.49.172"}</t>
         </is>
       </c>
     </row>
@@ -34311,7 +34311,7 @@
       </c>
       <c r="D1694" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13142", "RHOST": "67.95.49.172 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13142", "RHOST": "67.95.49.172"}</t>
         </is>
       </c>
     </row>
@@ -34331,7 +34331,7 @@
       </c>
       <c r="D1695" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13143", "RHOST": "67.95.49.172 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13143", "RHOST": "67.95.49.172"}</t>
         </is>
       </c>
     </row>
@@ -34351,7 +34351,7 @@
       </c>
       <c r="D1696" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13145", "RHOST": "67.95.49.172 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13145", "RHOST": "67.95.49.172"}</t>
         </is>
       </c>
     </row>
@@ -34371,7 +34371,7 @@
       </c>
       <c r="D1697" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13144", "RHOST": "67.95.49.172 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13144", "RHOST": "67.95.49.172"}</t>
         </is>
       </c>
     </row>
@@ -34391,7 +34391,7 @@
       </c>
       <c r="D1698" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13154", "RHOST": "67.95.49.172 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13154", "RHOST": "67.95.49.172"}</t>
         </is>
       </c>
     </row>
@@ -34411,7 +34411,7 @@
       </c>
       <c r="D1699" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13155", "RHOST": "67.95.49.172 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13155", "RHOST": "67.95.49.172"}</t>
         </is>
       </c>
     </row>
@@ -34431,7 +34431,7 @@
       </c>
       <c r="D1700" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13157", "RHOST": "67.95.49.172 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13157", "RHOST": "67.95.49.172"}</t>
         </is>
       </c>
     </row>
@@ -34451,7 +34451,7 @@
       </c>
       <c r="D1701" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13158", "RHOST": "67.95.49.172 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13158", "RHOST": "67.95.49.172"}</t>
         </is>
       </c>
     </row>
@@ -34471,7 +34471,7 @@
       </c>
       <c r="D1702" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13159", "RHOST": "67.95.49.172 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13159", "RHOST": "67.95.49.172"}</t>
         </is>
       </c>
     </row>
@@ -34491,7 +34491,7 @@
       </c>
       <c r="D1703" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13160", "RHOST": "67.95.49.172 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13160", "RHOST": "67.95.49.172"}</t>
         </is>
       </c>
     </row>
@@ -34511,7 +34511,7 @@
       </c>
       <c r="D1704" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13161", "RHOST": "67.95.49.172 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 19:29:09", "HOSTNAME": "combo", "PID": "13161", "RHOST": "67.95.49.172"}</t>
         </is>
       </c>
     </row>
@@ -34531,7 +34531,7 @@
       </c>
       <c r="D1705" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 19:29:10", "HOSTNAME": "combo", "PID": "13162", "RHOST": "67.95.49.172 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 22 19:29:10", "HOSTNAME": "combo", "PID": "13162", "RHOST": "67.95.49.172"}</t>
         </is>
       </c>
     </row>
@@ -34551,7 +34551,7 @@
       </c>
       <c r="D1706" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16785", "RHOST": "84.102.20.2 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16785", "RHOST": "84.102.20.2"}</t>
         </is>
       </c>
     </row>
@@ -34571,7 +34571,7 @@
       </c>
       <c r="D1707" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16790", "RHOST": "84.102.20.2 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16790", "RHOST": "84.102.20.2"}</t>
         </is>
       </c>
     </row>
@@ -34591,7 +34591,7 @@
       </c>
       <c r="D1708" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16780", "RHOST": "84.102.20.2 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16780", "RHOST": "84.102.20.2"}</t>
         </is>
       </c>
     </row>
@@ -34611,7 +34611,7 @@
       </c>
       <c r="D1709" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16773", "RHOST": "84.102.20.2 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16773", "RHOST": "84.102.20.2"}</t>
         </is>
       </c>
     </row>
@@ -34631,7 +34631,7 @@
       </c>
       <c r="D1710" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16789", "RHOST": "84.102.20.2 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16789", "RHOST": "84.102.20.2"}</t>
         </is>
       </c>
     </row>
@@ -34651,7 +34651,7 @@
       </c>
       <c r="D1711" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16783", "RHOST": "84.102.20.2 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16783", "RHOST": "84.102.20.2"}</t>
         </is>
       </c>
     </row>
@@ -34671,7 +34671,7 @@
       </c>
       <c r="D1712" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 13:46:34", "HOSTNAME": "combo", "PID": "22668", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 13:46:34", "HOSTNAME": "combo", "PID": "22668", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -34691,7 +34691,7 @@
       </c>
       <c r="D1713" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 13:46:35", "HOSTNAME": "combo", "PID": "22669", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 13:46:35", "HOSTNAME": "combo", "PID": "22669", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -34711,7 +34711,7 @@
       </c>
       <c r="D1714" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16775", "RHOST": "84.102.20.2 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16775", "RHOST": "84.102.20.2"}</t>
         </is>
       </c>
     </row>
@@ -34731,7 +34731,7 @@
       </c>
       <c r="D1715" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16778", "RHOST": "84.102.20.2 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16778", "RHOST": "84.102.20.2"}</t>
         </is>
       </c>
     </row>
@@ -34751,7 +34751,7 @@
       </c>
       <c r="D1716" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16776", "RHOST": "84.102.20.2 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16776", "RHOST": "84.102.20.2"}</t>
         </is>
       </c>
     </row>
@@ -34771,7 +34771,7 @@
       </c>
       <c r="D1717" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16792", "RHOST": "84.102.20.2 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16792", "RHOST": "84.102.20.2"}</t>
         </is>
       </c>
     </row>
@@ -34791,7 +34791,7 @@
       </c>
       <c r="D1718" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16784", "RHOST": "84.102.20.2 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16784", "RHOST": "84.102.20.2"}</t>
         </is>
       </c>
     </row>
@@ -34811,7 +34811,7 @@
       </c>
       <c r="D1719" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16781", "RHOST": "84.102.20.2 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16781", "RHOST": "84.102.20.2"}</t>
         </is>
       </c>
     </row>
@@ -34831,7 +34831,7 @@
       </c>
       <c r="D1720" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16786", "RHOST": "84.102.20.2 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16786", "RHOST": "84.102.20.2"}</t>
         </is>
       </c>
     </row>
@@ -34851,7 +34851,7 @@
       </c>
       <c r="D1721" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16788", "RHOST": "84.102.20.2 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16788", "RHOST": "84.102.20.2"}</t>
         </is>
       </c>
     </row>
@@ -34871,7 +34871,7 @@
       </c>
       <c r="D1722" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16779", "RHOST": "84.102.20.2 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16779", "RHOST": "84.102.20.2"}</t>
         </is>
       </c>
     </row>
@@ -34891,7 +34891,7 @@
       </c>
       <c r="D1723" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16782", "RHOST": "84.102.20.2 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16782", "RHOST": "84.102.20.2"}</t>
         </is>
       </c>
     </row>
@@ -34911,7 +34911,7 @@
       </c>
       <c r="D1724" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16787", "RHOST": "84.102.20.2 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16787", "RHOST": "84.102.20.2"}</t>
         </is>
       </c>
     </row>
@@ -34931,7 +34931,7 @@
       </c>
       <c r="D1725" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16774", "RHOST": "84.102.20.2 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16774", "RHOST": "84.102.20.2"}</t>
         </is>
       </c>
     </row>
@@ -34951,7 +34951,7 @@
       </c>
       <c r="D1726" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16772", "RHOST": "84.102.20.2 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16772", "RHOST": "84.102.20.2"}</t>
         </is>
       </c>
     </row>
@@ -34971,7 +34971,7 @@
       </c>
       <c r="D1727" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16777", "RHOST": "84.102.20.2 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16777", "RHOST": "84.102.20.2"}</t>
         </is>
       </c>
     </row>
@@ -34991,7 +34991,7 @@
       </c>
       <c r="D1728" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16791", "RHOST": "84.102.20.2 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16791", "RHOST": "84.102.20.2"}</t>
         </is>
       </c>
     </row>
@@ -35011,7 +35011,7 @@
       </c>
       <c r="D1729" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16793", "RHOST": "84.102.20.2 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16793", "RHOST": "84.102.20.2"}</t>
         </is>
       </c>
     </row>
@@ -35031,7 +35031,7 @@
       </c>
       <c r="D1730" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16794", "RHOST": "84.102.20.2 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 02:38:22", "HOSTNAME": "combo", "PID": "16794", "RHOST": "84.102.20.2"}</t>
         </is>
       </c>
     </row>
@@ -35051,7 +35051,7 @@
       </c>
       <c r="D1731" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13259", "RHOST": "61.74.96.178 ()"}</t>
+          <t>{"TIMESTAMP": "Jun 29 03:22:22", "HOSTNAME": "combo", "PID": "13259", "RHOST": "61.74.96.178"}</t>
         </is>
       </c>
     </row>
@@ -35071,7 +35071,7 @@
       </c>
       <c r="D1732" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26479", "RHOST": "217.187.83.50 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26479", "RHOST": "217.187.83.50"}</t>
         </is>
       </c>
     </row>
@@ -35091,7 +35091,7 @@
       </c>
       <c r="D1733" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26478", "RHOST": "217.187.83.50 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26478", "RHOST": "217.187.83.50"}</t>
         </is>
       </c>
     </row>
@@ -35111,7 +35111,7 @@
       </c>
       <c r="D1734" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26477", "RHOST": "217.187.83.50 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26477", "RHOST": "217.187.83.50"}</t>
         </is>
       </c>
     </row>
@@ -35131,7 +35131,7 @@
       </c>
       <c r="D1735" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26476", "RHOST": "217.187.83.50 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26476", "RHOST": "217.187.83.50"}</t>
         </is>
       </c>
     </row>
@@ -35151,7 +35151,7 @@
       </c>
       <c r="D1736" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26475", "RHOST": "217.187.83.50 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 23:24:09", "HOSTNAME": "combo", "PID": "26475", "RHOST": "217.187.83.50"}</t>
         </is>
       </c>
     </row>
@@ -35171,7 +35171,7 @@
       </c>
       <c r="D1737" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24959", "RHOST": "206.47.209.10 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24959", "RHOST": "206.47.209.10"}</t>
         </is>
       </c>
     </row>
@@ -35191,7 +35191,7 @@
       </c>
       <c r="D1738" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24969", "RHOST": "206.47.209.10 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24969", "RHOST": "206.47.209.10"}</t>
         </is>
       </c>
     </row>
@@ -35211,7 +35211,7 @@
       </c>
       <c r="D1739" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 13:46:32", "HOSTNAME": "combo", "PID": "22659", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 13:46:32", "HOSTNAME": "combo", "PID": "22659", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -35231,7 +35231,7 @@
       </c>
       <c r="D1740" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 13:46:32", "HOSTNAME": "combo", "PID": "22656", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 13:46:32", "HOSTNAME": "combo", "PID": "22656", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -35251,7 +35251,7 @@
       </c>
       <c r="D1741" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 13:46:32", "HOSTNAME": "combo", "PID": "22651", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 13:46:32", "HOSTNAME": "combo", "PID": "22651", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -35271,7 +35271,7 @@
       </c>
       <c r="D1742" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 13:46:32", "HOSTNAME": "combo", "PID": "22654", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 13:46:32", "HOSTNAME": "combo", "PID": "22654", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -35291,7 +35291,7 @@
       </c>
       <c r="D1743" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 13:46:32", "HOSTNAME": "combo", "PID": "22655", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 13:46:32", "HOSTNAME": "combo", "PID": "22655", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -35311,7 +35311,7 @@
       </c>
       <c r="D1744" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 13:46:34", "HOSTNAME": "combo", "PID": "22665", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 13:46:34", "HOSTNAME": "combo", "PID": "22665", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -35331,7 +35331,7 @@
       </c>
       <c r="D1745" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 13:46:34", "HOSTNAME": "combo", "PID": "22666", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 13:46:34", "HOSTNAME": "combo", "PID": "22666", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -35351,7 +35351,7 @@
       </c>
       <c r="D1746" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 13:46:34", "HOSTNAME": "combo", "PID": "22667", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 13:46:34", "HOSTNAME": "combo", "PID": "22667", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -35371,7 +35371,7 @@
       </c>
       <c r="D1747" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 13:46:34", "HOSTNAME": "combo", "PID": "22664", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 13:46:34", "HOSTNAME": "combo", "PID": "22664", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -35391,7 +35391,7 @@
       </c>
       <c r="D1748" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 13:46:32", "HOSTNAME": "combo", "PID": "22652", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 13:46:32", "HOSTNAME": "combo", "PID": "22652", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -35411,7 +35411,7 @@
       </c>
       <c r="D1749" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 13:46:32", "HOSTNAME": "combo", "PID": "22658", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 13:46:32", "HOSTNAME": "combo", "PID": "22658", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -35431,7 +35431,7 @@
       </c>
       <c r="D1750" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 13:46:32", "HOSTNAME": "combo", "PID": "22653", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 13:46:32", "HOSTNAME": "combo", "PID": "22653", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -35451,7 +35451,7 @@
       </c>
       <c r="D1751" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 13:46:32", "HOSTNAME": "combo", "PID": "22657", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 13:46:32", "HOSTNAME": "combo", "PID": "22657", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -35471,7 +35471,7 @@
       </c>
       <c r="D1752" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24970", "RHOST": "206.47.209.10 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24970", "RHOST": "206.47.209.10"}</t>
         </is>
       </c>
     </row>
@@ -35491,7 +35491,7 @@
       </c>
       <c r="D1753" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24971", "RHOST": "206.47.209.10 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 25 06:39:18", "HOSTNAME": "combo", "PID": "24971", "RHOST": "206.47.209.10"}</t>
         </is>
       </c>
     </row>
@@ -35511,7 +35511,7 @@
       </c>
       <c r="D1754" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 13:46:34", "HOSTNAME": "combo", "PID": "22660", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 13:46:34", "HOSTNAME": "combo", "PID": "22660", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -35531,7 +35531,7 @@
       </c>
       <c r="D1755" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 13:46:34", "HOSTNAME": "combo", "PID": "22661", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 13:46:34", "HOSTNAME": "combo", "PID": "22661", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -35551,7 +35551,7 @@
       </c>
       <c r="D1756" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 13:46:34", "HOSTNAME": "combo", "PID": "22662", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 13:46:34", "HOSTNAME": "combo", "PID": "22662", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -35571,7 +35571,7 @@
       </c>
       <c r="D1757" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 13:46:34", "HOSTNAME": "combo", "PID": "22663", "RHOST": "211.107.232.1 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 24 13:46:34", "HOSTNAME": "combo", "PID": "22663", "RHOST": "211.107.232.1"}</t>
         </is>
       </c>
     </row>
@@ -35591,7 +35591,7 @@
       </c>
       <c r="D1758" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 26 05:47:42", "HOSTNAME": "combo", "PID": "28697", "RHOST": "172.181.208.156 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 26 05:47:42", "HOSTNAME": "combo", "PID": "28697", "RHOST": "172.181.208.156"}</t>
         </is>
       </c>
     </row>
@@ -35611,7 +35611,7 @@
       </c>
       <c r="D1759" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 26 05:47:42", "HOSTNAME": "combo", "PID": "28698", "RHOST": "172.181.208.156 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 26 05:47:42", "HOSTNAME": "combo", "PID": "28698", "RHOST": "172.181.208.156"}</t>
         </is>
       </c>
     </row>
@@ -35631,7 +35631,7 @@
       </c>
       <c r="D1760" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 26 05:47:42", "HOSTNAME": "combo", "PID": "28693", "RHOST": "172.181.208.156 ()"}</t>
+          <t>{"TIMESTAMP": "Jul 26 05:47:42", "HOSTNAME": "combo", "PID": "28693", "RHOST": "172.181.208.156"}</t>
         </is>
       </c>
     </row>
@@ -35643,7 +35643,7 @@
       </c>
       <c r="B1761" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; snmpd[&lt;PID&gt;]: Received SNMP packet(s) from rhost=&lt;RHOST&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; snmpd[&lt;PID&gt;]: Received SNMP packet(s) from &lt;RHOST&gt;</t>
         </is>
       </c>
       <c r="C1761" t="n">
@@ -35651,7 +35651,7 @@
       </c>
       <c r="D1761" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"TIMESTAMP": "Jun 20 04:44:39", "HOSTNAME": "combo", "PID": "2318", "RHOST": "67.170.148.126"}</t>
         </is>
       </c>
     </row>
@@ -35663,7 +35663,7 @@
       </c>
       <c r="B1762" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from rhost=&lt;RHOST&gt; (&lt;RHOST&gt;): Permission denied in replay cache code</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from &lt;RHOST&gt; (&lt;RHOST&gt;): Permission denied in replay cache code</t>
         </is>
       </c>
       <c r="C1762" t="n">
@@ -35671,7 +35671,7 @@
       </c>
       <c r="D1762" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"TIMESTAMP": "Jun 30 20:53:04", "HOSTNAME": "combo", "PID": "19271", "RHOST": "163.27.187.39"}</t>
         </is>
       </c>
     </row>
@@ -35683,7 +35683,7 @@
       </c>
       <c r="B1763" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from rhost=&lt;RHOST&gt; (&lt;RHOST&gt;): Permission denied in replay cache code</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from &lt;RHOST&gt; (&lt;RHOST&gt;): Permission denied in replay cache code</t>
         </is>
       </c>
       <c r="C1763" t="n">
@@ -35691,7 +35691,7 @@
       </c>
       <c r="D1763" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"TIMESTAMP": "Jun 30 20:53:04", "HOSTNAME": "combo", "PID": "19270", "RHOST": "163.27.187.39"}</t>
         </is>
       </c>
     </row>
@@ -35703,7 +35703,7 @@
       </c>
       <c r="B1764" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from rhost=&lt;RHOST&gt; (&lt;RHOST&gt;): Permission denied in replay cache code</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from &lt;RHOST&gt; (&lt;RHOST&gt;): Permission denied in replay cache code</t>
         </is>
       </c>
       <c r="C1764" t="n">
@@ -35711,7 +35711,7 @@
       </c>
       <c r="D1764" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"TIMESTAMP": "Jun 30 20:53:04", "HOSTNAME": "combo", "PID": "19268", "RHOST": "163.27.187.39"}</t>
         </is>
       </c>
     </row>
@@ -35723,7 +35723,7 @@
       </c>
       <c r="B1765" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from rhost=&lt;RHOST&gt; (&lt;RHOST&gt;): Permission denied in replay cache code</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from &lt;RHOST&gt; (&lt;RHOST&gt;): Permission denied in replay cache code</t>
         </is>
       </c>
       <c r="C1765" t="n">
@@ -35731,7 +35731,7 @@
       </c>
       <c r="D1765" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"TIMESTAMP": "Jun 30 20:53:04", "HOSTNAME": "combo", "PID": "19269", "RHOST": "163.27.187.39"}</t>
         </is>
       </c>
     </row>
@@ -35743,7 +35743,7 @@
       </c>
       <c r="B1766" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from rhost=&lt;RHOST&gt; (&lt;RHOST&gt;): Permission denied in replay cache code</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from &lt;RHOST&gt; (&lt;RHOST&gt;): Permission denied in replay cache code</t>
         </is>
       </c>
       <c r="C1766" t="n">
@@ -35751,7 +35751,7 @@
       </c>
       <c r="D1766" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"TIMESTAMP": "Jun 30 20:53:04", "HOSTNAME": "combo", "PID": "19272", "RHOST": "163.27.187.39"}</t>
         </is>
       </c>
     </row>
@@ -35763,7 +35763,7 @@
       </c>
       <c r="B1767" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from rhost=&lt;RHOST&gt; (&lt;RHOST&gt;): Permission denied in replay cache code</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from &lt;RHOST&gt; (&lt;RHOST&gt;): Permission denied in replay cache code</t>
         </is>
       </c>
       <c r="C1767" t="n">
@@ -35771,7 +35771,7 @@
       </c>
       <c r="D1767" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"TIMESTAMP": "Jun 30 20:53:04", "HOSTNAME": "combo", "PID": "19288", "RHOST": "163.27.187.39"}</t>
         </is>
       </c>
     </row>
@@ -35783,7 +35783,7 @@
       </c>
       <c r="B1768" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from rhost=&lt;RHOST&gt; (&lt;RHOST&gt;): Permission denied in replay cache code</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from &lt;RHOST&gt; (&lt;RHOST&gt;): Permission denied in replay cache code</t>
         </is>
       </c>
       <c r="C1768" t="n">
@@ -35791,7 +35791,7 @@
       </c>
       <c r="D1768" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"TIMESTAMP": "Jun 30 20:53:04", "HOSTNAME": "combo", "PID": "19287", "RHOST": "163.27.187.39"}</t>
         </is>
       </c>
     </row>
@@ -35803,7 +35803,7 @@
       </c>
       <c r="B1769" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from rhost=&lt;RHOST&gt; (&lt;RHOST&gt;): Permission denied in replay cache code</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from &lt;RHOST&gt; (&lt;RHOST&gt;): Permission denied in replay cache code</t>
         </is>
       </c>
       <c r="C1769" t="n">
@@ -35811,7 +35811,7 @@
       </c>
       <c r="D1769" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"TIMESTAMP": "Jun 30 20:53:04", "HOSTNAME": "combo", "PID": "19286", "RHOST": "163.27.187.39"}</t>
         </is>
       </c>
     </row>
@@ -36283,7 +36283,7 @@
       </c>
       <c r="B1793" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from rhost=&lt;RHOST&gt; (&lt;RHOST&gt;): Software caused connection abort</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from &lt;RHOST&gt; (&lt;RHOST&gt;): Software caused connection abort</t>
         </is>
       </c>
       <c r="C1793" t="n">
@@ -36291,7 +36291,7 @@
       </c>
       <c r="D1793" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"TIMESTAMP": "Jun 30 20:53:06", "HOSTNAME": "combo", "PID": "19266", "RHOST": "163.27.187.39"}</t>
         </is>
       </c>
     </row>
@@ -36303,7 +36303,7 @@
       </c>
       <c r="B1794" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from rhost=&lt;RHOST&gt; (&lt;RHOST&gt;): Software caused connection abort</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from &lt;RHOST&gt; (&lt;RHOST&gt;): Software caused connection abort</t>
         </is>
       </c>
       <c r="C1794" t="n">
@@ -36311,7 +36311,7 @@
       </c>
       <c r="D1794" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"TIMESTAMP": "Jun 30 20:53:04", "HOSTNAME": "combo", "PID": "19274", "RHOST": "163.27.187.39"}</t>
         </is>
       </c>
     </row>
@@ -36323,7 +36323,7 @@
       </c>
       <c r="B1795" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from rhost=&lt;RHOST&gt; (&lt;RHOST&gt;): Software caused connection abort</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from &lt;RHOST&gt; (&lt;RHOST&gt;): Software caused connection abort</t>
         </is>
       </c>
       <c r="C1795" t="n">
@@ -36331,7 +36331,7 @@
       </c>
       <c r="D1795" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"TIMESTAMP": "Jun 30 20:53:06", "HOSTNAME": "combo", "PID": "19276", "RHOST": "163.27.187.39"}</t>
         </is>
       </c>
     </row>
@@ -36343,7 +36343,7 @@
       </c>
       <c r="B1796" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from rhost=&lt;RHOST&gt; (&lt;RHOST&gt;): Software caused connection abort</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from &lt;RHOST&gt; (&lt;RHOST&gt;): Software caused connection abort</t>
         </is>
       </c>
       <c r="C1796" t="n">
@@ -36351,7 +36351,7 @@
       </c>
       <c r="D1796" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"TIMESTAMP": "Jun 30 20:53:06", "HOSTNAME": "combo", "PID": "19279", "RHOST": "163.27.187.39"}</t>
         </is>
       </c>
     </row>
@@ -36363,7 +36363,7 @@
       </c>
       <c r="B1797" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from rhost=&lt;RHOST&gt; (&lt;RHOST&gt;): Software caused connection abort</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from &lt;RHOST&gt; (&lt;RHOST&gt;): Software caused connection abort</t>
         </is>
       </c>
       <c r="C1797" t="n">
@@ -36371,7 +36371,7 @@
       </c>
       <c r="D1797" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"TIMESTAMP": "Jun 30 20:53:06", "HOSTNAME": "combo", "PID": "19275", "RHOST": "163.27.187.39"}</t>
         </is>
       </c>
     </row>
@@ -36383,7 +36383,7 @@
       </c>
       <c r="B1798" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from rhost=&lt;RHOST&gt; (&lt;RHOST&gt;): Software caused connection abort</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from &lt;RHOST&gt; (&lt;RHOST&gt;): Software caused connection abort</t>
         </is>
       </c>
       <c r="C1798" t="n">
@@ -36391,7 +36391,7 @@
       </c>
       <c r="D1798" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"TIMESTAMP": "Jun 30 20:53:06", "HOSTNAME": "combo", "PID": "19267", "RHOST": "163.27.187.39"}</t>
         </is>
       </c>
     </row>
@@ -36403,7 +36403,7 @@
       </c>
       <c r="B1799" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from rhost=&lt;RHOST&gt; (&lt;RHOST&gt;): Software caused connection abort</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from &lt;RHOST&gt; (&lt;RHOST&gt;): Software caused connection abort</t>
         </is>
       </c>
       <c r="C1799" t="n">
@@ -36411,7 +36411,7 @@
       </c>
       <c r="D1799" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"TIMESTAMP": "Jun 30 20:53:06", "HOSTNAME": "combo", "PID": "19277", "RHOST": "163.27.187.39"}</t>
         </is>
       </c>
     </row>
@@ -36423,7 +36423,7 @@
       </c>
       <c r="B1800" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from rhost=&lt;RHOST&gt; (&lt;RHOST&gt;): Software caused connection abort</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from &lt;RHOST&gt; (&lt;RHOST&gt;): Software caused connection abort</t>
         </is>
       </c>
       <c r="C1800" t="n">
@@ -36431,7 +36431,7 @@
       </c>
       <c r="D1800" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"TIMESTAMP": "Jun 30 20:53:06", "HOSTNAME": "combo", "PID": "19281", "RHOST": "163.27.187.39"}</t>
         </is>
       </c>
     </row>
@@ -36443,7 +36443,7 @@
       </c>
       <c r="B1801" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from rhost=&lt;RHOST&gt; (&lt;RHOST&gt;): Software caused connection abort</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from &lt;RHOST&gt; (&lt;RHOST&gt;): Software caused connection abort</t>
         </is>
       </c>
       <c r="C1801" t="n">
@@ -36451,7 +36451,7 @@
       </c>
       <c r="D1801" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"TIMESTAMP": "Jun 30 20:53:06", "HOSTNAME": "combo", "PID": "19282", "RHOST": "163.27.187.39"}</t>
         </is>
       </c>
     </row>
@@ -36463,7 +36463,7 @@
       </c>
       <c r="B1802" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from rhost=&lt;RHOST&gt; (&lt;RHOST&gt;): Software caused connection abort</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from &lt;RHOST&gt; (&lt;RHOST&gt;): Software caused connection abort</t>
         </is>
       </c>
       <c r="C1802" t="n">
@@ -36471,7 +36471,7 @@
       </c>
       <c r="D1802" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"TIMESTAMP": "Jun 30 20:53:06", "HOSTNAME": "combo", "PID": "19285", "RHOST": "163.27.187.39"}</t>
         </is>
       </c>
     </row>
@@ -36483,7 +36483,7 @@
       </c>
       <c r="B1803" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from rhost=&lt;RHOST&gt; (&lt;RHOST&gt;): Software caused connection abort</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from &lt;RHOST&gt; (&lt;RHOST&gt;): Software caused connection abort</t>
         </is>
       </c>
       <c r="C1803" t="n">
@@ -36491,7 +36491,7 @@
       </c>
       <c r="D1803" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"TIMESTAMP": "Jun 30 20:53:06", "HOSTNAME": "combo", "PID": "19283", "RHOST": "163.27.187.39"}</t>
         </is>
       </c>
     </row>
@@ -36503,7 +36503,7 @@
       </c>
       <c r="B1804" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from rhost=&lt;RHOST&gt; (&lt;RHOST&gt;): Software caused connection abort</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from &lt;RHOST&gt; (&lt;RHOST&gt;): Software caused connection abort</t>
         </is>
       </c>
       <c r="C1804" t="n">
@@ -36511,7 +36511,7 @@
       </c>
       <c r="D1804" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"TIMESTAMP": "Jun 30 20:53:06", "HOSTNAME": "combo", "PID": "19284", "RHOST": "163.27.187.39"}</t>
         </is>
       </c>
     </row>
@@ -36523,7 +36523,7 @@
       </c>
       <c r="B1805" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from rhost=&lt;RHOST&gt; (&lt;RHOST&gt;): Software caused connection abort</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from &lt;RHOST&gt; (&lt;RHOST&gt;): Software caused connection abort</t>
         </is>
       </c>
       <c r="C1805" t="n">
@@ -36531,7 +36531,7 @@
       </c>
       <c r="D1805" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"TIMESTAMP": "Jun 30 20:53:06", "HOSTNAME": "combo", "PID": "19273", "RHOST": "163.27.187.39"}</t>
         </is>
       </c>
     </row>
@@ -36543,7 +36543,7 @@
       </c>
       <c r="B1806" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from rhost=&lt;RHOST&gt; (&lt;RHOST&gt;): Software caused connection abort</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from &lt;RHOST&gt; (&lt;RHOST&gt;): Software caused connection abort</t>
         </is>
       </c>
       <c r="C1806" t="n">
@@ -36551,7 +36551,7 @@
       </c>
       <c r="D1806" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"TIMESTAMP": "Jun 30 20:53:06", "HOSTNAME": "combo", "PID": "19278", "RHOST": "163.27.187.39"}</t>
         </is>
       </c>
     </row>
@@ -36563,7 +36563,7 @@
       </c>
       <c r="B1807" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from rhost=&lt;RHOST&gt; (&lt;RHOST&gt;): Software caused connection abort</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from &lt;RHOST&gt; (&lt;RHOST&gt;): Software caused connection abort</t>
         </is>
       </c>
       <c r="C1807" t="n">
@@ -36571,7 +36571,7 @@
       </c>
       <c r="D1807" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"TIMESTAMP": "Jun 30 20:53:06", "HOSTNAME": "combo", "PID": "19280", "RHOST": "163.27.187.39"}</t>
         </is>
       </c>
     </row>
@@ -36583,7 +36583,7 @@
       </c>
       <c r="B1808" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; login(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; login(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by LOGIN(uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1808" t="n">
@@ -36591,7 +36591,7 @@
       </c>
       <c r="D1808" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"TIMESTAMP": "Jul  7 08:06:15", "HOSTNAME": "combo", "PID": "2421", "USERNAME": "root", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -36611,7 +36611,7 @@
       </c>
       <c r="D1809" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"TIMESTAMP": "Jul  7 08:06:15", "HOSTNAME": "combo", "PID": "2421"}</t>
         </is>
       </c>
     </row>
@@ -36743,7 +36743,7 @@
       </c>
       <c r="B1816" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; ftpd[&lt;PID&gt;]: getpeername (&lt;RHOST&gt;): Transport endpoint is not connected</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; ftpd[&lt;PID&gt;]: getpeername (ftpd): Transport endpoint is not connected</t>
         </is>
       </c>
       <c r="C1816" t="n">
@@ -36751,7 +36751,7 @@
       </c>
       <c r="D1816" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 23:23:13", "HOSTNAME": "combo", "PID": "26482", "RHOST": "ftpd"}</t>
+          <t>{"TIMESTAMP": "Jul 25 23:23:13", "HOSTNAME": "combo", "PID": "26482"}</t>
         </is>
       </c>
     </row>
@@ -36763,7 +36763,7 @@
       </c>
       <c r="B1817" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; ftpd[&lt;PID&gt;]: getpeername (&lt;RHOST&gt;): Transport endpoint is not connected</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; ftpd[&lt;PID&gt;]: getpeername (ftpd): Transport endpoint is not connected</t>
         </is>
       </c>
       <c r="C1817" t="n">
@@ -36771,7 +36771,7 @@
       </c>
       <c r="D1817" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 23:23:13", "HOSTNAME": "combo", "PID": "26463", "RHOST": "ftpd"}</t>
+          <t>{"TIMESTAMP": "Jul 25 23:23:13", "HOSTNAME": "combo", "PID": "26463"}</t>
         </is>
       </c>
     </row>
@@ -36783,7 +36783,7 @@
       </c>
       <c r="B1818" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; ftpd[&lt;PID&gt;]: getpeername (&lt;RHOST&gt;): Transport endpoint is not connected</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; ftpd[&lt;PID&gt;]: getpeername (ftpd): Transport endpoint is not connected</t>
         </is>
       </c>
       <c r="C1818" t="n">
@@ -36791,7 +36791,7 @@
       </c>
       <c r="D1818" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 23:23:13", "HOSTNAME": "combo", "PID": "26466", "RHOST": "ftpd"}</t>
+          <t>{"TIMESTAMP": "Jul 25 23:23:13", "HOSTNAME": "combo", "PID": "26466"}</t>
         </is>
       </c>
     </row>
@@ -36803,7 +36803,7 @@
       </c>
       <c r="B1819" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; ftpd[&lt;PID&gt;]: getpeername (&lt;RHOST&gt;): Transport endpoint is not connected</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; ftpd[&lt;PID&gt;]: getpeername (ftpd): Transport endpoint is not connected</t>
         </is>
       </c>
       <c r="C1819" t="n">
@@ -36811,7 +36811,7 @@
       </c>
       <c r="D1819" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 23:23:13", "HOSTNAME": "combo", "PID": "26484", "RHOST": "ftpd"}</t>
+          <t>{"TIMESTAMP": "Jul 25 23:23:13", "HOSTNAME": "combo", "PID": "26484"}</t>
         </is>
       </c>
     </row>

--- a/Linux_2k_clean_analysis.xlsx
+++ b/Linux_2k_clean_analysis.xlsx
@@ -12563,7 +12563,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C607" t="n">
@@ -12571,7 +12571,7 @@
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 15 04:06:18", "HOSTNAME": "combo", "PID": "21416", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jun 15 04:06:18", "HOSTNAME": "combo", "PID": "21416", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -12583,7 +12583,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C608" t="n">
@@ -12591,7 +12591,7 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 27 04:21:39", "HOSTNAME": "combo", "PID": "31373", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul 27 04:21:39", "HOSTNAME": "combo", "PID": "31373", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -12603,7 +12603,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C609" t="n">
@@ -12611,7 +12611,7 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 15 04:12:42", "HOSTNAME": "combo", "PID": "22644", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jun 15 04:12:42", "HOSTNAME": "combo", "PID": "22644", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -12623,7 +12623,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C610" t="n">
@@ -12631,7 +12631,7 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 27 04:16:07", "HOSTNAME": "combo", "PID": "30999", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul 27 04:16:07", "HOSTNAME": "combo", "PID": "30999", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -12643,7 +12643,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C611" t="n">
@@ -12651,7 +12651,7 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 18 04:03:24", "HOSTNAME": "combo", "PID": "26046", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul 18 04:03:24", "HOSTNAME": "combo", "PID": "26046", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -12663,7 +12663,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C612" t="n">
@@ -12671,7 +12671,7 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 18 04:09:29", "HOSTNAME": "combo", "PID": "27272", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul 18 04:09:29", "HOSTNAME": "combo", "PID": "27272", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -12683,7 +12683,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C613" t="n">
@@ -12691,7 +12691,7 @@
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 24 04:05:34", "HOSTNAME": "combo", "PID": "26938", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jun 24 04:05:34", "HOSTNAME": "combo", "PID": "26938", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -12703,7 +12703,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C614" t="n">
@@ -12711,7 +12711,7 @@
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 24 04:11:12", "HOSTNAME": "combo", "PID": "27311", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jun 24 04:11:12", "HOSTNAME": "combo", "PID": "27311", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -12723,7 +12723,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C615" t="n">
@@ -12731,7 +12731,7 @@
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 25 04:04:25", "HOSTNAME": "combo", "PID": "29690", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jun 25 04:04:25", "HOSTNAME": "combo", "PID": "29690", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -12743,7 +12743,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C616" t="n">
@@ -12751,7 +12751,7 @@
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 25 04:10:34", "HOSTNAME": "combo", "PID": "30934", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jun 25 04:10:34", "HOSTNAME": "combo", "PID": "30934", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -12763,7 +12763,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C617" t="n">
@@ -12771,7 +12771,7 @@
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  3 04:14:00", "HOSTNAME": "combo", "PID": "28416", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul  3 04:14:00", "HOSTNAME": "combo", "PID": "28416", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -12783,7 +12783,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C618" t="n">
@@ -12791,7 +12791,7 @@
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 17 04:08:08", "HOSTNAME": "combo", "PID": "19686", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul 17 04:08:08", "HOSTNAME": "combo", "PID": "19686", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -12803,7 +12803,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C619" t="n">
@@ -12811,7 +12811,7 @@
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 17 04:13:57", "HOSTNAME": "combo", "PID": "20282", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul 17 04:13:57", "HOSTNAME": "combo", "PID": "20282", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -12823,7 +12823,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C620" t="n">
@@ -12831,7 +12831,7 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 23 04:05:28", "HOSTNAME": "combo", "PID": "19534", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jun 23 04:05:28", "HOSTNAME": "combo", "PID": "19534", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -12843,7 +12843,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C621" t="n">
@@ -12851,7 +12851,7 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 23 04:13:08", "HOSTNAME": "combo", "PID": "24180", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jun 23 04:13:08", "HOSTNAME": "combo", "PID": "24180", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -12863,7 +12863,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C622" t="n">
@@ -12871,7 +12871,7 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 13 04:10:41", "HOSTNAME": "combo", "PID": "6863", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul 13 04:10:41", "HOSTNAME": "combo", "PID": "6863", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -12883,7 +12883,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C623" t="n">
@@ -12891,7 +12891,7 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 14 04:08:24", "HOSTNAME": "combo", "PID": "9355", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul 14 04:08:24", "HOSTNAME": "combo", "PID": "9355", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -12903,7 +12903,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C624" t="n">
@@ -12911,7 +12911,7 @@
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 14 04:14:38", "HOSTNAME": "combo", "PID": "10583", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul 14 04:14:38", "HOSTNAME": "combo", "PID": "10583", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -12923,7 +12923,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C625" t="n">
@@ -12931,7 +12931,7 @@
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 15 04:05:02", "HOSTNAME": "combo", "PID": "13238", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul 15 04:05:02", "HOSTNAME": "combo", "PID": "13238", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -12943,7 +12943,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C626" t="n">
@@ -12951,7 +12951,7 @@
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 15 04:10:45", "HOSTNAME": "combo", "PID": "13611", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul 15 04:10:45", "HOSTNAME": "combo", "PID": "13611", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -12963,7 +12963,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C627" t="n">
@@ -12971,7 +12971,7 @@
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 16 04:07:32", "HOSTNAME": "combo", "PID": "16058", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul 16 04:07:32", "HOSTNAME": "combo", "PID": "16058", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -12983,7 +12983,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C628" t="n">
@@ -12991,7 +12991,7 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 16 04:13:59", "HOSTNAME": "combo", "PID": "17286", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul 16 04:13:59", "HOSTNAME": "combo", "PID": "17286", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13003,7 +13003,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C629" t="n">
@@ -13011,7 +13011,7 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 28 04:03:15", "HOSTNAME": "combo", "PID": "10735", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jun 28 04:03:15", "HOSTNAME": "combo", "PID": "10735", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13023,7 +13023,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C630" t="n">
@@ -13031,7 +13031,7 @@
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 28 04:09:00", "HOSTNAME": "combo", "PID": "11106", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jun 28 04:09:00", "HOSTNAME": "combo", "PID": "11106", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13043,7 +13043,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C631" t="n">
@@ -13051,7 +13051,7 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 26 04:04:17", "HOSTNAME": "combo", "PID": "945", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jun 26 04:04:17", "HOSTNAME": "combo", "PID": "945", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13063,7 +13063,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C632" t="n">
@@ -13071,7 +13071,7 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 26 04:10:02", "HOSTNAME": "combo", "PID": "1546", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jun 26 04:10:02", "HOSTNAME": "combo", "PID": "1546", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13083,7 +13083,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C633" t="n">
@@ -13091,7 +13091,7 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 27 04:02:47", "HOSTNAME": "combo", "PID": "7031", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jun 27 04:02:47", "HOSTNAME": "combo", "PID": "7031", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13103,7 +13103,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C634" t="n">
@@ -13111,7 +13111,7 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 27 04:08:56", "HOSTNAME": "combo", "PID": "8269", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jun 27 04:08:56", "HOSTNAME": "combo", "PID": "8269", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13123,7 +13123,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C635" t="n">
@@ -13131,7 +13131,7 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 12 04:03:40", "HOSTNAME": "combo", "PID": "2605", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul 12 04:03:40", "HOSTNAME": "combo", "PID": "2605", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13143,7 +13143,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C636" t="n">
@@ -13151,7 +13151,7 @@
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 12 04:09:49", "HOSTNAME": "combo", "PID": "3833", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul 12 04:09:49", "HOSTNAME": "combo", "PID": "3833", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13163,7 +13163,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C637" t="n">
@@ -13171,7 +13171,7 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 13 04:04:44", "HOSTNAME": "combo", "PID": "6486", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul 13 04:04:44", "HOSTNAME": "combo", "PID": "6486", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13183,7 +13183,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C638" t="n">
@@ -13191,7 +13191,7 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 11 04:03:03", "HOSTNAME": "combo", "PID": "32237", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul 11 04:03:03", "HOSTNAME": "combo", "PID": "32237", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13203,7 +13203,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C639" t="n">
@@ -13211,7 +13211,7 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 11 04:08:37", "HOSTNAME": "combo", "PID": "32608", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul 11 04:08:37", "HOSTNAME": "combo", "PID": "32608", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13223,7 +13223,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C640" t="n">
@@ -13231,7 +13231,7 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 22 04:11:42", "HOSTNAME": "combo", "PID": "17037", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jun 22 04:11:42", "HOSTNAME": "combo", "PID": "17037", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13243,7 +13243,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C641" t="n">
@@ -13251,7 +13251,7 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 22 04:05:58", "HOSTNAME": "combo", "PID": "16663", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jun 22 04:05:58", "HOSTNAME": "combo", "PID": "16663", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13263,7 +13263,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C642" t="n">
@@ -13271,7 +13271,7 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 04:03:10", "HOSTNAME": "combo", "PID": "13665", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jun 29 04:03:10", "HOSTNAME": "combo", "PID": "13665", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13283,7 +13283,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C643" t="n">
@@ -13291,7 +13291,7 @@
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 04:09:29", "HOSTNAME": "combo", "PID": "14891", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jun 29 04:09:29", "HOSTNAME": "combo", "PID": "14891", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13303,7 +13303,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C644" t="n">
@@ -13311,7 +13311,7 @@
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  6 04:03:08", "HOSTNAME": "combo", "PID": "8195", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul  6 04:03:08", "HOSTNAME": "combo", "PID": "8195", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13323,7 +13323,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C645" t="n">
@@ -13331,7 +13331,7 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 18 04:07:05", "HOSTNAME": "combo", "PID": "31791", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jun 18 04:07:05", "HOSTNAME": "combo", "PID": "31791", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13343,7 +13343,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C646" t="n">
@@ -13351,7 +13351,7 @@
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 18 04:12:42", "HOSTNAME": "combo", "PID": "32164", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jun 18 04:12:42", "HOSTNAME": "combo", "PID": "32164", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13363,7 +13363,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C647" t="n">
@@ -13371,7 +13371,7 @@
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 19 04:08:55", "HOSTNAME": "combo", "PID": "2192", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jun 19 04:08:55", "HOSTNAME": "combo", "PID": "2192", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13383,7 +13383,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C648" t="n">
@@ -13391,7 +13391,7 @@
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 23 04:09:35", "HOSTNAME": "combo", "PID": "14314", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul 23 04:09:35", "HOSTNAME": "combo", "PID": "14314", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13403,7 +13403,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C649" t="n">
@@ -13411,7 +13411,7 @@
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 23 04:15:13", "HOSTNAME": "combo", "PID": "14692", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul 23 04:15:13", "HOSTNAME": "combo", "PID": "14692", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13423,7 +13423,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C650" t="n">
@@ -13431,7 +13431,7 @@
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  6 04:08:43", "HOSTNAME": "combo", "PID": "8565", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul  6 04:08:43", "HOSTNAME": "combo", "PID": "8565", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13443,7 +13443,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C651" t="n">
@@ -13451,7 +13451,7 @@
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 04:05:17", "HOSTNAME": "combo", "PID": "20298", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul  1 04:05:17", "HOSTNAME": "combo", "PID": "20298", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13463,7 +13463,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C652" t="n">
@@ -13471,7 +13471,7 @@
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  3 04:07:47", "HOSTNAME": "combo", "PID": "26964", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul  3 04:07:47", "HOSTNAME": "combo", "PID": "26964", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13483,7 +13483,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C653" t="n">
@@ -13491,7 +13491,7 @@
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 04:11:35", "HOSTNAME": "combo", "PID": "21530", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul  1 04:11:35", "HOSTNAME": "combo", "PID": "21530", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13503,7 +13503,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C654" t="n">
@@ -13511,7 +13511,7 @@
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  2 04:04:02", "HOSTNAME": "combo", "PID": "24117", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul  2 04:04:02", "HOSTNAME": "combo", "PID": "24117", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13523,7 +13523,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C655" t="n">
@@ -13531,7 +13531,7 @@
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  2 04:09:53", "HOSTNAME": "combo", "PID": "24511", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul  2 04:09:53", "HOSTNAME": "combo", "PID": "24511", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13543,7 +13543,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C656" t="n">
@@ -13551,7 +13551,7 @@
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 04:04:31", "HOSTNAME": "combo", "PID": "24898", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul 10 04:04:31", "HOSTNAME": "combo", "PID": "24898", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13563,7 +13563,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C657" t="n">
@@ -13571,7 +13571,7 @@
       </c>
       <c r="D657" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 04:03:58", "HOSTNAME": "combo", "PID": "24312", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul 25 04:03:58", "HOSTNAME": "combo", "PID": "24312", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13583,7 +13583,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C658" t="n">
@@ -13591,7 +13591,7 @@
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 04:09:32", "HOSTNAME": "combo", "PID": "24683", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul 25 04:09:32", "HOSTNAME": "combo", "PID": "24683", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13603,7 +13603,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C659" t="n">
@@ -13611,7 +13611,7 @@
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 04:10:47", "HOSTNAME": "combo", "PID": "26353", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul 10 04:10:47", "HOSTNAME": "combo", "PID": "26353", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13623,7 +13623,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C660" t="n">
@@ -13631,7 +13631,7 @@
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 21 04:06:57", "HOSTNAME": "combo", "PID": "12098", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jun 21 04:06:57", "HOSTNAME": "combo", "PID": "12098", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13643,7 +13643,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C661" t="n">
@@ -13651,7 +13651,7 @@
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  4 04:03:06", "HOSTNAME": "combo", "PID": "1583", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul  4 04:03:06", "HOSTNAME": "combo", "PID": "1583", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13663,7 +13663,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C662" t="n">
@@ -13671,7 +13671,7 @@
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  4 04:08:48", "HOSTNAME": "combo", "PID": "1965", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul  4 04:08:48", "HOSTNAME": "combo", "PID": "1965", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13683,7 +13683,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C663" t="n">
@@ -13691,7 +13691,7 @@
       </c>
       <c r="D663" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 21 04:13:03", "HOSTNAME": "combo", "PID": "13327", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jun 21 04:13:03", "HOSTNAME": "combo", "PID": "13327", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13703,7 +13703,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C664" t="n">
@@ -13711,7 +13711,7 @@
       </c>
       <c r="D664" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 04:20:19", "HOSTNAME": "combo", "PID": "17283", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul 24 04:20:19", "HOSTNAME": "combo", "PID": "17283", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13723,7 +13723,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C665" t="n">
@@ -13731,7 +13731,7 @@
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 26 04:05:22", "HOSTNAME": "combo", "PID": "27285", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul 26 04:05:22", "HOSTNAME": "combo", "PID": "27285", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13743,7 +13743,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C666" t="n">
@@ -13751,7 +13751,7 @@
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 26 04:11:23", "HOSTNAME": "combo", "PID": "28514", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul 26 04:11:23", "HOSTNAME": "combo", "PID": "28514", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13763,7 +13763,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C667" t="n">
@@ -13771,7 +13771,7 @@
       </c>
       <c r="D667" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 04:33:57", "HOSTNAME": "combo", "PID": "21805", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul 24 04:33:57", "HOSTNAME": "combo", "PID": "21805", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13783,7 +13783,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C668" t="n">
@@ -13791,7 +13791,7 @@
       </c>
       <c r="D668" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 04:04:31", "HOSTNAME": "combo", "PID": "10961", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul  7 04:04:31", "HOSTNAME": "combo", "PID": "10961", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13803,7 +13803,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C669" t="n">
@@ -13811,7 +13811,7 @@
       </c>
       <c r="D669" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 04:10:44", "HOSTNAME": "combo", "PID": "12193", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul  7 04:10:44", "HOSTNAME": "combo", "PID": "12193", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13823,7 +13823,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C670" t="n">
@@ -13831,7 +13831,7 @@
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 30 04:03:41", "HOSTNAME": "combo", "PID": "17407", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jun 30 04:03:41", "HOSTNAME": "combo", "PID": "17407", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13843,7 +13843,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C671" t="n">
@@ -13851,7 +13851,7 @@
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  5 04:09:29", "HOSTNAME": "combo", "PID": "5699", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul  5 04:09:29", "HOSTNAME": "combo", "PID": "5699", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13863,7 +13863,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C672" t="n">
@@ -13871,7 +13871,7 @@
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 19 04:03:43", "HOSTNAME": "combo", "PID": "29758", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul 19 04:03:43", "HOSTNAME": "combo", "PID": "29758", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13883,7 +13883,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C673" t="n">
@@ -13891,7 +13891,7 @@
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 16 04:10:22", "HOSTNAME": "combo", "PID": "25178", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jun 16 04:10:22", "HOSTNAME": "combo", "PID": "25178", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13903,7 +13903,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C674" t="n">
@@ -13911,7 +13911,7 @@
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 16 04:16:17", "HOSTNAME": "combo", "PID": "25548", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jun 16 04:16:17", "HOSTNAME": "combo", "PID": "25548", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13923,7 +13923,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C675" t="n">
@@ -13931,7 +13931,7 @@
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 19 04:09:28", "HOSTNAME": "combo", "PID": "30128", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul 19 04:09:28", "HOSTNAME": "combo", "PID": "30128", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13943,7 +13943,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C676" t="n">
@@ -13951,7 +13951,7 @@
       </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 17 04:09:43", "HOSTNAME": "combo", "PID": "29190", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jun 17 04:09:43", "HOSTNAME": "combo", "PID": "29190", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13963,7 +13963,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C677" t="n">
@@ -13971,7 +13971,7 @@
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 20 04:02:54", "HOSTNAME": "combo", "PID": "9187", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jun 20 04:02:54", "HOSTNAME": "combo", "PID": "9187", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -13983,7 +13983,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C678" t="n">
@@ -13991,7 +13991,7 @@
       </c>
       <c r="D678" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 20 04:08:37", "HOSTNAME": "combo", "PID": "9558", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jun 20 04:08:37", "HOSTNAME": "combo", "PID": "9558", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -14003,7 +14003,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C679" t="n">
@@ -14011,7 +14011,7 @@
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  8 04:04:19", "HOSTNAME": "combo", "PID": "14943", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul  8 04:04:19", "HOSTNAME": "combo", "PID": "14943", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -14023,7 +14023,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C680" t="n">
@@ -14031,7 +14031,7 @@
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  8 04:12:07", "HOSTNAME": "combo", "PID": "19593", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul  8 04:12:07", "HOSTNAME": "combo", "PID": "19593", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -14043,7 +14043,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C681" t="n">
@@ -14051,7 +14051,7 @@
       </c>
       <c r="D681" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 20 04:05:02", "HOSTNAME": "combo", "PID": "363", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul 20 04:05:02", "HOSTNAME": "combo", "PID": "363", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -14063,7 +14063,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C682" t="n">
@@ -14071,7 +14071,7 @@
       </c>
       <c r="D682" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  5 04:03:16", "HOSTNAME": "combo", "PID": "4474", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul  5 04:03:16", "HOSTNAME": "combo", "PID": "4474", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -14083,7 +14083,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C683" t="n">
@@ -14091,7 +14091,7 @@
       </c>
       <c r="D683" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 19 04:15:18", "HOSTNAME": "combo", "PID": "3676", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jun 19 04:15:18", "HOSTNAME": "combo", "PID": "3676", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -14103,7 +14103,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C684" t="n">
@@ -14111,7 +14111,7 @@
       </c>
       <c r="D684" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 20 04:11:27", "HOSTNAME": "combo", "PID": "1595", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul 20 04:11:27", "HOSTNAME": "combo", "PID": "1595", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -14123,7 +14123,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C685" t="n">
@@ -14131,7 +14131,7 @@
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 30 04:09:30", "HOSTNAME": "combo", "PID": "17778", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jun 30 04:09:30", "HOSTNAME": "combo", "PID": "17778", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -14143,7 +14143,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C686" t="n">
@@ -14151,7 +14151,7 @@
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 04:07:46", "HOSTNAME": "combo", "PID": "7106", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul 22 04:07:46", "HOSTNAME": "combo", "PID": "7106", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -14163,7 +14163,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C687" t="n">
@@ -14171,7 +14171,7 @@
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 04:15:14", "HOSTNAME": "combo", "PID": "11756", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul 22 04:15:14", "HOSTNAME": "combo", "PID": "11756", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -14183,7 +14183,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C688" t="n">
@@ -14191,7 +14191,7 @@
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 21 04:11:26", "HOSTNAME": "combo", "PID": "4170", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul 21 04:11:26", "HOSTNAME": "combo", "PID": "4170", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -14203,7 +14203,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C689" t="n">
@@ -14211,7 +14211,7 @@
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 04:04:23", "HOSTNAME": "combo", "PID": "21991", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul  9 04:04:23", "HOSTNAME": "combo", "PID": "21991", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -14223,7 +14223,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C690" t="n">
@@ -14231,7 +14231,7 @@
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 04:10:11", "HOSTNAME": "combo", "PID": "22368", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul  9 04:10:11", "HOSTNAME": "combo", "PID": "22368", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -14243,7 +14243,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C691" t="n">
@@ -14251,7 +14251,7 @@
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 21 04:16:55", "HOSTNAME": "combo", "PID": "4540", "USERNAME": "news", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul 21 04:16:55", "HOSTNAME": "combo", "PID": "4540", "STATE": "opened", "USERNAME": "news", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -14263,7 +14263,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C692" t="n">
@@ -14271,7 +14271,7 @@
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 17 04:03:33", "HOSTNAME": "combo", "PID": "27953", "USERNAME": "cyrus", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jun 17 04:03:33", "HOSTNAME": "combo", "PID": "27953", "STATE": "opened", "USERNAME": "cyrus", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -14283,7 +14283,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C693" t="n">
@@ -14291,7 +14291,7 @@
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 15 04:06:19", "HOSTNAME": "combo", "PID": "21416", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jun 15 04:06:19", "HOSTNAME": "combo", "PID": "21416", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -14303,7 +14303,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C694" t="n">
@@ -14311,7 +14311,7 @@
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 27 04:21:40", "HOSTNAME": "combo", "PID": "31373", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jul 27 04:21:40", "HOSTNAME": "combo", "PID": "31373", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -14323,7 +14323,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C695" t="n">
@@ -14331,7 +14331,7 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 15 04:12:43", "HOSTNAME": "combo", "PID": "22644", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jun 15 04:12:43", "HOSTNAME": "combo", "PID": "22644", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -14343,7 +14343,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C696" t="n">
@@ -14351,7 +14351,7 @@
       </c>
       <c r="D696" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  4 04:03:07", "HOSTNAME": "combo", "PID": "1583", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jul  4 04:03:07", "HOSTNAME": "combo", "PID": "1583", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -14363,7 +14363,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C697" t="n">
@@ -14371,7 +14371,7 @@
       </c>
       <c r="D697" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  4 04:08:49", "HOSTNAME": "combo", "PID": "1965", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jul  4 04:08:49", "HOSTNAME": "combo", "PID": "1965", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -14383,7 +14383,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C698" t="n">
@@ -14391,7 +14391,7 @@
       </c>
       <c r="D698" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  5 04:03:17", "HOSTNAME": "combo", "PID": "4474", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jul  5 04:03:17", "HOSTNAME": "combo", "PID": "4474", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -14403,7 +14403,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C699" t="n">
@@ -14411,7 +14411,7 @@
       </c>
       <c r="D699" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 14 04:14:39", "HOSTNAME": "combo", "PID": "10583", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jul 14 04:14:39", "HOSTNAME": "combo", "PID": "10583", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -14423,7 +14423,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C700" t="n">
@@ -14431,7 +14431,7 @@
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 14 04:08:25", "HOSTNAME": "combo", "PID": "9355", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jul 14 04:08:25", "HOSTNAME": "combo", "PID": "9355", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -14443,7 +14443,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C701" t="n">
@@ -14451,7 +14451,7 @@
       </c>
       <c r="D701" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 13 04:04:45", "HOSTNAME": "combo", "PID": "6486", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jul 13 04:04:45", "HOSTNAME": "combo", "PID": "6486", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -14463,7 +14463,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C702" t="n">
@@ -14471,7 +14471,7 @@
       </c>
       <c r="D702" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 13 04:10:41", "HOSTNAME": "combo", "PID": "6863", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jul 13 04:10:41", "HOSTNAME": "combo", "PID": "6863", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -14483,7 +14483,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C703" t="n">
@@ -14491,7 +14491,7 @@
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 12 04:09:50", "HOSTNAME": "combo", "PID": "3833", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jul 12 04:09:50", "HOSTNAME": "combo", "PID": "3833", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -14503,7 +14503,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C704" t="n">
@@ -14511,7 +14511,7 @@
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 12 04:03:41", "HOSTNAME": "combo", "PID": "2605", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jul 12 04:03:41", "HOSTNAME": "combo", "PID": "2605", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -14523,7 +14523,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C705" t="n">
@@ -14531,7 +14531,7 @@
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 11 04:03:04", "HOSTNAME": "combo", "PID": "32237", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jul 11 04:03:04", "HOSTNAME": "combo", "PID": "32237", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -14543,7 +14543,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C706" t="n">
@@ -14551,7 +14551,7 @@
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 11 04:08:38", "HOSTNAME": "combo", "PID": "32608", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jul 11 04:08:38", "HOSTNAME": "combo", "PID": "32608", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -14563,7 +14563,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C707" t="n">
@@ -14571,7 +14571,7 @@
       </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 28 04:03:16", "HOSTNAME": "combo", "PID": "10735", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jun 28 04:03:16", "HOSTNAME": "combo", "PID": "10735", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -14583,7 +14583,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C708" t="n">
@@ -14591,7 +14591,7 @@
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 28 04:09:01", "HOSTNAME": "combo", "PID": "11106", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jun 28 04:09:01", "HOSTNAME": "combo", "PID": "11106", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -14603,7 +14603,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C709" t="n">
@@ -14611,7 +14611,7 @@
       </c>
       <c r="D709" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 27 04:02:48", "HOSTNAME": "combo", "PID": "7031", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jun 27 04:02:48", "HOSTNAME": "combo", "PID": "7031", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -14623,7 +14623,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C710" t="n">
@@ -14631,7 +14631,7 @@
       </c>
       <c r="D710" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 27 04:08:57", "HOSTNAME": "combo", "PID": "8269", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jun 27 04:08:57", "HOSTNAME": "combo", "PID": "8269", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -14643,7 +14643,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C711" t="n">
@@ -14651,7 +14651,7 @@
       </c>
       <c r="D711" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 26 04:04:17", "HOSTNAME": "combo", "PID": "945", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jun 26 04:04:17", "HOSTNAME": "combo", "PID": "945", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -14663,7 +14663,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C712" t="n">
@@ -14671,7 +14671,7 @@
       </c>
       <c r="D712" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 26 04:10:04", "HOSTNAME": "combo", "PID": "1546", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jun 26 04:10:04", "HOSTNAME": "combo", "PID": "1546", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -14683,7 +14683,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C713" t="n">
@@ -14691,7 +14691,7 @@
       </c>
       <c r="D713" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 04:03:11", "HOSTNAME": "combo", "PID": "13665", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jun 29 04:03:11", "HOSTNAME": "combo", "PID": "13665", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -14703,7 +14703,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C714" t="n">
@@ -14711,7 +14711,7 @@
       </c>
       <c r="D714" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 29 04:09:30", "HOSTNAME": "combo", "PID": "14891", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jun 29 04:09:30", "HOSTNAME": "combo", "PID": "14891", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -14723,7 +14723,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C715" t="n">
@@ -14731,7 +14731,7 @@
       </c>
       <c r="D715" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 30 04:03:42", "HOSTNAME": "combo", "PID": "17407", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jun 30 04:03:42", "HOSTNAME": "combo", "PID": "17407", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -14743,7 +14743,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C716" t="n">
@@ -14751,7 +14751,7 @@
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 30 04:09:31", "HOSTNAME": "combo", "PID": "17778", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jun 30 04:09:31", "HOSTNAME": "combo", "PID": "17778", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -14763,7 +14763,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C717" t="n">
@@ -14771,7 +14771,7 @@
       </c>
       <c r="D717" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  3 04:14:01", "HOSTNAME": "combo", "PID": "28416", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jul  3 04:14:01", "HOSTNAME": "combo", "PID": "28416", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -14783,7 +14783,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C718" t="n">
@@ -14791,7 +14791,7 @@
       </c>
       <c r="D718" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  3 04:07:48", "HOSTNAME": "combo", "PID": "26964", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jul  3 04:07:48", "HOSTNAME": "combo", "PID": "26964", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -14803,7 +14803,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C719" t="n">
@@ -14811,7 +14811,7 @@
       </c>
       <c r="D719" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 17 04:13:58", "HOSTNAME": "combo", "PID": "20282", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jul 17 04:13:58", "HOSTNAME": "combo", "PID": "20282", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -14823,7 +14823,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C720" t="n">
@@ -14831,7 +14831,7 @@
       </c>
       <c r="D720" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 16 04:14:00", "HOSTNAME": "combo", "PID": "17286", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jul 16 04:14:00", "HOSTNAME": "combo", "PID": "17286", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -14843,7 +14843,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C721" t="n">
@@ -14851,7 +14851,7 @@
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 16 04:07:33", "HOSTNAME": "combo", "PID": "16058", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jul 16 04:07:33", "HOSTNAME": "combo", "PID": "16058", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -14863,7 +14863,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C722" t="n">
@@ -14871,7 +14871,7 @@
       </c>
       <c r="D722" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 25 04:10:35", "HOSTNAME": "combo", "PID": "30934", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jun 25 04:10:35", "HOSTNAME": "combo", "PID": "30934", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -14883,7 +14883,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C723" t="n">
@@ -14891,7 +14891,7 @@
       </c>
       <c r="D723" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 25 04:04:25", "HOSTNAME": "combo", "PID": "29690", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jun 25 04:04:25", "HOSTNAME": "combo", "PID": "29690", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -14903,7 +14903,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C724" t="n">
@@ -14911,7 +14911,7 @@
       </c>
       <c r="D724" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 24 04:05:35", "HOSTNAME": "combo", "PID": "26938", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jun 24 04:05:35", "HOSTNAME": "combo", "PID": "26938", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -14923,7 +14923,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C725" t="n">
@@ -14931,7 +14931,7 @@
       </c>
       <c r="D725" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 24 04:11:12", "HOSTNAME": "combo", "PID": "27311", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jun 24 04:11:12", "HOSTNAME": "combo", "PID": "27311", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -14943,7 +14943,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C726" t="n">
@@ -14951,7 +14951,7 @@
       </c>
       <c r="D726" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 15 04:05:02", "HOSTNAME": "combo", "PID": "13238", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jul 15 04:05:02", "HOSTNAME": "combo", "PID": "13238", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -14963,7 +14963,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C727" t="n">
@@ -14971,7 +14971,7 @@
       </c>
       <c r="D727" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 15 04:10:46", "HOSTNAME": "combo", "PID": "13611", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jul 15 04:10:46", "HOSTNAME": "combo", "PID": "13611", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -14983,7 +14983,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C728" t="n">
@@ -14991,7 +14991,7 @@
       </c>
       <c r="D728" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  5 04:09:30", "HOSTNAME": "combo", "PID": "5699", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jul  5 04:09:30", "HOSTNAME": "combo", "PID": "5699", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -15003,7 +15003,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C729" t="n">
@@ -15011,7 +15011,7 @@
       </c>
       <c r="D729" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 26 04:11:23", "HOSTNAME": "combo", "PID": "28514", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jul 26 04:11:23", "HOSTNAME": "combo", "PID": "28514", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -15023,7 +15023,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C730" t="n">
@@ -15031,7 +15031,7 @@
       </c>
       <c r="D730" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 04:03:59", "HOSTNAME": "combo", "PID": "24312", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jul 25 04:03:59", "HOSTNAME": "combo", "PID": "24312", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -15043,7 +15043,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C731" t="n">
@@ -15051,7 +15051,7 @@
       </c>
       <c r="D731" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 25 04:09:33", "HOSTNAME": "combo", "PID": "24683", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jul 25 04:09:33", "HOSTNAME": "combo", "PID": "24683", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -15063,7 +15063,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C732" t="n">
@@ -15071,7 +15071,7 @@
       </c>
       <c r="D732" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 04:33:58", "HOSTNAME": "combo", "PID": "21805", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jul 24 04:33:58", "HOSTNAME": "combo", "PID": "21805", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -15083,7 +15083,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C733" t="n">
@@ -15091,7 +15091,7 @@
       </c>
       <c r="D733" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 24 04:20:19", "HOSTNAME": "combo", "PID": "17283", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jul 24 04:20:19", "HOSTNAME": "combo", "PID": "17283", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -15103,7 +15103,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C734" t="n">
@@ -15111,7 +15111,7 @@
       </c>
       <c r="D734" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 23 04:15:13", "HOSTNAME": "combo", "PID": "14692", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jul 23 04:15:13", "HOSTNAME": "combo", "PID": "14692", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -15123,7 +15123,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C735" t="n">
@@ -15131,7 +15131,7 @@
       </c>
       <c r="D735" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 23 04:09:36", "HOSTNAME": "combo", "PID": "14314", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jul 23 04:09:36", "HOSTNAME": "combo", "PID": "14314", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -15143,7 +15143,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C736" t="n">
@@ -15151,7 +15151,7 @@
       </c>
       <c r="D736" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 04:04:32", "HOSTNAME": "combo", "PID": "24898", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jul 10 04:04:32", "HOSTNAME": "combo", "PID": "24898", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -15163,7 +15163,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C737" t="n">
@@ -15171,7 +15171,7 @@
       </c>
       <c r="D737" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 17 04:08:09", "HOSTNAME": "combo", "PID": "19686", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jul 17 04:08:09", "HOSTNAME": "combo", "PID": "19686", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -15183,7 +15183,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C738" t="n">
@@ -15191,7 +15191,7 @@
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 10 04:10:47", "HOSTNAME": "combo", "PID": "26353", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jul 10 04:10:47", "HOSTNAME": "combo", "PID": "26353", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -15203,7 +15203,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C739" t="n">
@@ -15211,7 +15211,7 @@
       </c>
       <c r="D739" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 04:05:18", "HOSTNAME": "combo", "PID": "20298", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jul  1 04:05:18", "HOSTNAME": "combo", "PID": "20298", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -15223,7 +15223,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C740" t="n">
@@ -15231,7 +15231,7 @@
       </c>
       <c r="D740" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 04:11:36", "HOSTNAME": "combo", "PID": "21530", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jul  1 04:11:36", "HOSTNAME": "combo", "PID": "21530", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -15243,7 +15243,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C741" t="n">
@@ -15251,7 +15251,7 @@
       </c>
       <c r="D741" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 23 04:05:29", "HOSTNAME": "combo", "PID": "19534", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jun 23 04:05:29", "HOSTNAME": "combo", "PID": "19534", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -15263,7 +15263,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C742" t="n">
@@ -15271,7 +15271,7 @@
       </c>
       <c r="D742" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 23 04:13:09", "HOSTNAME": "combo", "PID": "24180", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jun 23 04:13:09", "HOSTNAME": "combo", "PID": "24180", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -15283,7 +15283,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C743" t="n">
@@ -15291,7 +15291,7 @@
       </c>
       <c r="D743" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 04:04:24", "HOSTNAME": "combo", "PID": "21991", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jul  9 04:04:24", "HOSTNAME": "combo", "PID": "21991", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -15303,7 +15303,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C744" t="n">
@@ -15311,7 +15311,7 @@
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  9 04:10:12", "HOSTNAME": "combo", "PID": "22368", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jul  9 04:10:12", "HOSTNAME": "combo", "PID": "22368", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -15323,7 +15323,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C745" t="n">
@@ -15331,7 +15331,7 @@
       </c>
       <c r="D745" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  8 04:04:19", "HOSTNAME": "combo", "PID": "14943", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jul  8 04:04:19", "HOSTNAME": "combo", "PID": "14943", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -15343,7 +15343,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C746" t="n">
@@ -15351,7 +15351,7 @@
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  8 04:12:08", "HOSTNAME": "combo", "PID": "19593", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jul  8 04:12:08", "HOSTNAME": "combo", "PID": "19593", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -15363,7 +15363,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C747" t="n">
@@ -15371,7 +15371,7 @@
       </c>
       <c r="D747" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 20 04:08:38", "HOSTNAME": "combo", "PID": "9558", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jun 20 04:08:38", "HOSTNAME": "combo", "PID": "9558", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -15383,7 +15383,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C748" t="n">
@@ -15391,7 +15391,7 @@
       </c>
       <c r="D748" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 20 04:11:28", "HOSTNAME": "combo", "PID": "1595", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jul 20 04:11:28", "HOSTNAME": "combo", "PID": "1595", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -15403,7 +15403,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C749" t="n">
@@ -15411,7 +15411,7 @@
       </c>
       <c r="D749" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 20 04:05:03", "HOSTNAME": "combo", "PID": "363", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jul 20 04:05:03", "HOSTNAME": "combo", "PID": "363", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -15423,7 +15423,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C750" t="n">
@@ -15431,7 +15431,7 @@
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 19 04:03:44", "HOSTNAME": "combo", "PID": "29758", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jul 19 04:03:44", "HOSTNAME": "combo", "PID": "29758", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -15443,7 +15443,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C751" t="n">
@@ -15451,7 +15451,7 @@
       </c>
       <c r="D751" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 19 04:09:29", "HOSTNAME": "combo", "PID": "30128", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jul 19 04:09:29", "HOSTNAME": "combo", "PID": "30128", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -15463,7 +15463,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C752" t="n">
@@ -15471,7 +15471,7 @@
       </c>
       <c r="D752" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  6 04:08:44", "HOSTNAME": "combo", "PID": "8565", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jul  6 04:08:44", "HOSTNAME": "combo", "PID": "8565", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -15483,7 +15483,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C753" t="n">
@@ -15491,7 +15491,7 @@
       </c>
       <c r="D753" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 18 04:03:24", "HOSTNAME": "combo", "PID": "26046", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jul 18 04:03:24", "HOSTNAME": "combo", "PID": "26046", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -15503,7 +15503,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C754" t="n">
@@ -15511,7 +15511,7 @@
       </c>
       <c r="D754" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 18 04:09:30", "HOSTNAME": "combo", "PID": "27272", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jul 18 04:09:30", "HOSTNAME": "combo", "PID": "27272", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -15523,7 +15523,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C755" t="n">
@@ -15531,7 +15531,7 @@
       </c>
       <c r="D755" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 04:07:47", "HOSTNAME": "combo", "PID": "7106", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jul 22 04:07:47", "HOSTNAME": "combo", "PID": "7106", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -15543,7 +15543,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C756" t="n">
@@ -15551,7 +15551,7 @@
       </c>
       <c r="D756" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 22 04:15:14", "HOSTNAME": "combo", "PID": "11756", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jul 22 04:15:14", "HOSTNAME": "combo", "PID": "11756", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -15563,7 +15563,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C757" t="n">
@@ -15571,7 +15571,7 @@
       </c>
       <c r="D757" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 18 04:12:43", "HOSTNAME": "combo", "PID": "32164", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jun 18 04:12:43", "HOSTNAME": "combo", "PID": "32164", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -15583,7 +15583,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C758" t="n">
@@ -15591,7 +15591,7 @@
       </c>
       <c r="D758" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 19 04:08:55", "HOSTNAME": "combo", "PID": "2192", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jun 19 04:08:55", "HOSTNAME": "combo", "PID": "2192", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -15603,7 +15603,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C759" t="n">
@@ -15611,7 +15611,7 @@
       </c>
       <c r="D759" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 19 04:15:18", "HOSTNAME": "combo", "PID": "3676", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jun 19 04:15:18", "HOSTNAME": "combo", "PID": "3676", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -15623,7 +15623,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C760" t="n">
@@ -15631,7 +15631,7 @@
       </c>
       <c r="D760" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 18 04:07:06", "HOSTNAME": "combo", "PID": "31791", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jun 18 04:07:06", "HOSTNAME": "combo", "PID": "31791", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -15643,7 +15643,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C761" t="n">
@@ -15651,7 +15651,7 @@
       </c>
       <c r="D761" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  6 04:03:09", "HOSTNAME": "combo", "PID": "8195", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jul  6 04:03:09", "HOSTNAME": "combo", "PID": "8195", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -15663,7 +15663,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C762" t="n">
@@ -15671,7 +15671,7 @@
       </c>
       <c r="D762" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 04:04:32", "HOSTNAME": "combo", "PID": "10961", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jul  7 04:04:32", "HOSTNAME": "combo", "PID": "10961", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -15683,7 +15683,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C763" t="n">
@@ -15691,7 +15691,7 @@
       </c>
       <c r="D763" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 04:10:45", "HOSTNAME": "combo", "PID": "12193", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jul  7 04:10:45", "HOSTNAME": "combo", "PID": "12193", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -15703,7 +15703,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C764" t="n">
@@ -15711,7 +15711,7 @@
       </c>
       <c r="D764" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 21 04:11:27", "HOSTNAME": "combo", "PID": "4170", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jul 21 04:11:27", "HOSTNAME": "combo", "PID": "4170", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -15723,7 +15723,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C765" t="n">
@@ -15731,7 +15731,7 @@
       </c>
       <c r="D765" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 21 04:16:55", "HOSTNAME": "combo", "PID": "4540", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jul 21 04:16:55", "HOSTNAME": "combo", "PID": "4540", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -15743,7 +15743,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C766" t="n">
@@ -15751,7 +15751,7 @@
       </c>
       <c r="D766" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 22 04:05:59", "HOSTNAME": "combo", "PID": "16663", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jun 22 04:05:59", "HOSTNAME": "combo", "PID": "16663", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -15763,7 +15763,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C767" t="n">
@@ -15771,7 +15771,7 @@
       </c>
       <c r="D767" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 22 04:11:42", "HOSTNAME": "combo", "PID": "17037", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jun 22 04:11:42", "HOSTNAME": "combo", "PID": "17037", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -15783,7 +15783,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C768" t="n">
@@ -15791,7 +15791,7 @@
       </c>
       <c r="D768" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 21 04:06:58", "HOSTNAME": "combo", "PID": "12098", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jun 21 04:06:58", "HOSTNAME": "combo", "PID": "12098", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -15803,7 +15803,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C769" t="n">
@@ -15811,7 +15811,7 @@
       </c>
       <c r="D769" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 21 04:13:04", "HOSTNAME": "combo", "PID": "13327", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jun 21 04:13:04", "HOSTNAME": "combo", "PID": "13327", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -15823,7 +15823,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C770" t="n">
@@ -15831,7 +15831,7 @@
       </c>
       <c r="D770" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 20 04:02:54", "HOSTNAME": "combo", "PID": "9187", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jun 20 04:02:54", "HOSTNAME": "combo", "PID": "9187", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -15843,7 +15843,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C771" t="n">
@@ -15851,7 +15851,7 @@
       </c>
       <c r="D771" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 27 04:16:08", "HOSTNAME": "combo", "PID": "30999", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jul 27 04:16:08", "HOSTNAME": "combo", "PID": "30999", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -15863,7 +15863,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C772" t="n">
@@ -15871,7 +15871,7 @@
       </c>
       <c r="D772" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  2 04:04:02", "HOSTNAME": "combo", "PID": "24117", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jul  2 04:04:02", "HOSTNAME": "combo", "PID": "24117", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -15883,7 +15883,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C773" t="n">
@@ -15891,7 +15891,7 @@
       </c>
       <c r="D773" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  2 04:09:54", "HOSTNAME": "combo", "PID": "24511", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jul  2 04:09:54", "HOSTNAME": "combo", "PID": "24511", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -15903,7 +15903,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C774" t="n">
@@ -15911,7 +15911,7 @@
       </c>
       <c r="D774" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 26 04:05:23", "HOSTNAME": "combo", "PID": "27285", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jul 26 04:05:23", "HOSTNAME": "combo", "PID": "27285", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -15923,7 +15923,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C775" t="n">
@@ -15931,7 +15931,7 @@
       </c>
       <c r="D775" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 16 04:10:23", "HOSTNAME": "combo", "PID": "25178", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jun 16 04:10:23", "HOSTNAME": "combo", "PID": "25178", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -15943,7 +15943,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C776" t="n">
@@ -15951,7 +15951,7 @@
       </c>
       <c r="D776" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 16 04:16:18", "HOSTNAME": "combo", "PID": "25548", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jun 16 04:16:18", "HOSTNAME": "combo", "PID": "25548", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -15963,7 +15963,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C777" t="n">
@@ -15971,7 +15971,7 @@
       </c>
       <c r="D777" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 17 04:03:34", "HOSTNAME": "combo", "PID": "27953", "USERNAME": "cyrus"}</t>
+          <t>{"TIMESTAMP": "Jun 17 04:03:34", "HOSTNAME": "combo", "PID": "27953", "STATE": "closed", "USERNAME": "cyrus"}</t>
         </is>
       </c>
     </row>
@@ -15983,7 +15983,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C778" t="n">
@@ -15991,7 +15991,7 @@
       </c>
       <c r="D778" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 17 04:09:45", "HOSTNAME": "combo", "PID": "29190", "USERNAME": "news"}</t>
+          <t>{"TIMESTAMP": "Jun 17 04:09:45", "HOSTNAME": "combo", "PID": "29190", "STATE": "closed", "USERNAME": "news"}</t>
         </is>
       </c>
     </row>
@@ -21843,7 +21843,7 @@
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1071" t="n">
@@ -21851,7 +21851,7 @@
       </c>
       <c r="D1071" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 07:18:12", "HOSTNAME": "combo", "PID": "12520", "USERNAME": "test", "UID": "509"}</t>
+          <t>{"TIMESTAMP": "Jul  7 07:18:12", "HOSTNAME": "combo", "PID": "12520", "STATE": "opened", "USERNAME": "test", "UID": "509"}</t>
         </is>
       </c>
     </row>
@@ -21863,7 +21863,7 @@
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1072" t="n">
@@ -21871,7 +21871,7 @@
       </c>
       <c r="D1072" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 05:02:27", "HOSTNAME": "combo", "PID": "21693", "USERNAME": "test", "UID": "509"}</t>
+          <t>{"TIMESTAMP": "Jul  1 05:02:27", "HOSTNAME": "combo", "PID": "21693", "STATE": "opened", "USERNAME": "test", "UID": "509"}</t>
         </is>
       </c>
     </row>
@@ -21883,7 +21883,7 @@
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1073" t="n">
@@ -21891,7 +21891,7 @@
       </c>
       <c r="D1073" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 30 22:16:32", "HOSTNAME": "combo", "PID": "19433", "USERNAME": "test", "UID": "509"}</t>
+          <t>{"TIMESTAMP": "Jun 30 22:16:32", "HOSTNAME": "combo", "PID": "19433", "STATE": "opened", "USERNAME": "test", "UID": "509"}</t>
         </is>
       </c>
     </row>
@@ -21903,7 +21903,7 @@
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1074" t="n">
@@ -21911,7 +21911,7 @@
       </c>
       <c r="D1074" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  2 01:41:33", "HOSTNAME": "combo", "PID": "23545", "USERNAME": "test", "UID": "509"}</t>
+          <t>{"TIMESTAMP": "Jul  2 01:41:33", "HOSTNAME": "combo", "PID": "23545", "STATE": "opened", "USERNAME": "test", "UID": "509"}</t>
         </is>
       </c>
     </row>
@@ -21923,7 +21923,7 @@
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1075" t="n">
@@ -21931,7 +21931,7 @@
       </c>
       <c r="D1075" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  2 01:41:32", "HOSTNAME": "combo", "PID": "23536", "USERNAME": "test", "UID": "509"}</t>
+          <t>{"TIMESTAMP": "Jul  2 01:41:32", "HOSTNAME": "combo", "PID": "23536", "STATE": "opened", "USERNAME": "test", "UID": "509"}</t>
         </is>
       </c>
     </row>
@@ -21943,7 +21943,7 @@
       </c>
       <c r="B1076" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1076" t="n">
@@ -21951,7 +21951,7 @@
       </c>
       <c r="D1076" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  2 01:41:32", "HOSTNAME": "combo", "PID": "23534", "USERNAME": "test", "UID": "509"}</t>
+          <t>{"TIMESTAMP": "Jul  2 01:41:32", "HOSTNAME": "combo", "PID": "23534", "STATE": "opened", "USERNAME": "test", "UID": "509"}</t>
         </is>
       </c>
     </row>
@@ -21963,7 +21963,7 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1077" t="n">
@@ -21971,7 +21971,7 @@
       </c>
       <c r="D1077" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  2 01:41:33", "HOSTNAME": "combo", "PID": "23546", "USERNAME": "test", "UID": "509"}</t>
+          <t>{"TIMESTAMP": "Jul  2 01:41:33", "HOSTNAME": "combo", "PID": "23546", "STATE": "opened", "USERNAME": "test", "UID": "509"}</t>
         </is>
       </c>
     </row>
@@ -21983,7 +21983,7 @@
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1078" t="n">
@@ -21991,7 +21991,7 @@
       </c>
       <c r="D1078" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  2 01:41:33", "HOSTNAME": "combo", "PID": "23547", "USERNAME": "test", "UID": "509"}</t>
+          <t>{"TIMESTAMP": "Jul  2 01:41:33", "HOSTNAME": "combo", "PID": "23547", "STATE": "opened", "USERNAME": "test", "UID": "509"}</t>
         </is>
       </c>
     </row>
@@ -22003,7 +22003,7 @@
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1079" t="n">
@@ -22011,7 +22011,7 @@
       </c>
       <c r="D1079" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 30 22:16:32", "HOSTNAME": "combo", "PID": "19434", "USERNAME": "test", "UID": "509"}</t>
+          <t>{"TIMESTAMP": "Jun 30 22:16:32", "HOSTNAME": "combo", "PID": "19434", "STATE": "opened", "USERNAME": "test", "UID": "509"}</t>
         </is>
       </c>
     </row>
@@ -22023,7 +22023,7 @@
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1080" t="n">
@@ -22031,7 +22031,7 @@
       </c>
       <c r="D1080" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 05:02:26", "HOSTNAME": "combo", "PID": "21689", "USERNAME": "test", "UID": "509"}</t>
+          <t>{"TIMESTAMP": "Jul  1 05:02:26", "HOSTNAME": "combo", "PID": "21689", "STATE": "opened", "USERNAME": "test", "UID": "509"}</t>
         </is>
       </c>
     </row>
@@ -22043,7 +22043,7 @@
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1081" t="n">
@@ -22051,7 +22051,7 @@
       </c>
       <c r="D1081" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 30 22:16:32", "HOSTNAME": "combo", "PID": "19435", "USERNAME": "test", "UID": "509"}</t>
+          <t>{"TIMESTAMP": "Jun 30 22:16:32", "HOSTNAME": "combo", "PID": "19435", "STATE": "opened", "USERNAME": "test", "UID": "509"}</t>
         </is>
       </c>
     </row>
@@ -22063,7 +22063,7 @@
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1082" t="n">
@@ -22071,7 +22071,7 @@
       </c>
       <c r="D1082" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  2 01:41:32", "HOSTNAME": "combo", "PID": "23535", "USERNAME": "test", "UID": "509"}</t>
+          <t>{"TIMESTAMP": "Jul  2 01:41:32", "HOSTNAME": "combo", "PID": "23535", "STATE": "opened", "USERNAME": "test", "UID": "509"}</t>
         </is>
       </c>
     </row>
@@ -22083,7 +22083,7 @@
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1083" t="n">
@@ -22091,7 +22091,7 @@
       </c>
       <c r="D1083" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 13 17:22:28", "HOSTNAME": "combo", "PID": "8113", "USERNAME": "test", "UID": "509"}</t>
+          <t>{"TIMESTAMP": "Jul 13 17:22:28", "HOSTNAME": "combo", "PID": "8113", "STATE": "opened", "USERNAME": "test", "UID": "509"}</t>
         </is>
       </c>
     </row>
@@ -22103,7 +22103,7 @@
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1084" t="n">
@@ -22111,7 +22111,7 @@
       </c>
       <c r="D1084" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 13 17:22:28", "HOSTNAME": "combo", "PID": "8114", "USERNAME": "test", "UID": "509"}</t>
+          <t>{"TIMESTAMP": "Jul 13 17:22:28", "HOSTNAME": "combo", "PID": "8114", "STATE": "opened", "USERNAME": "test", "UID": "509"}</t>
         </is>
       </c>
     </row>
@@ -22123,7 +22123,7 @@
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1085" t="n">
@@ -22131,7 +22131,7 @@
       </c>
       <c r="D1085" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 17 20:29:26", "HOSTNAME": "combo", "PID": "30631", "USERNAME": "test", "UID": "509"}</t>
+          <t>{"TIMESTAMP": "Jun 17 20:29:26", "HOSTNAME": "combo", "PID": "30631", "STATE": "opened", "USERNAME": "test", "UID": "509"}</t>
         </is>
       </c>
     </row>
@@ -22143,7 +22143,7 @@
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1086" t="n">
@@ -22151,7 +22151,7 @@
       </c>
       <c r="D1086" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 09:14:43", "HOSTNAME": "combo", "PID": "22099", "USERNAME": "test", "UID": "509"}</t>
+          <t>{"TIMESTAMP": "Jul  1 09:14:43", "HOSTNAME": "combo", "PID": "22099", "STATE": "opened", "USERNAME": "test", "UID": "509"}</t>
         </is>
       </c>
     </row>
@@ -22163,7 +22163,7 @@
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1087" t="n">
@@ -22171,7 +22171,7 @@
       </c>
       <c r="D1087" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 13 17:22:29", "HOSTNAME": "combo", "PID": "8117", "USERNAME": "test", "UID": "509"}</t>
+          <t>{"TIMESTAMP": "Jul 13 17:22:29", "HOSTNAME": "combo", "PID": "8117", "STATE": "opened", "USERNAME": "test", "UID": "509"}</t>
         </is>
       </c>
     </row>
@@ -22183,7 +22183,7 @@
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1088" t="n">
@@ -22191,7 +22191,7 @@
       </c>
       <c r="D1088" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 05:02:26", "HOSTNAME": "combo", "PID": "21691", "USERNAME": "test", "UID": "509"}</t>
+          <t>{"TIMESTAMP": "Jul  1 05:02:26", "HOSTNAME": "combo", "PID": "21691", "STATE": "opened", "USERNAME": "test", "UID": "509"}</t>
         </is>
       </c>
     </row>
@@ -22203,7 +22203,7 @@
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1089" t="n">
@@ -22211,7 +22211,7 @@
       </c>
       <c r="D1089" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 09:14:43", "HOSTNAME": "combo", "PID": "22104", "USERNAME": "test", "UID": "509"}</t>
+          <t>{"TIMESTAMP": "Jul  1 09:14:43", "HOSTNAME": "combo", "PID": "22104", "STATE": "opened", "USERNAME": "test", "UID": "509"}</t>
         </is>
       </c>
     </row>
@@ -22223,7 +22223,7 @@
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1090" t="n">
@@ -22231,7 +22231,7 @@
       </c>
       <c r="D1090" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 07:18:12", "HOSTNAME": "combo", "PID": "12518", "USERNAME": "test", "UID": "509"}</t>
+          <t>{"TIMESTAMP": "Jul  7 07:18:12", "HOSTNAME": "combo", "PID": "12518", "STATE": "opened", "USERNAME": "test", "UID": "509"}</t>
         </is>
       </c>
     </row>
@@ -22243,7 +22243,7 @@
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1091" t="n">
@@ -22251,7 +22251,7 @@
       </c>
       <c r="D1091" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 07:18:12", "HOSTNAME": "combo", "PID": "12519", "USERNAME": "test", "UID": "509"}</t>
+          <t>{"TIMESTAMP": "Jul  7 07:18:12", "HOSTNAME": "combo", "PID": "12519", "STATE": "opened", "USERNAME": "test", "UID": "509"}</t>
         </is>
       </c>
     </row>
@@ -22263,7 +22263,7 @@
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1092" t="n">
@@ -22271,7 +22271,7 @@
       </c>
       <c r="D1092" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 09:14:43", "HOSTNAME": "combo", "PID": "22106", "USERNAME": "test", "UID": "509"}</t>
+          <t>{"TIMESTAMP": "Jul  1 09:14:43", "HOSTNAME": "combo", "PID": "22106", "STATE": "opened", "USERNAME": "test", "UID": "509"}</t>
         </is>
       </c>
     </row>
@@ -22283,7 +22283,7 @@
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1093" t="n">
@@ -22291,7 +22291,7 @@
       </c>
       <c r="D1093" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 05:02:26", "HOSTNAME": "combo", "PID": "21692", "USERNAME": "test", "UID": "509"}</t>
+          <t>{"TIMESTAMP": "Jul  1 05:02:26", "HOSTNAME": "combo", "PID": "21692", "STATE": "opened", "USERNAME": "test", "UID": "509"}</t>
         </is>
       </c>
     </row>
@@ -22303,7 +22303,7 @@
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1094" t="n">
@@ -22311,7 +22311,7 @@
       </c>
       <c r="D1094" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 30 22:16:32", "HOSTNAME": "combo", "PID": "19439", "USERNAME": "test", "UID": "509"}</t>
+          <t>{"TIMESTAMP": "Jun 30 22:16:32", "HOSTNAME": "combo", "PID": "19439", "STATE": "opened", "USERNAME": "test", "UID": "509"}</t>
         </is>
       </c>
     </row>
@@ -22323,7 +22323,7 @@
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1095" t="n">
@@ -22331,7 +22331,7 @@
       </c>
       <c r="D1095" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 30 22:16:32", "HOSTNAME": "combo", "PID": "19440", "USERNAME": "test", "UID": "509"}</t>
+          <t>{"TIMESTAMP": "Jun 30 22:16:32", "HOSTNAME": "combo", "PID": "19440", "STATE": "opened", "USERNAME": "test", "UID": "509"}</t>
         </is>
       </c>
     </row>
@@ -22343,7 +22343,7 @@
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1096" t="n">
@@ -22351,7 +22351,7 @@
       </c>
       <c r="D1096" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  2 01:41:32", "HOSTNAME": "combo", "PID": "23533", "USERNAME": "test", "UID": "509"}</t>
+          <t>{"TIMESTAMP": "Jul  2 01:41:32", "HOSTNAME": "combo", "PID": "23533", "STATE": "opened", "USERNAME": "test", "UID": "509"}</t>
         </is>
       </c>
     </row>
@@ -22363,7 +22363,7 @@
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1097" t="n">
@@ -22371,7 +22371,7 @@
       </c>
       <c r="D1097" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 07:18:13", "HOSTNAME": "combo", "PID": "12527", "USERNAME": "test", "UID": "509"}</t>
+          <t>{"TIMESTAMP": "Jul  7 07:18:13", "HOSTNAME": "combo", "PID": "12527", "STATE": "opened", "USERNAME": "test", "UID": "509"}</t>
         </is>
       </c>
     </row>
@@ -22383,7 +22383,7 @@
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1098" t="n">
@@ -22391,7 +22391,7 @@
       </c>
       <c r="D1098" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 30 22:16:32", "HOSTNAME": "combo", "PID": "19437", "USERNAME": "test", "UID": "509"}</t>
+          <t>{"TIMESTAMP": "Jun 30 22:16:32", "HOSTNAME": "combo", "PID": "19437", "STATE": "opened", "USERNAME": "test", "UID": "509"}</t>
         </is>
       </c>
     </row>
@@ -22403,7 +22403,7 @@
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1099" t="n">
@@ -22411,7 +22411,7 @@
       </c>
       <c r="D1099" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 30 22:16:32", "HOSTNAME": "combo", "PID": "19432", "USERNAME": "test", "UID": "509"}</t>
+          <t>{"TIMESTAMP": "Jun 30 22:16:32", "HOSTNAME": "combo", "PID": "19432", "STATE": "opened", "USERNAME": "test", "UID": "509"}</t>
         </is>
       </c>
     </row>
@@ -22423,7 +22423,7 @@
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1100" t="n">
@@ -22431,7 +22431,7 @@
       </c>
       <c r="D1100" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 07:18:13", "HOSTNAME": "combo", "PID": "12524", "USERNAME": "test", "UID": "509"}</t>
+          <t>{"TIMESTAMP": "Jul  7 07:18:13", "HOSTNAME": "combo", "PID": "12524", "STATE": "opened", "USERNAME": "test", "UID": "509"}</t>
         </is>
       </c>
     </row>
@@ -22443,7 +22443,7 @@
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1101" t="n">
@@ -22451,7 +22451,7 @@
       </c>
       <c r="D1101" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 07:18:13", "HOSTNAME": "combo", "PID": "12525", "USERNAME": "test", "UID": "509"}</t>
+          <t>{"TIMESTAMP": "Jul  7 07:18:13", "HOSTNAME": "combo", "PID": "12525", "STATE": "opened", "USERNAME": "test", "UID": "509"}</t>
         </is>
       </c>
     </row>
@@ -22463,7 +22463,7 @@
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1102" t="n">
@@ -22471,7 +22471,7 @@
       </c>
       <c r="D1102" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  2 01:41:33", "HOSTNAME": "combo", "PID": "23544", "USERNAME": "test", "UID": "509"}</t>
+          <t>{"TIMESTAMP": "Jul  2 01:41:33", "HOSTNAME": "combo", "PID": "23544", "STATE": "opened", "USERNAME": "test", "UID": "509"}</t>
         </is>
       </c>
     </row>
@@ -22483,7 +22483,7 @@
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1103" t="n">
@@ -22491,7 +22491,7 @@
       </c>
       <c r="D1103" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 09:14:44", "HOSTNAME": "combo", "PID": "22112", "USERNAME": "test", "UID": "509"}</t>
+          <t>{"TIMESTAMP": "Jul  1 09:14:44", "HOSTNAME": "combo", "PID": "22112", "STATE": "opened", "USERNAME": "test", "UID": "509"}</t>
         </is>
       </c>
     </row>
@@ -22503,7 +22503,7 @@
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1104" t="n">
@@ -22511,7 +22511,7 @@
       </c>
       <c r="D1104" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 30 22:16:32", "HOSTNAME": "combo", "PID": "19431", "USERNAME": "test", "UID": "509"}</t>
+          <t>{"TIMESTAMP": "Jun 30 22:16:32", "HOSTNAME": "combo", "PID": "19431", "STATE": "opened", "USERNAME": "test", "UID": "509"}</t>
         </is>
       </c>
     </row>
@@ -22523,7 +22523,7 @@
       </c>
       <c r="B1105" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1105" t="n">
@@ -22531,7 +22531,7 @@
       </c>
       <c r="D1105" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 30 22:16:32", "HOSTNAME": "combo", "PID": "19436", "USERNAME": "test", "UID": "509"}</t>
+          <t>{"TIMESTAMP": "Jun 30 22:16:32", "HOSTNAME": "combo", "PID": "19436", "STATE": "opened", "USERNAME": "test", "UID": "509"}</t>
         </is>
       </c>
     </row>
@@ -22543,7 +22543,7 @@
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1106" t="n">
@@ -22551,7 +22551,7 @@
       </c>
       <c r="D1106" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 30 22:16:32", "HOSTNAME": "combo", "PID": "19438", "USERNAME": "test", "UID": "509"}</t>
+          <t>{"TIMESTAMP": "Jun 30 22:16:32", "HOSTNAME": "combo", "PID": "19438", "STATE": "opened", "USERNAME": "test", "UID": "509"}</t>
         </is>
       </c>
     </row>
@@ -22563,7 +22563,7 @@
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C1107" t="n">
@@ -22571,7 +22571,7 @@
       </c>
       <c r="D1107" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 05:02:27", "HOSTNAME": "combo", "PID": "21693", "USERNAME": "test"}</t>
+          <t>{"TIMESTAMP": "Jul  1 05:02:27", "HOSTNAME": "combo", "PID": "21693", "STATE": "closed", "USERNAME": "test"}</t>
         </is>
       </c>
     </row>
@@ -22583,7 +22583,7 @@
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C1108" t="n">
@@ -22591,7 +22591,7 @@
       </c>
       <c r="D1108" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  2 01:41:33", "HOSTNAME": "combo", "PID": "23545", "USERNAME": "test"}</t>
+          <t>{"TIMESTAMP": "Jul  2 01:41:33", "HOSTNAME": "combo", "PID": "23545", "STATE": "closed", "USERNAME": "test"}</t>
         </is>
       </c>
     </row>
@@ -22603,7 +22603,7 @@
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C1109" t="n">
@@ -22611,7 +22611,7 @@
       </c>
       <c r="D1109" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  2 01:41:33", "HOSTNAME": "combo", "PID": "23547", "USERNAME": "test"}</t>
+          <t>{"TIMESTAMP": "Jul  2 01:41:33", "HOSTNAME": "combo", "PID": "23547", "STATE": "closed", "USERNAME": "test"}</t>
         </is>
       </c>
     </row>
@@ -22623,7 +22623,7 @@
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C1110" t="n">
@@ -22631,7 +22631,7 @@
       </c>
       <c r="D1110" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 13 17:22:29", "HOSTNAME": "combo", "PID": "8113", "USERNAME": "test"}</t>
+          <t>{"TIMESTAMP": "Jul 13 17:22:29", "HOSTNAME": "combo", "PID": "8113", "STATE": "closed", "USERNAME": "test"}</t>
         </is>
       </c>
     </row>
@@ -22643,7 +22643,7 @@
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C1111" t="n">
@@ -22651,7 +22651,7 @@
       </c>
       <c r="D1111" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 13 17:22:29", "HOSTNAME": "combo", "PID": "8114", "USERNAME": "test"}</t>
+          <t>{"TIMESTAMP": "Jul 13 17:22:29", "HOSTNAME": "combo", "PID": "8114", "STATE": "closed", "USERNAME": "test"}</t>
         </is>
       </c>
     </row>
@@ -22663,7 +22663,7 @@
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C1112" t="n">
@@ -22671,7 +22671,7 @@
       </c>
       <c r="D1112" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul 13 17:22:29", "HOSTNAME": "combo", "PID": "8117", "USERNAME": "test"}</t>
+          <t>{"TIMESTAMP": "Jul 13 17:22:29", "HOSTNAME": "combo", "PID": "8117", "STATE": "closed", "USERNAME": "test"}</t>
         </is>
       </c>
     </row>
@@ -22683,7 +22683,7 @@
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C1113" t="n">
@@ -22691,7 +22691,7 @@
       </c>
       <c r="D1113" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  2 01:41:33", "HOSTNAME": "combo", "PID": "23546", "USERNAME": "test"}</t>
+          <t>{"TIMESTAMP": "Jul  2 01:41:33", "HOSTNAME": "combo", "PID": "23546", "STATE": "closed", "USERNAME": "test"}</t>
         </is>
       </c>
     </row>
@@ -22703,7 +22703,7 @@
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C1114" t="n">
@@ -22711,7 +22711,7 @@
       </c>
       <c r="D1114" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 07:18:12", "HOSTNAME": "combo", "PID": "12518", "USERNAME": "test"}</t>
+          <t>{"TIMESTAMP": "Jul  7 07:18:12", "HOSTNAME": "combo", "PID": "12518", "STATE": "closed", "USERNAME": "test"}</t>
         </is>
       </c>
     </row>
@@ -22723,7 +22723,7 @@
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C1115" t="n">
@@ -22731,7 +22731,7 @@
       </c>
       <c r="D1115" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  2 01:41:32", "HOSTNAME": "combo", "PID": "23535", "USERNAME": "test"}</t>
+          <t>{"TIMESTAMP": "Jul  2 01:41:32", "HOSTNAME": "combo", "PID": "23535", "STATE": "closed", "USERNAME": "test"}</t>
         </is>
       </c>
     </row>
@@ -22743,7 +22743,7 @@
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C1116" t="n">
@@ -22751,7 +22751,7 @@
       </c>
       <c r="D1116" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 07:18:12", "HOSTNAME": "combo", "PID": "12520", "USERNAME": "test"}</t>
+          <t>{"TIMESTAMP": "Jul  7 07:18:12", "HOSTNAME": "combo", "PID": "12520", "STATE": "closed", "USERNAME": "test"}</t>
         </is>
       </c>
     </row>
@@ -22763,7 +22763,7 @@
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C1117" t="n">
@@ -22771,7 +22771,7 @@
       </c>
       <c r="D1117" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 07:18:12", "HOSTNAME": "combo", "PID": "12519", "USERNAME": "test"}</t>
+          <t>{"TIMESTAMP": "Jul  7 07:18:12", "HOSTNAME": "combo", "PID": "12519", "STATE": "closed", "USERNAME": "test"}</t>
         </is>
       </c>
     </row>
@@ -22783,7 +22783,7 @@
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C1118" t="n">
@@ -22791,7 +22791,7 @@
       </c>
       <c r="D1118" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 07:18:13", "HOSTNAME": "combo", "PID": "12524", "USERNAME": "test"}</t>
+          <t>{"TIMESTAMP": "Jul  7 07:18:13", "HOSTNAME": "combo", "PID": "12524", "STATE": "closed", "USERNAME": "test"}</t>
         </is>
       </c>
     </row>
@@ -22803,7 +22803,7 @@
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C1119" t="n">
@@ -22811,7 +22811,7 @@
       </c>
       <c r="D1119" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 07:18:14", "HOSTNAME": "combo", "PID": "12527", "USERNAME": "test"}</t>
+          <t>{"TIMESTAMP": "Jul  7 07:18:14", "HOSTNAME": "combo", "PID": "12527", "STATE": "closed", "USERNAME": "test"}</t>
         </is>
       </c>
     </row>
@@ -22823,7 +22823,7 @@
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C1120" t="n">
@@ -22831,7 +22831,7 @@
       </c>
       <c r="D1120" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 30 22:16:33", "HOSTNAME": "combo", "PID": "19438", "USERNAME": "test"}</t>
+          <t>{"TIMESTAMP": "Jun 30 22:16:33", "HOSTNAME": "combo", "PID": "19438", "STATE": "closed", "USERNAME": "test"}</t>
         </is>
       </c>
     </row>
@@ -22843,7 +22843,7 @@
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C1121" t="n">
@@ -22851,7 +22851,7 @@
       </c>
       <c r="D1121" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 30 22:16:33", "HOSTNAME": "combo", "PID": "19439", "USERNAME": "test"}</t>
+          <t>{"TIMESTAMP": "Jun 30 22:16:33", "HOSTNAME": "combo", "PID": "19439", "STATE": "closed", "USERNAME": "test"}</t>
         </is>
       </c>
     </row>
@@ -22863,7 +22863,7 @@
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C1122" t="n">
@@ -22871,7 +22871,7 @@
       </c>
       <c r="D1122" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 30 22:16:33", "HOSTNAME": "combo", "PID": "19440", "USERNAME": "test"}</t>
+          <t>{"TIMESTAMP": "Jun 30 22:16:33", "HOSTNAME": "combo", "PID": "19440", "STATE": "closed", "USERNAME": "test"}</t>
         </is>
       </c>
     </row>
@@ -22883,7 +22883,7 @@
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C1123" t="n">
@@ -22891,7 +22891,7 @@
       </c>
       <c r="D1123" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 30 22:16:32", "HOSTNAME": "combo", "PID": "19434", "USERNAME": "test"}</t>
+          <t>{"TIMESTAMP": "Jun 30 22:16:32", "HOSTNAME": "combo", "PID": "19434", "STATE": "closed", "USERNAME": "test"}</t>
         </is>
       </c>
     </row>
@@ -22903,7 +22903,7 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C1124" t="n">
@@ -22911,7 +22911,7 @@
       </c>
       <c r="D1124" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 09:14:43", "HOSTNAME": "combo", "PID": "22104", "USERNAME": "test"}</t>
+          <t>{"TIMESTAMP": "Jul  1 09:14:43", "HOSTNAME": "combo", "PID": "22104", "STATE": "closed", "USERNAME": "test"}</t>
         </is>
       </c>
     </row>
@@ -22923,7 +22923,7 @@
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C1125" t="n">
@@ -22931,7 +22931,7 @@
       </c>
       <c r="D1125" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 30 22:16:32", "HOSTNAME": "combo", "PID": "19432", "USERNAME": "test"}</t>
+          <t>{"TIMESTAMP": "Jun 30 22:16:32", "HOSTNAME": "combo", "PID": "19432", "STATE": "closed", "USERNAME": "test"}</t>
         </is>
       </c>
     </row>
@@ -22943,7 +22943,7 @@
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C1126" t="n">
@@ -22951,7 +22951,7 @@
       </c>
       <c r="D1126" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 05:02:26", "HOSTNAME": "combo", "PID": "21691", "USERNAME": "test"}</t>
+          <t>{"TIMESTAMP": "Jul  1 05:02:26", "HOSTNAME": "combo", "PID": "21691", "STATE": "closed", "USERNAME": "test"}</t>
         </is>
       </c>
     </row>
@@ -22963,7 +22963,7 @@
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C1127" t="n">
@@ -22971,7 +22971,7 @@
       </c>
       <c r="D1127" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 30 22:16:32", "HOSTNAME": "combo", "PID": "19431", "USERNAME": "test"}</t>
+          <t>{"TIMESTAMP": "Jun 30 22:16:32", "HOSTNAME": "combo", "PID": "19431", "STATE": "closed", "USERNAME": "test"}</t>
         </is>
       </c>
     </row>
@@ -22983,7 +22983,7 @@
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C1128" t="n">
@@ -22991,7 +22991,7 @@
       </c>
       <c r="D1128" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 07:18:14", "HOSTNAME": "combo", "PID": "12525", "USERNAME": "test"}</t>
+          <t>{"TIMESTAMP": "Jul  7 07:18:14", "HOSTNAME": "combo", "PID": "12525", "STATE": "closed", "USERNAME": "test"}</t>
         </is>
       </c>
     </row>
@@ -23003,7 +23003,7 @@
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C1129" t="n">
@@ -23011,7 +23011,7 @@
       </c>
       <c r="D1129" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 05:02:26", "HOSTNAME": "combo", "PID": "21689", "USERNAME": "test"}</t>
+          <t>{"TIMESTAMP": "Jul  1 05:02:26", "HOSTNAME": "combo", "PID": "21689", "STATE": "closed", "USERNAME": "test"}</t>
         </is>
       </c>
     </row>
@@ -23023,7 +23023,7 @@
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C1130" t="n">
@@ -23031,7 +23031,7 @@
       </c>
       <c r="D1130" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 30 22:16:33", "HOSTNAME": "combo", "PID": "19437", "USERNAME": "test"}</t>
+          <t>{"TIMESTAMP": "Jun 30 22:16:33", "HOSTNAME": "combo", "PID": "19437", "STATE": "closed", "USERNAME": "test"}</t>
         </is>
       </c>
     </row>
@@ -23043,7 +23043,7 @@
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C1131" t="n">
@@ -23051,7 +23051,7 @@
       </c>
       <c r="D1131" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 17 20:34:57", "HOSTNAME": "combo", "PID": "30631", "USERNAME": "test"}</t>
+          <t>{"TIMESTAMP": "Jun 17 20:34:57", "HOSTNAME": "combo", "PID": "30631", "STATE": "closed", "USERNAME": "test"}</t>
         </is>
       </c>
     </row>
@@ -23063,7 +23063,7 @@
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C1132" t="n">
@@ -23071,7 +23071,7 @@
       </c>
       <c r="D1132" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  2 01:41:32", "HOSTNAME": "combo", "PID": "23533", "USERNAME": "test"}</t>
+          <t>{"TIMESTAMP": "Jul  2 01:41:32", "HOSTNAME": "combo", "PID": "23533", "STATE": "closed", "USERNAME": "test"}</t>
         </is>
       </c>
     </row>
@@ -23083,7 +23083,7 @@
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C1133" t="n">
@@ -23091,7 +23091,7 @@
       </c>
       <c r="D1133" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  2 01:41:32", "HOSTNAME": "combo", "PID": "23534", "USERNAME": "test"}</t>
+          <t>{"TIMESTAMP": "Jul  2 01:41:32", "HOSTNAME": "combo", "PID": "23534", "STATE": "closed", "USERNAME": "test"}</t>
         </is>
       </c>
     </row>
@@ -23103,7 +23103,7 @@
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C1134" t="n">
@@ -23111,7 +23111,7 @@
       </c>
       <c r="D1134" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 05:02:26", "HOSTNAME": "combo", "PID": "21692", "USERNAME": "test"}</t>
+          <t>{"TIMESTAMP": "Jul  1 05:02:26", "HOSTNAME": "combo", "PID": "21692", "STATE": "closed", "USERNAME": "test"}</t>
         </is>
       </c>
     </row>
@@ -23123,7 +23123,7 @@
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C1135" t="n">
@@ -23131,7 +23131,7 @@
       </c>
       <c r="D1135" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  2 01:41:32", "HOSTNAME": "combo", "PID": "23536", "USERNAME": "test"}</t>
+          <t>{"TIMESTAMP": "Jul  2 01:41:32", "HOSTNAME": "combo", "PID": "23536", "STATE": "closed", "USERNAME": "test"}</t>
         </is>
       </c>
     </row>
@@ -23143,7 +23143,7 @@
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C1136" t="n">
@@ -23151,7 +23151,7 @@
       </c>
       <c r="D1136" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 30 22:16:32", "HOSTNAME": "combo", "PID": "19435", "USERNAME": "test"}</t>
+          <t>{"TIMESTAMP": "Jun 30 22:16:32", "HOSTNAME": "combo", "PID": "19435", "STATE": "closed", "USERNAME": "test"}</t>
         </is>
       </c>
     </row>
@@ -23163,7 +23163,7 @@
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C1137" t="n">
@@ -23171,7 +23171,7 @@
       </c>
       <c r="D1137" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  2 01:41:33", "HOSTNAME": "combo", "PID": "23544", "USERNAME": "test"}</t>
+          <t>{"TIMESTAMP": "Jul  2 01:41:33", "HOSTNAME": "combo", "PID": "23544", "STATE": "closed", "USERNAME": "test"}</t>
         </is>
       </c>
     </row>
@@ -23183,7 +23183,7 @@
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C1138" t="n">
@@ -23191,7 +23191,7 @@
       </c>
       <c r="D1138" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 09:14:44", "HOSTNAME": "combo", "PID": "22099", "USERNAME": "test"}</t>
+          <t>{"TIMESTAMP": "Jul  1 09:14:44", "HOSTNAME": "combo", "PID": "22099", "STATE": "closed", "USERNAME": "test"}</t>
         </is>
       </c>
     </row>
@@ -23203,7 +23203,7 @@
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C1139" t="n">
@@ -23211,7 +23211,7 @@
       </c>
       <c r="D1139" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 30 22:16:33", "HOSTNAME": "combo", "PID": "19433", "USERNAME": "test"}</t>
+          <t>{"TIMESTAMP": "Jun 30 22:16:33", "HOSTNAME": "combo", "PID": "19433", "STATE": "closed", "USERNAME": "test"}</t>
         </is>
       </c>
     </row>
@@ -23223,7 +23223,7 @@
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C1140" t="n">
@@ -23231,7 +23231,7 @@
       </c>
       <c r="D1140" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 09:14:44", "HOSTNAME": "combo", "PID": "22106", "USERNAME": "test"}</t>
+          <t>{"TIMESTAMP": "Jul  1 09:14:44", "HOSTNAME": "combo", "PID": "22106", "STATE": "closed", "USERNAME": "test"}</t>
         </is>
       </c>
     </row>
@@ -23243,7 +23243,7 @@
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C1141" t="n">
@@ -23251,7 +23251,7 @@
       </c>
       <c r="D1141" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  1 09:14:44", "HOSTNAME": "combo", "PID": "22112", "USERNAME": "test"}</t>
+          <t>{"TIMESTAMP": "Jul  1 09:14:44", "HOSTNAME": "combo", "PID": "22112", "STATE": "closed", "USERNAME": "test"}</t>
         </is>
       </c>
     </row>
@@ -23263,7 +23263,7 @@
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C1142" t="n">
@@ -23271,7 +23271,7 @@
       </c>
       <c r="D1142" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jun 30 22:16:33", "HOSTNAME": "combo", "PID": "19436", "USERNAME": "test"}</t>
+          <t>{"TIMESTAMP": "Jun 30 22:16:33", "HOSTNAME": "combo", "PID": "19436", "STATE": "closed", "USERNAME": "test"}</t>
         </is>
       </c>
     </row>
@@ -36583,7 +36583,7 @@
       </c>
       <c r="B1808" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; login(pam_unix)[&lt;PID&gt;]: session opened for user &lt;USERNAME&gt; by LOGIN(uid=&lt;UID&gt;)</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; login(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
         </is>
       </c>
       <c r="C1808" t="n">
@@ -36591,7 +36591,7 @@
       </c>
       <c r="D1808" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 08:06:15", "HOSTNAME": "combo", "PID": "2421", "USERNAME": "root", "UID": "0"}</t>
+          <t>{"TIMESTAMP": "Jul  7 08:06:15", "HOSTNAME": "combo", "PID": "2421", "STATE": "opened", "USERNAME": "root", "UID": "0"}</t>
         </is>
       </c>
     </row>
@@ -36623,7 +36623,7 @@
       </c>
       <c r="B1810" t="inlineStr">
         <is>
-          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; login(pam_unix)[&lt;PID&gt;]: session closed for user &lt;USERNAME&gt;</t>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; login(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
         </is>
       </c>
       <c r="C1810" t="n">
@@ -36631,7 +36631,7 @@
       </c>
       <c r="D1810" t="inlineStr">
         <is>
-          <t>{"TIMESTAMP": "Jul  7 08:09:10", "HOSTNAME": "combo", "PID": "2421", "USERNAME": "root"}</t>
+          <t>{"TIMESTAMP": "Jul  7 08:09:10", "HOSTNAME": "combo", "PID": "2421", "STATE": "closed", "USERNAME": "root"}</t>
         </is>
       </c>
     </row>

--- a/Linux_2k_clean_analysis.xlsx
+++ b/Linux_2k_clean_analysis.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Log Analysis" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Template Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -36858,4 +36859,339 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Template ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Template Pattern</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Occurrences</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; ftpd[&lt;PID&gt;]: connection from &lt;RHOST&gt;</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: authentication failure; logname= uid=&lt;UID&gt; euid=0 tty=NODEVssh ruser= rhost=&lt;RHOST&gt; user=&lt;USERNAME&gt;</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; ftpd[&lt;PID&gt;]: connection from &lt;RHOST&gt; (&lt;RHOST&gt;)</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: authentication failure; logname= uid=&lt;UID&gt; euid=0 tty=NODEVssh ruser= rhost=&lt;RHOST&gt;</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: check pass; user &lt;USERNAME&gt;</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; su(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; sshd(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>13</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Kerberos authentication failed</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>14</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from &lt;RHOST&gt; (&lt;RHOST&gt;): Software caused connection abort</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; klogind[&lt;PID&gt;]: Authentication failed from &lt;RHOST&gt; (&lt;RHOST&gt;): Permission denied in replay cache code</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>22</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; ftpd[&lt;PID&gt;]: getpeername (ftpd): Transport endpoint is not connected</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>21</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; ftpd[&lt;PID&gt;]: ANONYMOUS FTP LOGIN FROM &lt;RHOST&gt;</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>23</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; xinetd[&lt;PID&gt;]: warning: can't get client address: Connection reset by peer</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; login(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt; by (uid=&lt;UID&gt;)</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>11</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; snmpd[&lt;PID&gt;]: Received SNMP packet(s) from &lt;RHOST&gt;</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>9</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; ftpd[&lt;PID&gt;]: User unknown timed out after &lt;NUM&gt; seconds</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; -- root[&lt;PID&gt;]: ROOT LOGIN ON tty2</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; gdm(pam_unix)[&lt;PID&gt;]: authentication failure; logname= uid=&lt;UID&gt; euid=0 tty=:0 ruser= rhost=</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>18</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; gdm(pam_unix)[&lt;PID&gt;]: check pass; user &lt;USERNAME&gt;</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>17</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; login(pam_unix)[&lt;PID&gt;]: session &lt;STATE&gt; for user &lt;USERNAME&gt;</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>20</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>&lt;TIMESTAMP&gt; &lt;HOSTNAME&gt; gdm-binary[&lt;PID&gt;]: Couldn't authenticate user</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>